--- a/templates/ERC000030/metadata_template_ERC000030.xlsx
+++ b/templates/ERC000030/metadata_template_ERC000030.xlsx
@@ -20,11 +20,11 @@
     <definedName name="environmentalpackage">'cv_sample'!$T$1:$T$1</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$V$1:$V$287</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$75</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
-    <definedName name="platform">'cv_experiment'!$M$1:$M$13</definedName>
+    <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="617">
   <si>
     <t>alias</t>
   </si>
@@ -451,6 +451,18 @@
     <t>ULTIMA</t>
   </si>
   <si>
+    <t>VELA_DIAGNOSTICS</t>
+  </si>
+  <si>
+    <t>GENAPSYS</t>
+  </si>
+  <si>
+    <t>GENEMIND</t>
+  </si>
+  <si>
+    <t>TAPESTRI</t>
+  </si>
+  <si>
     <t>platform</t>
   </si>
   <si>
@@ -550,6 +562,24 @@
     <t>Element AVITI</t>
   </si>
   <si>
+    <t>FASTASeq 300</t>
+  </si>
+  <si>
+    <t>GENIUS</t>
+  </si>
+  <si>
+    <t>GS111</t>
+  </si>
+  <si>
+    <t>Genapsys Sequencer</t>
+  </si>
+  <si>
+    <t>GenoCare 1600</t>
+  </si>
+  <si>
+    <t>GenoLab M</t>
+  </si>
+  <si>
     <t>GridION</t>
   </si>
   <si>
@@ -667,6 +697,9 @@
     <t>Revio</t>
   </si>
   <si>
+    <t>Sentosa SQ301</t>
+  </si>
+  <si>
     <t>Sequel</t>
   </si>
   <si>
@@ -674,6 +707,9 @@
   </si>
   <si>
     <t>Sequel IIe</t>
+  </si>
+  <si>
+    <t>Tapestri</t>
   </si>
   <si>
     <t>UG 100</t>
@@ -2392,10 +2428,10 @@
         <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2436,10 +2472,10 @@
         <v>125</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2466,7 +2502,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N75"/>
+  <dimension ref="G1:N83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2486,7 +2522,7 @@
         <v>126</v>
       </c>
       <c r="N1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="7:14">
@@ -2503,7 +2539,7 @@
         <v>127</v>
       </c>
       <c r="N2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="7:14">
@@ -2520,7 +2556,7 @@
         <v>128</v>
       </c>
       <c r="N3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="7:14">
@@ -2537,7 +2573,7 @@
         <v>129</v>
       </c>
       <c r="N4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="7:14">
@@ -2554,7 +2590,7 @@
         <v>130</v>
       </c>
       <c r="N5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="7:14">
@@ -2571,7 +2607,7 @@
         <v>131</v>
       </c>
       <c r="N6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="7:14">
@@ -2588,7 +2624,7 @@
         <v>132</v>
       </c>
       <c r="N7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="7:14">
@@ -2605,7 +2641,7 @@
         <v>133</v>
       </c>
       <c r="N8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="7:14">
@@ -2622,7 +2658,7 @@
         <v>134</v>
       </c>
       <c r="N9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="7:14">
@@ -2636,7 +2672,7 @@
         <v>135</v>
       </c>
       <c r="N10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="7:14">
@@ -2650,7 +2686,7 @@
         <v>136</v>
       </c>
       <c r="N11" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="7:14">
@@ -2664,7 +2700,7 @@
         <v>137</v>
       </c>
       <c r="N12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="7:14">
@@ -2678,7 +2714,7 @@
         <v>138</v>
       </c>
       <c r="N13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="7:14">
@@ -2688,8 +2724,11 @@
       <c r="I14" t="s">
         <v>101</v>
       </c>
+      <c r="M14" t="s">
+        <v>139</v>
+      </c>
       <c r="N14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="7:14">
@@ -2699,8 +2738,11 @@
       <c r="I15" t="s">
         <v>102</v>
       </c>
+      <c r="M15" t="s">
+        <v>140</v>
+      </c>
       <c r="N15" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="7:14">
@@ -2710,8 +2752,11 @@
       <c r="I16" t="s">
         <v>103</v>
       </c>
+      <c r="M16" t="s">
+        <v>141</v>
+      </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="7:14">
@@ -2721,8 +2766,11 @@
       <c r="I17" t="s">
         <v>104</v>
       </c>
+      <c r="M17" t="s">
+        <v>142</v>
+      </c>
       <c r="N17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="7:14">
@@ -2733,7 +2781,7 @@
         <v>54</v>
       </c>
       <c r="N18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="7:14">
@@ -2744,7 +2792,7 @@
         <v>105</v>
       </c>
       <c r="N19" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="7:14">
@@ -2755,7 +2803,7 @@
         <v>106</v>
       </c>
       <c r="N20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="7:14">
@@ -2766,7 +2814,7 @@
         <v>107</v>
       </c>
       <c r="N21" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="7:14">
@@ -2777,7 +2825,7 @@
         <v>108</v>
       </c>
       <c r="N22" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="7:14">
@@ -2788,7 +2836,7 @@
         <v>109</v>
       </c>
       <c r="N23" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="7:14">
@@ -2799,7 +2847,7 @@
         <v>110</v>
       </c>
       <c r="N24" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="7:14">
@@ -2810,7 +2858,7 @@
         <v>111</v>
       </c>
       <c r="N25" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="7:14">
@@ -2821,7 +2869,7 @@
         <v>112</v>
       </c>
       <c r="N26" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="7:14">
@@ -2832,7 +2880,7 @@
         <v>113</v>
       </c>
       <c r="N27" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="7:14">
@@ -2843,7 +2891,7 @@
         <v>114</v>
       </c>
       <c r="N28" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="7:14">
@@ -2854,7 +2902,7 @@
         <v>115</v>
       </c>
       <c r="N29" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="7:14">
@@ -2865,7 +2913,7 @@
         <v>116</v>
       </c>
       <c r="N30" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="7:14">
@@ -2876,7 +2924,7 @@
         <v>117</v>
       </c>
       <c r="N31" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="7:14">
@@ -2884,7 +2932,7 @@
         <v>66</v>
       </c>
       <c r="N32" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="7:14">
@@ -2892,7 +2940,7 @@
         <v>67</v>
       </c>
       <c r="N33" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="7:14">
@@ -2900,7 +2948,7 @@
         <v>68</v>
       </c>
       <c r="N34" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="7:14">
@@ -2908,7 +2956,7 @@
         <v>69</v>
       </c>
       <c r="N35" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="7:14">
@@ -2916,7 +2964,7 @@
         <v>70</v>
       </c>
       <c r="N36" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="7:14">
@@ -2924,7 +2972,7 @@
         <v>71</v>
       </c>
       <c r="N37" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="7:14">
@@ -2932,7 +2980,7 @@
         <v>72</v>
       </c>
       <c r="N38" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="7:14">
@@ -2940,7 +2988,7 @@
         <v>73</v>
       </c>
       <c r="N39" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="7:14">
@@ -2948,7 +2996,7 @@
         <v>74</v>
       </c>
       <c r="N40" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="7:14">
@@ -2956,176 +3004,216 @@
         <v>75</v>
       </c>
       <c r="N41" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="7:14">
       <c r="N42" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="7:14">
       <c r="N43" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="7:14">
       <c r="N44" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="7:14">
       <c r="N45" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="7:14">
       <c r="N46" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="7:14">
       <c r="N47" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="7:14">
       <c r="N48" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="14:14">
       <c r="N49" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="14:14">
       <c r="N50" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="14:14">
       <c r="N51" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="14:14">
       <c r="N52" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="14:14">
       <c r="N53" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="14:14">
       <c r="N54" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="14:14">
       <c r="N55" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="14:14">
       <c r="N56" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="14:14">
       <c r="N57" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="14:14">
       <c r="N58" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="14:14">
       <c r="N59" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="14:14">
       <c r="N60" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="14:14">
       <c r="N61" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="14:14">
       <c r="N62" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="14:14">
       <c r="N63" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="14:14">
       <c r="N64" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="14:14">
       <c r="N65" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66" spans="14:14">
       <c r="N66" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="14:14">
       <c r="N67" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="14:14">
       <c r="N68" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="14:14">
       <c r="N69" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="14:14">
       <c r="N70" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="14:14">
       <c r="N71" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="14:14">
       <c r="N72" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="14:14">
       <c r="N73" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="14:14">
       <c r="N74" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="14:14">
       <c r="N75" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="14:14">
+      <c r="N76" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="14:14">
+      <c r="N77" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="14:14">
+      <c r="N78" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="14:14">
+      <c r="N79" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="14:14">
+      <c r="N80" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="14:14">
+      <c r="N81" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="14:14">
+      <c r="N82" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="14:14">
+      <c r="N83" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3150,27 +3238,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3193,122 +3281,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3335,216 +3423,216 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
     </row>
   </sheetData>
@@ -3570,1440 +3658,1440 @@
   <sheetData>
     <row r="1" spans="20:22">
       <c r="T1" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="V1" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="20:22">
       <c r="V2" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="20:22">
       <c r="V3" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="20:22">
       <c r="V4" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="20:22">
       <c r="V5" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="20:22">
       <c r="V6" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="20:22">
       <c r="V7" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="20:22">
       <c r="V8" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="20:22">
       <c r="V9" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="20:22">
       <c r="V10" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="20:22">
       <c r="V11" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="20:22">
       <c r="V12" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="20:22">
       <c r="V13" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="20:22">
       <c r="V14" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="20:22">
       <c r="V15" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="20:22">
       <c r="V16" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="22:22">
       <c r="V17" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="22:22">
       <c r="V18" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="22:22">
       <c r="V19" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="22:22">
       <c r="V20" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="22:22">
       <c r="V21" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="22:22">
       <c r="V22" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="22:22">
       <c r="V23" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" spans="22:22">
       <c r="V24" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="22:22">
       <c r="V25" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
     </row>
     <row r="26" spans="22:22">
       <c r="V26" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="22:22">
       <c r="V27" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
     </row>
     <row r="28" spans="22:22">
       <c r="V28" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
     </row>
     <row r="29" spans="22:22">
       <c r="V29" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30" spans="22:22">
       <c r="V30" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
     <row r="31" spans="22:22">
       <c r="V31" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
     </row>
     <row r="32" spans="22:22">
       <c r="V32" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33" spans="22:22">
       <c r="V33" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
     </row>
     <row r="34" spans="22:22">
       <c r="V34" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
     </row>
     <row r="35" spans="22:22">
       <c r="V35" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
     </row>
     <row r="36" spans="22:22">
       <c r="V36" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" spans="22:22">
       <c r="V37" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
     </row>
     <row r="38" spans="22:22">
       <c r="V38" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
     </row>
     <row r="39" spans="22:22">
       <c r="V39" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
     </row>
     <row r="40" spans="22:22">
       <c r="V40" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
     </row>
     <row r="41" spans="22:22">
       <c r="V41" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
     </row>
     <row r="42" spans="22:22">
       <c r="V42" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
     </row>
     <row r="43" spans="22:22">
       <c r="V43" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
     </row>
     <row r="44" spans="22:22">
       <c r="V44" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
     </row>
     <row r="45" spans="22:22">
       <c r="V45" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
     </row>
     <row r="46" spans="22:22">
       <c r="V46" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
     </row>
     <row r="47" spans="22:22">
       <c r="V47" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="48" spans="22:22">
       <c r="V48" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
     </row>
     <row r="49" spans="22:22">
       <c r="V49" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
     </row>
     <row r="50" spans="22:22">
       <c r="V50" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
     </row>
     <row r="51" spans="22:22">
       <c r="V51" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
     </row>
     <row r="52" spans="22:22">
       <c r="V52" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
     </row>
     <row r="53" spans="22:22">
       <c r="V53" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
     </row>
     <row r="54" spans="22:22">
       <c r="V54" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
     </row>
     <row r="55" spans="22:22">
       <c r="V55" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
     </row>
     <row r="56" spans="22:22">
       <c r="V56" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
     </row>
     <row r="57" spans="22:22">
       <c r="V57" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
     </row>
     <row r="58" spans="22:22">
       <c r="V58" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
     </row>
     <row r="59" spans="22:22">
       <c r="V59" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="60" spans="22:22">
       <c r="V60" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
     </row>
     <row r="61" spans="22:22">
       <c r="V61" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
     </row>
     <row r="62" spans="22:22">
       <c r="V62" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
     </row>
     <row r="63" spans="22:22">
       <c r="V63" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="64" spans="22:22">
       <c r="V64" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
     </row>
     <row r="65" spans="22:22">
       <c r="V65" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
     </row>
     <row r="66" spans="22:22">
       <c r="V66" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
     </row>
     <row r="67" spans="22:22">
       <c r="V67" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
     </row>
     <row r="68" spans="22:22">
       <c r="V68" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
     </row>
     <row r="69" spans="22:22">
       <c r="V69" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
     <row r="70" spans="22:22">
       <c r="V70" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
     </row>
     <row r="71" spans="22:22">
       <c r="V71" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
     </row>
     <row r="72" spans="22:22">
       <c r="V72" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
     </row>
     <row r="73" spans="22:22">
       <c r="V73" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="74" spans="22:22">
       <c r="V74" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
     </row>
     <row r="75" spans="22:22">
       <c r="V75" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
     </row>
     <row r="76" spans="22:22">
       <c r="V76" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
     </row>
     <row r="77" spans="22:22">
       <c r="V77" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
     </row>
     <row r="78" spans="22:22">
       <c r="V78" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
     <row r="79" spans="22:22">
       <c r="V79" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
     <row r="80" spans="22:22">
       <c r="V80" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="81" spans="22:22">
       <c r="V81" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
     </row>
     <row r="82" spans="22:22">
       <c r="V82" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="83" spans="22:22">
       <c r="V83" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="84" spans="22:22">
       <c r="V84" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="85" spans="22:22">
       <c r="V85" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="86" spans="22:22">
       <c r="V86" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
     </row>
     <row r="87" spans="22:22">
       <c r="V87" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
     <row r="88" spans="22:22">
       <c r="V88" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="89" spans="22:22">
       <c r="V89" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="90" spans="22:22">
       <c r="V90" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="91" spans="22:22">
       <c r="V91" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="92" spans="22:22">
       <c r="V92" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="93" spans="22:22">
       <c r="V93" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="94" spans="22:22">
       <c r="V94" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
     </row>
     <row r="95" spans="22:22">
       <c r="V95" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
     </row>
     <row r="96" spans="22:22">
       <c r="V96" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
     </row>
     <row r="97" spans="22:22">
       <c r="V97" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
     <row r="98" spans="22:22">
       <c r="V98" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
     </row>
     <row r="99" spans="22:22">
       <c r="V99" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
     </row>
     <row r="100" spans="22:22">
       <c r="V100" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
     <row r="101" spans="22:22">
       <c r="V101" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
     </row>
     <row r="102" spans="22:22">
       <c r="V102" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
     <row r="103" spans="22:22">
       <c r="V103" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
     </row>
     <row r="104" spans="22:22">
       <c r="V104" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
     <row r="105" spans="22:22">
       <c r="V105" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="106" spans="22:22">
       <c r="V106" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
     </row>
     <row r="107" spans="22:22">
       <c r="V107" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
     </row>
     <row r="108" spans="22:22">
       <c r="V108" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
     </row>
     <row r="109" spans="22:22">
       <c r="V109" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
     </row>
     <row r="110" spans="22:22">
       <c r="V110" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
     </row>
     <row r="111" spans="22:22">
       <c r="V111" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
     </row>
     <row r="112" spans="22:22">
       <c r="V112" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
     </row>
     <row r="113" spans="22:22">
       <c r="V113" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
     </row>
     <row r="114" spans="22:22">
       <c r="V114" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="115" spans="22:22">
       <c r="V115" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="116" spans="22:22">
       <c r="V116" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="117" spans="22:22">
       <c r="V117" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
     </row>
     <row r="118" spans="22:22">
       <c r="V118" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
     </row>
     <row r="119" spans="22:22">
       <c r="V119" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="120" spans="22:22">
       <c r="V120" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
     </row>
     <row r="121" spans="22:22">
       <c r="V121" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="122" spans="22:22">
       <c r="V122" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="123" spans="22:22">
       <c r="V123" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="124" spans="22:22">
       <c r="V124" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
     </row>
     <row r="125" spans="22:22">
       <c r="V125" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
     </row>
     <row r="126" spans="22:22">
       <c r="V126" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
     <row r="127" spans="22:22">
       <c r="V127" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
     </row>
     <row r="128" spans="22:22">
       <c r="V128" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="129" spans="22:22">
       <c r="V129" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
     </row>
     <row r="130" spans="22:22">
       <c r="V130" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="131" spans="22:22">
       <c r="V131" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="132" spans="22:22">
       <c r="V132" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="133" spans="22:22">
       <c r="V133" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="134" spans="22:22">
       <c r="V134" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="135" spans="22:22">
       <c r="V135" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
     </row>
     <row r="136" spans="22:22">
       <c r="V136" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="137" spans="22:22">
       <c r="V137" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
     </row>
     <row r="138" spans="22:22">
       <c r="V138" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="139" spans="22:22">
       <c r="V139" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
     </row>
     <row r="140" spans="22:22">
       <c r="V140" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="141" spans="22:22">
       <c r="V141" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
     <row r="142" spans="22:22">
       <c r="V142" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="143" spans="22:22">
       <c r="V143" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="144" spans="22:22">
       <c r="V144" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="145" spans="22:22">
       <c r="V145" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="146" spans="22:22">
       <c r="V146" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
     </row>
     <row r="147" spans="22:22">
       <c r="V147" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="148" spans="22:22">
       <c r="V148" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="149" spans="22:22">
       <c r="V149" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="150" spans="22:22">
       <c r="V150" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="151" spans="22:22">
       <c r="V151" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
     </row>
     <row r="152" spans="22:22">
       <c r="V152" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
     </row>
     <row r="153" spans="22:22">
       <c r="V153" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
     </row>
     <row r="154" spans="22:22">
       <c r="V154" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="155" spans="22:22">
       <c r="V155" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="156" spans="22:22">
       <c r="V156" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
     </row>
     <row r="157" spans="22:22">
       <c r="V157" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="158" spans="22:22">
       <c r="V158" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="159" spans="22:22">
       <c r="V159" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
     <row r="160" spans="22:22">
       <c r="V160" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
     </row>
     <row r="161" spans="22:22">
       <c r="V161" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="162" spans="22:22">
       <c r="V162" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="163" spans="22:22">
       <c r="V163" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="164" spans="22:22">
       <c r="V164" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
     </row>
     <row r="165" spans="22:22">
       <c r="V165" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
     </row>
     <row r="166" spans="22:22">
       <c r="V166" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
     </row>
     <row r="167" spans="22:22">
       <c r="V167" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="168" spans="22:22">
       <c r="V168" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="169" spans="22:22">
       <c r="V169" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
     </row>
     <row r="170" spans="22:22">
       <c r="V170" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="171" spans="22:22">
       <c r="V171" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="172" spans="22:22">
       <c r="V172" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
     </row>
     <row r="173" spans="22:22">
       <c r="V173" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
     </row>
     <row r="174" spans="22:22">
       <c r="V174" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
     </row>
     <row r="175" spans="22:22">
       <c r="V175" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="176" spans="22:22">
       <c r="V176" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
     </row>
     <row r="177" spans="22:22">
       <c r="V177" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="178" spans="22:22">
       <c r="V178" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="179" spans="22:22">
       <c r="V179" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="180" spans="22:22">
       <c r="V180" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
     <row r="181" spans="22:22">
       <c r="V181" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="182" spans="22:22">
       <c r="V182" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="183" spans="22:22">
       <c r="V183" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
     </row>
     <row r="184" spans="22:22">
       <c r="V184" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
     </row>
     <row r="185" spans="22:22">
       <c r="V185" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="186" spans="22:22">
       <c r="V186" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="187" spans="22:22">
       <c r="V187" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="188" spans="22:22">
       <c r="V188" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="189" spans="22:22">
       <c r="V189" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
     </row>
     <row r="190" spans="22:22">
       <c r="V190" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
     </row>
     <row r="191" spans="22:22">
       <c r="V191" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
     </row>
     <row r="192" spans="22:22">
       <c r="V192" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
     </row>
     <row r="193" spans="22:22">
       <c r="V193" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
     </row>
     <row r="194" spans="22:22">
       <c r="V194" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
     </row>
     <row r="195" spans="22:22">
       <c r="V195" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="196" spans="22:22">
       <c r="V196" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
     </row>
     <row r="197" spans="22:22">
       <c r="V197" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
     </row>
     <row r="198" spans="22:22">
       <c r="V198" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
     </row>
     <row r="199" spans="22:22">
       <c r="V199" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="200" spans="22:22">
       <c r="V200" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
     </row>
     <row r="201" spans="22:22">
       <c r="V201" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
     </row>
     <row r="202" spans="22:22">
       <c r="V202" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
     </row>
     <row r="203" spans="22:22">
       <c r="V203" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
     </row>
     <row r="204" spans="22:22">
       <c r="V204" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
     </row>
     <row r="205" spans="22:22">
       <c r="V205" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
     </row>
     <row r="206" spans="22:22">
       <c r="V206" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
     </row>
     <row r="207" spans="22:22">
       <c r="V207" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
     </row>
     <row r="208" spans="22:22">
       <c r="V208" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
     </row>
     <row r="209" spans="22:22">
       <c r="V209" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
     </row>
     <row r="210" spans="22:22">
       <c r="V210" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
     </row>
     <row r="211" spans="22:22">
       <c r="V211" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="212" spans="22:22">
       <c r="V212" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="213" spans="22:22">
       <c r="V213" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
     </row>
     <row r="214" spans="22:22">
       <c r="V214" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="215" spans="22:22">
       <c r="V215" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
     </row>
     <row r="216" spans="22:22">
       <c r="V216" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="217" spans="22:22">
       <c r="V217" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="218" spans="22:22">
       <c r="V218" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="219" spans="22:22">
       <c r="V219" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
     </row>
     <row r="220" spans="22:22">
       <c r="V220" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
     </row>
     <row r="221" spans="22:22">
       <c r="V221" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
     </row>
     <row r="222" spans="22:22">
       <c r="V222" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
     </row>
     <row r="223" spans="22:22">
       <c r="V223" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
     <row r="224" spans="22:22">
       <c r="V224" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
     </row>
     <row r="225" spans="22:22">
       <c r="V225" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
     </row>
     <row r="226" spans="22:22">
       <c r="V226" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
     </row>
     <row r="227" spans="22:22">
       <c r="V227" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
     </row>
     <row r="228" spans="22:22">
       <c r="V228" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
     </row>
     <row r="229" spans="22:22">
       <c r="V229" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
     </row>
     <row r="230" spans="22:22">
       <c r="V230" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
     </row>
     <row r="231" spans="22:22">
       <c r="V231" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
     </row>
     <row r="232" spans="22:22">
       <c r="V232" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
     </row>
     <row r="233" spans="22:22">
       <c r="V233" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="234" spans="22:22">
       <c r="V234" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
     </row>
     <row r="235" spans="22:22">
       <c r="V235" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
     </row>
     <row r="236" spans="22:22">
       <c r="V236" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
     </row>
     <row r="237" spans="22:22">
       <c r="V237" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
     </row>
     <row r="238" spans="22:22">
       <c r="V238" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
     </row>
     <row r="239" spans="22:22">
       <c r="V239" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
     </row>
     <row r="240" spans="22:22">
       <c r="V240" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="241" spans="22:22">
       <c r="V241" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
     </row>
     <row r="242" spans="22:22">
       <c r="V242" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
     </row>
     <row r="243" spans="22:22">
       <c r="V243" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
     </row>
     <row r="244" spans="22:22">
       <c r="V244" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
     </row>
     <row r="245" spans="22:22">
       <c r="V245" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
     </row>
     <row r="246" spans="22:22">
       <c r="V246" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
     </row>
     <row r="247" spans="22:22">
       <c r="V247" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
     </row>
     <row r="248" spans="22:22">
       <c r="V248" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
     </row>
     <row r="249" spans="22:22">
       <c r="V249" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
     </row>
     <row r="250" spans="22:22">
       <c r="V250" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
     <row r="251" spans="22:22">
       <c r="V251" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
     </row>
     <row r="252" spans="22:22">
       <c r="V252" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
     </row>
     <row r="253" spans="22:22">
       <c r="V253" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="254" spans="22:22">
       <c r="V254" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
     </row>
     <row r="255" spans="22:22">
       <c r="V255" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="256" spans="22:22">
       <c r="V256" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
     </row>
     <row r="257" spans="22:22">
       <c r="V257" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
     </row>
     <row r="258" spans="22:22">
       <c r="V258" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
     </row>
     <row r="259" spans="22:22">
       <c r="V259" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
     </row>
     <row r="260" spans="22:22">
       <c r="V260" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
     </row>
     <row r="261" spans="22:22">
       <c r="V261" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
     </row>
     <row r="262" spans="22:22">
       <c r="V262" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
     </row>
     <row r="263" spans="22:22">
       <c r="V263" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
     </row>
     <row r="264" spans="22:22">
       <c r="V264" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
     </row>
     <row r="265" spans="22:22">
       <c r="V265" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
     </row>
     <row r="266" spans="22:22">
       <c r="V266" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
     </row>
     <row r="267" spans="22:22">
       <c r="V267" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
     </row>
     <row r="268" spans="22:22">
       <c r="V268" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
     </row>
     <row r="269" spans="22:22">
       <c r="V269" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
     </row>
     <row r="270" spans="22:22">
       <c r="V270" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
     </row>
     <row r="271" spans="22:22">
       <c r="V271" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
     </row>
     <row r="272" spans="22:22">
       <c r="V272" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
     </row>
     <row r="273" spans="22:22">
       <c r="V273" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
     </row>
     <row r="274" spans="22:22">
       <c r="V274" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
     </row>
     <row r="275" spans="22:22">
       <c r="V275" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
     </row>
     <row r="276" spans="22:22">
       <c r="V276" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
     </row>
     <row r="277" spans="22:22">
       <c r="V277" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
     </row>
     <row r="278" spans="22:22">
       <c r="V278" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
     </row>
     <row r="279" spans="22:22">
       <c r="V279" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
     </row>
     <row r="280" spans="22:22">
       <c r="V280" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
     </row>
     <row r="281" spans="22:22">
       <c r="V281" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
     </row>
     <row r="282" spans="22:22">
       <c r="V282" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
     </row>
     <row r="283" spans="22:22">
       <c r="V283" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
     </row>
     <row r="284" spans="22:22">
       <c r="V284" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
     </row>
     <row r="285" spans="22:22">
       <c r="V285" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
     </row>
     <row r="286" spans="22:22">
       <c r="V286" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
     </row>
     <row r="287" spans="22:22">
       <c r="V287" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000030/metadata_template_ERC000030.xlsx
+++ b/templates/ERC000030/metadata_template_ERC000030.xlsx
@@ -850,36 +850,31 @@
     <t>Latitude Start</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) Latitude of the location where the sampling event started, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ##.####, decimal degrees; north= +, south= -; use wgs 84 for gps data. example: -24.6666. Units: 
-                    </t>
+    <t>(Mandatory) Latitude of the location where the sampling event started, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ##.####, decimal degrees; north= +, south= -; use wgs 84 for gps data. example: -24.6666. (Units: DD)</t>
   </si>
   <si>
     <t>Longitude Start</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) Longitude of the location where the sampling event started, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ###.####, decimal degrees; east= +, west= -; use wgs 84 for gps data. example: -096.1012. Units: 
-                    </t>
+    <t>(Mandatory) Longitude of the location where the sampling event started, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ###.####, decimal degrees; east= +, west= -; use wgs 84 for gps data. example: -096.1012. (Units: DD)</t>
   </si>
   <si>
     <t>Latitude End</t>
   </si>
   <si>
-    <t xml:space="preserve">(Recommended) Latitude of the location where the sampling event ended, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ##.####, decimal degrees; north= +, south= -; use wgs 84 for gps data. example: -24.6643. Units: 
-                    </t>
+    <t>(Recommended) Latitude of the location where the sampling event ended, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ##.####, decimal degrees; north= +, south= -; use wgs 84 for gps data. example: -24.6643. (Units: DD)</t>
   </si>
   <si>
     <t>Longitude End</t>
   </si>
   <si>
-    <t xml:space="preserve">(Recommended) Longitude of the location where the sampling event ended, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ###.####, decimal degrees; east= +, west= -; use wgs 84 for gps data. example: -096.1171. Units: 
-                    </t>
+    <t>(Recommended) Longitude of the location where the sampling event ended, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ###.####, decimal degrees; east= +, west= -; use wgs 84 for gps data. example: -096.1171. (Units: DD)</t>
   </si>
   <si>
     <t>Depth</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) The distance below the surface of the water at which a measurement was made or a sample was collected. format: ####.##, positive below the sea surface. sdn:p06:46:ulaa for m. example: 14.71 Units: 
-                    </t>
+    <t>(Mandatory) The distance below the surface of the water at which a measurement was made or a sample was collected. format: ####.##, positive below the sea surface. sdn:p06:46:ulaa for m. example: 14.71 (Units: m)</t>
   </si>
   <si>
     <t>Sample Collection Device</t>
@@ -1851,36 +1846,31 @@
     <t>Salinity Sensor</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) Salinity of water at the time of taking the sample. format: ##.####, sdn:p02:75:psal, sdn:p06:46:ugkg for psu. example: 39.2268. Units: 
-                    </t>
+    <t>(Mandatory) Salinity of water at the time of taking the sample. format: ##.####, sdn:p02:75:psal, sdn:p06:46:ugkg for psu. example: 39.2268. (Units: psu)</t>
   </si>
   <si>
     <t>Oxygen Sensor</t>
   </si>
   <si>
-    <t xml:space="preserve">(Recommended) Oxygen concentration parameters in the water column measured in volts and converted to micromoles per kilogrammes. format: ###.####, sdn:p02:75:doxy, sdn:p06:46:kgum for µmol/kg. example: 217.7895. Units: 
-                    </t>
+    <t>(Recommended) Oxygen concentration parameters in the water column measured in volts and converted to micromoles per kilogrammes. format: ###.####, sdn:p02:75:doxy, sdn:p06:46:kgum for µmol/kg. example: 217.7895. (Units: µmol/kg)</t>
   </si>
   <si>
     <t>Nitrate Sensor</t>
   </si>
   <si>
-    <t xml:space="preserve">(Recommended) Nitrate concentration parameters in the water column measured in volts and converted to micromoles per litres. format: ##.####, sdn:p02:75:ntra, sdn:p06:46:upox for µmol/l. example: 0.2259. Units: 
-                    </t>
+    <t>(Recommended) Nitrate concentration parameters in the water column measured in volts and converted to micromoles per litres. format: ##.####, sdn:p02:75:ntra, sdn:p06:46:upox for µmol/l. example: 0.2259. (Units: µmol/L)</t>
   </si>
   <si>
     <t>Temperature</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) Temperature of water at the time of taking the sample. format: ##.####, sdn:p02:75:temp, sdn:p06:46:upaa for °c. example: 17.7122. Units: 
-                    </t>
+    <t>(Mandatory) Temperature of water at the time of taking the sample. format: ##.####, sdn:p02:75:temp, sdn:p06:46:upaa for °c. example: 17.7122. (Units: ºC)</t>
   </si>
   <si>
     <t>Chlorophyll Sensor</t>
   </si>
   <si>
-    <t xml:space="preserve">(Recommended) Fluorescence of the water measured in volts and converted to milligrammes of chlorophyll per cubic metre. format: ##.####, sdn:p02:75:cpwc, sdn:p06:46:ummc for mg chl/m3. example: 0.066. Units: 
-                    </t>
+    <t>(Recommended) Fluorescence of the water measured in volts and converted to milligrammes of chlorophyll per cubic metre. format: ##.####, sdn:p02:75:cpwc, sdn:p06:46:ummc for mg chl/m3. example: 0.066. (Units: mg Chl/m3)</t>
   </si>
   <si>
     <t>Citation</t>

--- a/templates/ERC000030/metadata_template_ERC000030.xlsx
+++ b/templates/ERC000030/metadata_template_ERC000030.xlsx
@@ -100,7 +100,7 @@
     <t>new_study_type</t>
   </si>
   <si>
-    <t>(Optional) Optional if 'study_type' is not 'other'to propose a new term, select other and enter a new study type.</t>
+    <t>(Optional) Optional if 'study_type' is not 'other'. to propose a new term, select other and enter a new study type.</t>
   </si>
   <si>
     <t>study_abstract</t>

--- a/templates/ERC000030/metadata_template_ERC000030.xlsx
+++ b/templates/ERC000030/metadata_template_ERC000030.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="environmentalpackage">'cv_sample'!$T$1:$T$1</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$V$1:$V$287</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$V$1:$V$288</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="620">
   <si>
     <t>alias</t>
   </si>
@@ -871,36 +871,12 @@
     <t>(Recommended) Longitude of the location where the sampling event ended, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ###.####, decimal degrees; east= +, west= -; use wgs 84 for gps data. example: -096.1171. (Units: DD)</t>
   </si>
   <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>(Mandatory) The distance below the surface of the water at which a measurement was made or a sample was collected. format: ####.##, positive below the sea surface. sdn:p06:46:ulaa for m. example: 14.71 (Units: m)</t>
-  </si>
-  <si>
-    <t>Sample Collection Device</t>
-  </si>
-  <si>
-    <t>(Recommended) The sampling device(s) used for the event. example: ctd(sbe9c)/rosette with niskin bottles.</t>
-  </si>
-  <si>
     <t>Protocol Label</t>
   </si>
   <si>
     <t>(Mandatory) Identifies the protocol used to produce the sample, e.g. filtration and preservation. example: bact_nuc_w0.22-1.6.</t>
   </si>
   <si>
-    <t>Size Fraction Lower Threshold</t>
-  </si>
-  <si>
-    <t>(Recommended) Sample_protocol_size-fraction_lower-threshold_(µm) indicates the lower size threshold. materials smaller than the size threshold are excluded from the sample. example: 0.22 µm</t>
-  </si>
-  <si>
-    <t>Size Fraction Upper Threshold</t>
-  </si>
-  <si>
-    <t>(Recommended) Sample_protocol_size-fraction_upper-threshold_(µm) indicates the upper size threshold. materials larger than the size threshold are excluded from the sample.example: 1.6 µm</t>
-  </si>
-  <si>
     <t>Sample Status</t>
   </si>
   <si>
@@ -913,6 +889,30 @@
     <t>(Recommended) Date of the last update of this sample in the samples registry. example: 2014-03-01z.</t>
   </si>
   <si>
+    <t>sample collection device</t>
+  </si>
+  <si>
+    <t>(Optional) The device used to collect an environmental sample. it is recommended to use terms listed under environmental sampling device (http://purl.obolibrary.org/obo/envo) and/or terms listed under specimen collection device (http://purl.obolibrary.org/obo/genepio_0002094).</t>
+  </si>
+  <si>
+    <t>sample storage device</t>
+  </si>
+  <si>
+    <t>(Recommended) The container used to store the sample. this field accepts terms listed under container (http://purl.obolibrary.org/obo/ncit_c43186). if the proper descriptor is not listed please use text to describe the storage device.</t>
+  </si>
+  <si>
+    <t>size-fraction lower threshold</t>
+  </si>
+  <si>
+    <t>(Recommended) Refers to the mesh/pore size used to retain the sample. materials smaller than the size threshold are excluded from the sample (Units: µm)</t>
+  </si>
+  <si>
+    <t>size-fraction upper threshold</t>
+  </si>
+  <si>
+    <t>(Recommended) Refers to the mesh/pore size used to pre-filter/pre-sort the sample. materials larger than the size threshold are excluded from the sample (Units: µm)</t>
+  </si>
+  <si>
     <t>project name</t>
   </si>
   <si>
@@ -1129,6 +1129,9 @@
     <t>Czech Republic</t>
   </si>
   <si>
+    <t>Czechia</t>
+  </si>
+  <si>
     <t>Democratic Republic of the Congo</t>
   </si>
   <si>
@@ -1798,7 +1801,7 @@
     <t>geographic location (country and/or sea)</t>
   </si>
   <si>
-    <t>(Mandatory) The location the sample was collected from with the intention of sequencing, as defined by the country or sea. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
+    <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
     <t>broad-scale environmental context</t>
@@ -1861,7 +1864,7 @@
     <t>(Recommended) Nitrate concentration parameters in the water column measured in volts and converted to micromoles per litres. format: ##.####, sdn:p02:75:ntra, sdn:p06:46:upox for µmol/l. example: 0.2259. (Units: µmol/L)</t>
   </si>
   <si>
-    <t>Temperature</t>
+    <t>water temperature</t>
   </si>
   <si>
     <t>(Mandatory) Temperature of water at the time of taking the sample. format: ##.####, sdn:p02:75:temp, sdn:p06:46:upaa for °c. example: 17.7122. (Units: ºC)</t>
@@ -1883,6 +1886,12 @@
   </si>
   <si>
     <t>(Recommended) Reference details related to a sample in form of an uri.</t>
+  </si>
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
   </si>
 </sst>
 </file>
@@ -3396,7 +3405,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ2"/>
+  <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3405,7 +3414,7 @@
     <col min="1" max="301" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:37">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3470,52 +3479,55 @@
         <v>298</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" ht="150" customHeight="1">
+        <v>616</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>229</v>
       </c>
@@ -3580,49 +3592,52 @@
         <v>299</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>619</v>
       </c>
     </row>
   </sheetData>
@@ -3640,7 +3655,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="T1:V287"/>
+  <dimension ref="T1:V288"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5084,6 +5099,11 @@
         <v>586</v>
       </c>
     </row>
+    <row r="288" spans="22:22">
+      <c r="V288" t="s">
+        <v>587</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/ERC000030/metadata_template_ERC000030.xlsx
+++ b/templates/ERC000030/metadata_template_ERC000030.xlsx
@@ -1126,10 +1126,10 @@
     <t>Cyprus</t>
   </si>
   <si>
+    <t>Czechia</t>
+  </si>
+  <si>
     <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Czechia</t>
   </si>
   <si>
     <t>Democratic Republic of the Congo</t>

--- a/templates/ERC000030/metadata_template_ERC000030.xlsx
+++ b/templates/ERC000030/metadata_template_ERC000030.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="621">
   <si>
     <t>alias</t>
   </si>
@@ -812,6 +812,9 @@
   </si>
   <si>
     <t>(Mandatory) The run data file model.</t>
+  </si>
+  <si>
+    <t>(Mandatory) Unique identificator for each sample.</t>
   </si>
   <si>
     <t>(Mandatory) Short text that can be used to call out sample records in search results or in displays.</t>
@@ -3422,222 +3425,222 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -3663,1445 +3666,1445 @@
   <sheetData>
     <row r="1" spans="20:22">
       <c r="T1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="V1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="20:22">
       <c r="V2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="20:22">
       <c r="V3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="20:22">
       <c r="V4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="20:22">
       <c r="V5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="20:22">
       <c r="V6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="20:22">
       <c r="V7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="20:22">
       <c r="V8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="20:22">
       <c r="V9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="20:22">
       <c r="V10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="20:22">
       <c r="V11" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="20:22">
       <c r="V12" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="20:22">
       <c r="V13" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="20:22">
       <c r="V14" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="20:22">
       <c r="V15" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="20:22">
       <c r="V16" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="22:22">
       <c r="V17" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="22:22">
       <c r="V18" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="22:22">
       <c r="V19" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="22:22">
       <c r="V20" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="22:22">
       <c r="V21" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="22:22">
       <c r="V22" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="22:22">
       <c r="V23" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="22:22">
       <c r="V24" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="22:22">
       <c r="V25" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="22:22">
       <c r="V26" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="22:22">
       <c r="V27" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="28" spans="22:22">
       <c r="V28" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="22:22">
       <c r="V29" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="30" spans="22:22">
       <c r="V30" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="31" spans="22:22">
       <c r="V31" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="32" spans="22:22">
       <c r="V32" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33" spans="22:22">
       <c r="V33" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="34" spans="22:22">
       <c r="V34" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="35" spans="22:22">
       <c r="V35" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="36" spans="22:22">
       <c r="V36" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="37" spans="22:22">
       <c r="V37" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="38" spans="22:22">
       <c r="V38" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="39" spans="22:22">
       <c r="V39" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40" spans="22:22">
       <c r="V40" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="41" spans="22:22">
       <c r="V41" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="42" spans="22:22">
       <c r="V42" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="43" spans="22:22">
       <c r="V43" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="44" spans="22:22">
       <c r="V44" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="45" spans="22:22">
       <c r="V45" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="46" spans="22:22">
       <c r="V46" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="47" spans="22:22">
       <c r="V47" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="48" spans="22:22">
       <c r="V48" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="49" spans="22:22">
       <c r="V49" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="50" spans="22:22">
       <c r="V50" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="51" spans="22:22">
       <c r="V51" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="52" spans="22:22">
       <c r="V52" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="53" spans="22:22">
       <c r="V53" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="54" spans="22:22">
       <c r="V54" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="55" spans="22:22">
       <c r="V55" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="56" spans="22:22">
       <c r="V56" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="57" spans="22:22">
       <c r="V57" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="58" spans="22:22">
       <c r="V58" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="59" spans="22:22">
       <c r="V59" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="60" spans="22:22">
       <c r="V60" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="61" spans="22:22">
       <c r="V61" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="62" spans="22:22">
       <c r="V62" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="63" spans="22:22">
       <c r="V63" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="64" spans="22:22">
       <c r="V64" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="65" spans="22:22">
       <c r="V65" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="66" spans="22:22">
       <c r="V66" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="67" spans="22:22">
       <c r="V67" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="68" spans="22:22">
       <c r="V68" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="69" spans="22:22">
       <c r="V69" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="70" spans="22:22">
       <c r="V70" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="71" spans="22:22">
       <c r="V71" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="72" spans="22:22">
       <c r="V72" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="73" spans="22:22">
       <c r="V73" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="74" spans="22:22">
       <c r="V74" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="75" spans="22:22">
       <c r="V75" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="76" spans="22:22">
       <c r="V76" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="77" spans="22:22">
       <c r="V77" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="78" spans="22:22">
       <c r="V78" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="79" spans="22:22">
       <c r="V79" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="80" spans="22:22">
       <c r="V80" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="81" spans="22:22">
       <c r="V81" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="82" spans="22:22">
       <c r="V82" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="83" spans="22:22">
       <c r="V83" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="84" spans="22:22">
       <c r="V84" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="85" spans="22:22">
       <c r="V85" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="86" spans="22:22">
       <c r="V86" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="87" spans="22:22">
       <c r="V87" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="88" spans="22:22">
       <c r="V88" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="89" spans="22:22">
       <c r="V89" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="90" spans="22:22">
       <c r="V90" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="91" spans="22:22">
       <c r="V91" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="92" spans="22:22">
       <c r="V92" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="93" spans="22:22">
       <c r="V93" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="94" spans="22:22">
       <c r="V94" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="95" spans="22:22">
       <c r="V95" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="96" spans="22:22">
       <c r="V96" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="97" spans="22:22">
       <c r="V97" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="98" spans="22:22">
       <c r="V98" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="99" spans="22:22">
       <c r="V99" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="100" spans="22:22">
       <c r="V100" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="101" spans="22:22">
       <c r="V101" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="102" spans="22:22">
       <c r="V102" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="103" spans="22:22">
       <c r="V103" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="104" spans="22:22">
       <c r="V104" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="105" spans="22:22">
       <c r="V105" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="106" spans="22:22">
       <c r="V106" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="107" spans="22:22">
       <c r="V107" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="108" spans="22:22">
       <c r="V108" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="109" spans="22:22">
       <c r="V109" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="110" spans="22:22">
       <c r="V110" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="111" spans="22:22">
       <c r="V111" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="112" spans="22:22">
       <c r="V112" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="113" spans="22:22">
       <c r="V113" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="114" spans="22:22">
       <c r="V114" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="115" spans="22:22">
       <c r="V115" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="116" spans="22:22">
       <c r="V116" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="117" spans="22:22">
       <c r="V117" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="118" spans="22:22">
       <c r="V118" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="119" spans="22:22">
       <c r="V119" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="120" spans="22:22">
       <c r="V120" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="121" spans="22:22">
       <c r="V121" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="122" spans="22:22">
       <c r="V122" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="123" spans="22:22">
       <c r="V123" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="124" spans="22:22">
       <c r="V124" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="125" spans="22:22">
       <c r="V125" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="126" spans="22:22">
       <c r="V126" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="127" spans="22:22">
       <c r="V127" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="128" spans="22:22">
       <c r="V128" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="129" spans="22:22">
       <c r="V129" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="130" spans="22:22">
       <c r="V130" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="131" spans="22:22">
       <c r="V131" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="132" spans="22:22">
       <c r="V132" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="133" spans="22:22">
       <c r="V133" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="134" spans="22:22">
       <c r="V134" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="135" spans="22:22">
       <c r="V135" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="136" spans="22:22">
       <c r="V136" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="137" spans="22:22">
       <c r="V137" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="138" spans="22:22">
       <c r="V138" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="139" spans="22:22">
       <c r="V139" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="140" spans="22:22">
       <c r="V140" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="141" spans="22:22">
       <c r="V141" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="142" spans="22:22">
       <c r="V142" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="143" spans="22:22">
       <c r="V143" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="144" spans="22:22">
       <c r="V144" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="145" spans="22:22">
       <c r="V145" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="146" spans="22:22">
       <c r="V146" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="147" spans="22:22">
       <c r="V147" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="148" spans="22:22">
       <c r="V148" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="149" spans="22:22">
       <c r="V149" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="150" spans="22:22">
       <c r="V150" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="151" spans="22:22">
       <c r="V151" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="152" spans="22:22">
       <c r="V152" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="153" spans="22:22">
       <c r="V153" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="154" spans="22:22">
       <c r="V154" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="155" spans="22:22">
       <c r="V155" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="156" spans="22:22">
       <c r="V156" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="157" spans="22:22">
       <c r="V157" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="158" spans="22:22">
       <c r="V158" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="159" spans="22:22">
       <c r="V159" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="160" spans="22:22">
       <c r="V160" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="161" spans="22:22">
       <c r="V161" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="162" spans="22:22">
       <c r="V162" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="163" spans="22:22">
       <c r="V163" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="164" spans="22:22">
       <c r="V164" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="165" spans="22:22">
       <c r="V165" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="166" spans="22:22">
       <c r="V166" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="167" spans="22:22">
       <c r="V167" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="168" spans="22:22">
       <c r="V168" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="169" spans="22:22">
       <c r="V169" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="170" spans="22:22">
       <c r="V170" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="171" spans="22:22">
       <c r="V171" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="172" spans="22:22">
       <c r="V172" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="173" spans="22:22">
       <c r="V173" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="174" spans="22:22">
       <c r="V174" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="175" spans="22:22">
       <c r="V175" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="176" spans="22:22">
       <c r="V176" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="177" spans="22:22">
       <c r="V177" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="178" spans="22:22">
       <c r="V178" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="179" spans="22:22">
       <c r="V179" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="180" spans="22:22">
       <c r="V180" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="181" spans="22:22">
       <c r="V181" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="182" spans="22:22">
       <c r="V182" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="183" spans="22:22">
       <c r="V183" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="184" spans="22:22">
       <c r="V184" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="185" spans="22:22">
       <c r="V185" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="186" spans="22:22">
       <c r="V186" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="187" spans="22:22">
       <c r="V187" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="188" spans="22:22">
       <c r="V188" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="189" spans="22:22">
       <c r="V189" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="190" spans="22:22">
       <c r="V190" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="191" spans="22:22">
       <c r="V191" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="192" spans="22:22">
       <c r="V192" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="193" spans="22:22">
       <c r="V193" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="194" spans="22:22">
       <c r="V194" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="195" spans="22:22">
       <c r="V195" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="196" spans="22:22">
       <c r="V196" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="197" spans="22:22">
       <c r="V197" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="198" spans="22:22">
       <c r="V198" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="199" spans="22:22">
       <c r="V199" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="200" spans="22:22">
       <c r="V200" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="201" spans="22:22">
       <c r="V201" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="202" spans="22:22">
       <c r="V202" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="203" spans="22:22">
       <c r="V203" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="204" spans="22:22">
       <c r="V204" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="205" spans="22:22">
       <c r="V205" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="206" spans="22:22">
       <c r="V206" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="207" spans="22:22">
       <c r="V207" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="208" spans="22:22">
       <c r="V208" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="209" spans="22:22">
       <c r="V209" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="210" spans="22:22">
       <c r="V210" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="211" spans="22:22">
       <c r="V211" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="212" spans="22:22">
       <c r="V212" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="213" spans="22:22">
       <c r="V213" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="214" spans="22:22">
       <c r="V214" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="215" spans="22:22">
       <c r="V215" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="216" spans="22:22">
       <c r="V216" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="217" spans="22:22">
       <c r="V217" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="218" spans="22:22">
       <c r="V218" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="219" spans="22:22">
       <c r="V219" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="220" spans="22:22">
       <c r="V220" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="221" spans="22:22">
       <c r="V221" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="222" spans="22:22">
       <c r="V222" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="223" spans="22:22">
       <c r="V223" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="224" spans="22:22">
       <c r="V224" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="225" spans="22:22">
       <c r="V225" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="226" spans="22:22">
       <c r="V226" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="227" spans="22:22">
       <c r="V227" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="228" spans="22:22">
       <c r="V228" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="229" spans="22:22">
       <c r="V229" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="230" spans="22:22">
       <c r="V230" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="231" spans="22:22">
       <c r="V231" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="232" spans="22:22">
       <c r="V232" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="233" spans="22:22">
       <c r="V233" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="234" spans="22:22">
       <c r="V234" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="235" spans="22:22">
       <c r="V235" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="236" spans="22:22">
       <c r="V236" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="237" spans="22:22">
       <c r="V237" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="238" spans="22:22">
       <c r="V238" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="239" spans="22:22">
       <c r="V239" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="240" spans="22:22">
       <c r="V240" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="241" spans="22:22">
       <c r="V241" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="242" spans="22:22">
       <c r="V242" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="243" spans="22:22">
       <c r="V243" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="244" spans="22:22">
       <c r="V244" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="245" spans="22:22">
       <c r="V245" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="246" spans="22:22">
       <c r="V246" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="247" spans="22:22">
       <c r="V247" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="248" spans="22:22">
       <c r="V248" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="249" spans="22:22">
       <c r="V249" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="250" spans="22:22">
       <c r="V250" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="251" spans="22:22">
       <c r="V251" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="252" spans="22:22">
       <c r="V252" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="253" spans="22:22">
       <c r="V253" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="254" spans="22:22">
       <c r="V254" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="255" spans="22:22">
       <c r="V255" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="256" spans="22:22">
       <c r="V256" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="257" spans="22:22">
       <c r="V257" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="258" spans="22:22">
       <c r="V258" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="259" spans="22:22">
       <c r="V259" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="260" spans="22:22">
       <c r="V260" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="261" spans="22:22">
       <c r="V261" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="262" spans="22:22">
       <c r="V262" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="263" spans="22:22">
       <c r="V263" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="264" spans="22:22">
       <c r="V264" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="265" spans="22:22">
       <c r="V265" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="266" spans="22:22">
       <c r="V266" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="267" spans="22:22">
       <c r="V267" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="268" spans="22:22">
       <c r="V268" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="269" spans="22:22">
       <c r="V269" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="270" spans="22:22">
       <c r="V270" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="271" spans="22:22">
       <c r="V271" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="272" spans="22:22">
       <c r="V272" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="273" spans="22:22">
       <c r="V273" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="274" spans="22:22">
       <c r="V274" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="275" spans="22:22">
       <c r="V275" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="276" spans="22:22">
       <c r="V276" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="277" spans="22:22">
       <c r="V277" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="278" spans="22:22">
       <c r="V278" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="279" spans="22:22">
       <c r="V279" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="280" spans="22:22">
       <c r="V280" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="281" spans="22:22">
       <c r="V281" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="282" spans="22:22">
       <c r="V282" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="283" spans="22:22">
       <c r="V283" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="284" spans="22:22">
       <c r="V284" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="285" spans="22:22">
       <c r="V285" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="286" spans="22:22">
       <c r="V286" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="287" spans="22:22">
       <c r="V287" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="288" spans="22:22">
       <c r="V288" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000030/metadata_template_ERC000030.xlsx
+++ b/templates/ERC000030/metadata_template_ERC000030.xlsx
@@ -112,7 +112,7 @@
     <t>(Mandatory) Unique identificator for each experiment. this is used to link runs to experiments.</t>
   </si>
   <si>
-    <t>(Optional) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
+    <t>(Mandatory) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
   </si>
   <si>
     <t>study_alias</t>
@@ -130,7 +130,7 @@
     <t>design_description</t>
   </si>
   <si>
-    <t>(Optional) Goal and setup of the individual library including library was constructed.</t>
+    <t>(Mandatory) Goal and setup of the individual library including library was constructed.</t>
   </si>
   <si>
     <t>library_name</t>

--- a/templates/ERC000030/metadata_template_ERC000030.xlsx
+++ b/templates/ERC000030/metadata_template_ERC000030.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="environmentalpackage">'cv_sample'!$T$1:$T$1</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$V$1:$V$288</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AH$1:$AH$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="622">
   <si>
     <t>alias</t>
   </si>
@@ -937,6 +937,78 @@
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
   </si>
   <si>
+    <t>broad-scale environmental context</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
+  </si>
+  <si>
+    <t>local environmental context</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
+  </si>
+  <si>
+    <t>environmental medium</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
+  </si>
+  <si>
+    <t>Sampling Campaign</t>
+  </si>
+  <si>
+    <t>(Mandatory) Refers to a finite or indefinite activity aiming at collecting data/samples, e.g. a cruise, a time series, a mesocosm experiment. example: tara_20110401z.</t>
+  </si>
+  <si>
+    <t>Sampling Station</t>
+  </si>
+  <si>
+    <t>(Mandatory) Refers to the site/station where data/sample collection is performed. example: tara_100.</t>
+  </si>
+  <si>
+    <t>Sampling Platform</t>
+  </si>
+  <si>
+    <t>(Mandatory) Refers to the unique stage from which the sampling device has been deployed. includes platform category from sdn:l06, http://seadatanet.maris2.nl/v_bodc_vocab_v2/search.asp?lib=l06, and platform name. example: research vessel tara.</t>
+  </si>
+  <si>
+    <t>Marine Region</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of the sample as defined by the marine region name chosen from the marine regions vocabulary at http://www.marineregions.org/. example: aegean sea.</t>
+  </si>
+  <si>
+    <t>Salinity Sensor</t>
+  </si>
+  <si>
+    <t>(Mandatory) Salinity of water at the time of taking the sample. format: ##.####, sdn:p02:75:psal, sdn:p06:46:ugkg for psu. example: 39.2268. (Units: psu)</t>
+  </si>
+  <si>
+    <t>Oxygen Sensor</t>
+  </si>
+  <si>
+    <t>(Recommended) Oxygen concentration parameters in the water column measured in volts and converted to micromoles per kilogrammes. format: ###.####, sdn:p02:75:doxy, sdn:p06:46:kgum for µmol/kg. example: 217.7895. (Units: µmol/kg)</t>
+  </si>
+  <si>
+    <t>Nitrate Sensor</t>
+  </si>
+  <si>
+    <t>(Recommended) Nitrate concentration parameters in the water column measured in volts and converted to micromoles per litres. format: ##.####, sdn:p02:75:ntra, sdn:p06:46:upox for µmol/l. example: 0.2259. (Units: µmol/L)</t>
+  </si>
+  <si>
+    <t>water temperature</t>
+  </si>
+  <si>
+    <t>(Mandatory) Temperature of water at the time of taking the sample. format: ##.####, sdn:p02:75:temp, sdn:p06:46:upaa for °c. example: 17.7122. (Units: ºC)</t>
+  </si>
+  <si>
+    <t>Chlorophyll Sensor</t>
+  </si>
+  <si>
+    <t>(Recommended) Fluorescence of the water measured in volts and converted to milligrammes of chlorophyll per cubic metre. format: ##.####, sdn:p02:75:cpwc, sdn:p06:46:ummc for mg chl/m3. example: 0.066. (Units: mg Chl/m3)</t>
+  </si>
+  <si>
     <t>Afghanistan</t>
   </si>
   <si>
@@ -1765,6 +1837,9 @@
     <t>Zimbabwe</t>
   </si>
   <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>missing: control sample</t>
   </si>
   <si>
@@ -1805,78 +1880,6 @@
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
-  </si>
-  <si>
-    <t>broad-scale environmental context</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
-  </si>
-  <si>
-    <t>local environmental context</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
-  </si>
-  <si>
-    <t>environmental medium</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
-  </si>
-  <si>
-    <t>Sampling Campaign</t>
-  </si>
-  <si>
-    <t>(Mandatory) Refers to a finite or indefinite activity aiming at collecting data/samples, e.g. a cruise, a time series, a mesocosm experiment. example: tara_20110401z.</t>
-  </si>
-  <si>
-    <t>Sampling Station</t>
-  </si>
-  <si>
-    <t>(Mandatory) Refers to the site/station where data/sample collection is performed. example: tara_100.</t>
-  </si>
-  <si>
-    <t>Sampling Platform</t>
-  </si>
-  <si>
-    <t>(Mandatory) Refers to the unique stage from which the sampling device has been deployed. includes platform category from sdn:l06, http://seadatanet.maris2.nl/v_bodc_vocab_v2/search.asp?lib=l06, and platform name. example: research vessel tara.</t>
-  </si>
-  <si>
-    <t>Marine Region</t>
-  </si>
-  <si>
-    <t>(Mandatory) The geographical origin of the sample as defined by the marine region name chosen from the marine regions vocabulary at http://www.marineregions.org/. example: aegean sea.</t>
-  </si>
-  <si>
-    <t>Salinity Sensor</t>
-  </si>
-  <si>
-    <t>(Mandatory) Salinity of water at the time of taking the sample. format: ##.####, sdn:p02:75:psal, sdn:p06:46:ugkg for psu. example: 39.2268. (Units: psu)</t>
-  </si>
-  <si>
-    <t>Oxygen Sensor</t>
-  </si>
-  <si>
-    <t>(Recommended) Oxygen concentration parameters in the water column measured in volts and converted to micromoles per kilogrammes. format: ###.####, sdn:p02:75:doxy, sdn:p06:46:kgum for µmol/kg. example: 217.7895. (Units: µmol/kg)</t>
-  </si>
-  <si>
-    <t>Nitrate Sensor</t>
-  </si>
-  <si>
-    <t>(Recommended) Nitrate concentration parameters in the water column measured in volts and converted to micromoles per litres. format: ##.####, sdn:p02:75:ntra, sdn:p06:46:upox for µmol/l. example: 0.2259. (Units: µmol/L)</t>
-  </si>
-  <si>
-    <t>water temperature</t>
-  </si>
-  <si>
-    <t>(Mandatory) Temperature of water at the time of taking the sample. format: ##.####, sdn:p02:75:temp, sdn:p06:46:upaa for °c. example: 17.7122. (Units: ºC)</t>
-  </si>
-  <si>
-    <t>Chlorophyll Sensor</t>
-  </si>
-  <si>
-    <t>(Recommended) Fluorescence of the water measured in volts and converted to milligrammes of chlorophyll per cubic metre. format: ##.####, sdn:p02:75:cpwc, sdn:p06:46:ummc for mg chl/m3. example: 0.066. (Units: mg Chl/m3)</t>
   </si>
   <si>
     <t>Citation</t>
@@ -3482,52 +3485,52 @@
         <v>299</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>589</v>
+        <v>301</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>591</v>
+        <v>303</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>593</v>
+        <v>305</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>595</v>
+        <v>307</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>597</v>
+        <v>309</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>599</v>
+        <v>311</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>601</v>
+        <v>313</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>603</v>
+        <v>315</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>605</v>
+        <v>317</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>607</v>
+        <v>319</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>609</v>
+        <v>321</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>611</v>
+        <v>323</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="150" customHeight="1">
@@ -3595,52 +3598,52 @@
         <v>300</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>590</v>
+        <v>302</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>592</v>
+        <v>304</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>594</v>
+        <v>306</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>596</v>
+        <v>308</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>598</v>
+        <v>310</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>600</v>
+        <v>312</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>602</v>
+        <v>314</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>604</v>
+        <v>316</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>606</v>
+        <v>318</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>608</v>
+        <v>320</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>610</v>
+        <v>322</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>612</v>
+        <v>324</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
   </sheetData>
@@ -3648,7 +3651,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T101">
       <formula1>environmentalpackage</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:V101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
   </dataValidations>
@@ -3658,1453 +3661,1458 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="T1:V288"/>
+  <dimension ref="T1:AH289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="20:22">
+    <row r="1" spans="20:34">
       <c r="T1" t="s">
         <v>296</v>
       </c>
-      <c r="V1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="2" spans="20:22">
-      <c r="V2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="3" spans="20:22">
-      <c r="V3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="4" spans="20:22">
-      <c r="V4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="5" spans="20:22">
-      <c r="V5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="6" spans="20:22">
-      <c r="V6" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="7" spans="20:22">
-      <c r="V7" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="8" spans="20:22">
-      <c r="V8" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="9" spans="20:22">
-      <c r="V9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="10" spans="20:22">
-      <c r="V10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="11" spans="20:22">
-      <c r="V11" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="12" spans="20:22">
-      <c r="V12" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="13" spans="20:22">
-      <c r="V13" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="14" spans="20:22">
-      <c r="V14" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="15" spans="20:22">
-      <c r="V15" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="16" spans="20:22">
-      <c r="V16" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="17" spans="22:22">
-      <c r="V17" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="18" spans="22:22">
-      <c r="V18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="19" spans="22:22">
-      <c r="V19" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="20" spans="22:22">
-      <c r="V20" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="21" spans="22:22">
-      <c r="V21" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="22" spans="22:22">
-      <c r="V22" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="23" spans="22:22">
-      <c r="V23" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="24" spans="22:22">
-      <c r="V24" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="25" spans="22:22">
-      <c r="V25" t="s">
+      <c r="AH1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="26" spans="22:22">
-      <c r="V26" t="s">
+    <row r="2" spans="20:34">
+      <c r="AH2" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="27" spans="22:22">
-      <c r="V27" t="s">
+    <row r="3" spans="20:34">
+      <c r="AH3" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="28" spans="22:22">
-      <c r="V28" t="s">
+    <row r="4" spans="20:34">
+      <c r="AH4" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="29" spans="22:22">
-      <c r="V29" t="s">
+    <row r="5" spans="20:34">
+      <c r="AH5" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="22:22">
-      <c r="V30" t="s">
+    <row r="6" spans="20:34">
+      <c r="AH6" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="31" spans="22:22">
-      <c r="V31" t="s">
+    <row r="7" spans="20:34">
+      <c r="AH7" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="32" spans="22:22">
-      <c r="V32" t="s">
+    <row r="8" spans="20:34">
+      <c r="AH8" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="33" spans="22:22">
-      <c r="V33" t="s">
+    <row r="9" spans="20:34">
+      <c r="AH9" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="34" spans="22:22">
-      <c r="V34" t="s">
+    <row r="10" spans="20:34">
+      <c r="AH10" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="35" spans="22:22">
-      <c r="V35" t="s">
+    <row r="11" spans="20:34">
+      <c r="AH11" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="36" spans="22:22">
-      <c r="V36" t="s">
+    <row r="12" spans="20:34">
+      <c r="AH12" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="37" spans="22:22">
-      <c r="V37" t="s">
+    <row r="13" spans="20:34">
+      <c r="AH13" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="38" spans="22:22">
-      <c r="V38" t="s">
+    <row r="14" spans="20:34">
+      <c r="AH14" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="39" spans="22:22">
-      <c r="V39" t="s">
+    <row r="15" spans="20:34">
+      <c r="AH15" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="40" spans="22:22">
-      <c r="V40" t="s">
+    <row r="16" spans="20:34">
+      <c r="AH16" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="41" spans="22:22">
-      <c r="V41" t="s">
+    <row r="17" spans="34:34">
+      <c r="AH17" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="42" spans="22:22">
-      <c r="V42" t="s">
+    <row r="18" spans="34:34">
+      <c r="AH18" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="43" spans="22:22">
-      <c r="V43" t="s">
+    <row r="19" spans="34:34">
+      <c r="AH19" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="44" spans="22:22">
-      <c r="V44" t="s">
+    <row r="20" spans="34:34">
+      <c r="AH20" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="45" spans="22:22">
-      <c r="V45" t="s">
+    <row r="21" spans="34:34">
+      <c r="AH21" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="46" spans="22:22">
-      <c r="V46" t="s">
+    <row r="22" spans="34:34">
+      <c r="AH22" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="47" spans="22:22">
-      <c r="V47" t="s">
+    <row r="23" spans="34:34">
+      <c r="AH23" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="48" spans="22:22">
-      <c r="V48" t="s">
+    <row r="24" spans="34:34">
+      <c r="AH24" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="49" spans="22:22">
-      <c r="V49" t="s">
+    <row r="25" spans="34:34">
+      <c r="AH25" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="50" spans="22:22">
-      <c r="V50" t="s">
+    <row r="26" spans="34:34">
+      <c r="AH26" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="51" spans="22:22">
-      <c r="V51" t="s">
+    <row r="27" spans="34:34">
+      <c r="AH27" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="52" spans="22:22">
-      <c r="V52" t="s">
+    <row r="28" spans="34:34">
+      <c r="AH28" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="53" spans="22:22">
-      <c r="V53" t="s">
+    <row r="29" spans="34:34">
+      <c r="AH29" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="54" spans="22:22">
-      <c r="V54" t="s">
+    <row r="30" spans="34:34">
+      <c r="AH30" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="55" spans="22:22">
-      <c r="V55" t="s">
+    <row r="31" spans="34:34">
+      <c r="AH31" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="56" spans="22:22">
-      <c r="V56" t="s">
+    <row r="32" spans="34:34">
+      <c r="AH32" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="57" spans="22:22">
-      <c r="V57" t="s">
+    <row r="33" spans="34:34">
+      <c r="AH33" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="58" spans="22:22">
-      <c r="V58" t="s">
+    <row r="34" spans="34:34">
+      <c r="AH34" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="59" spans="22:22">
-      <c r="V59" t="s">
+    <row r="35" spans="34:34">
+      <c r="AH35" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="60" spans="22:22">
-      <c r="V60" t="s">
+    <row r="36" spans="34:34">
+      <c r="AH36" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="61" spans="22:22">
-      <c r="V61" t="s">
+    <row r="37" spans="34:34">
+      <c r="AH37" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="62" spans="22:22">
-      <c r="V62" t="s">
+    <row r="38" spans="34:34">
+      <c r="AH38" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="63" spans="22:22">
-      <c r="V63" t="s">
+    <row r="39" spans="34:34">
+      <c r="AH39" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="64" spans="22:22">
-      <c r="V64" t="s">
+    <row r="40" spans="34:34">
+      <c r="AH40" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="65" spans="22:22">
-      <c r="V65" t="s">
+    <row r="41" spans="34:34">
+      <c r="AH41" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="66" spans="22:22">
-      <c r="V66" t="s">
+    <row r="42" spans="34:34">
+      <c r="AH42" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="67" spans="22:22">
-      <c r="V67" t="s">
+    <row r="43" spans="34:34">
+      <c r="AH43" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="68" spans="22:22">
-      <c r="V68" t="s">
+    <row r="44" spans="34:34">
+      <c r="AH44" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="69" spans="22:22">
-      <c r="V69" t="s">
+    <row r="45" spans="34:34">
+      <c r="AH45" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="70" spans="22:22">
-      <c r="V70" t="s">
+    <row r="46" spans="34:34">
+      <c r="AH46" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="71" spans="22:22">
-      <c r="V71" t="s">
+    <row r="47" spans="34:34">
+      <c r="AH47" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="72" spans="22:22">
-      <c r="V72" t="s">
+    <row r="48" spans="34:34">
+      <c r="AH48" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="73" spans="22:22">
-      <c r="V73" t="s">
+    <row r="49" spans="34:34">
+      <c r="AH49" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="74" spans="22:22">
-      <c r="V74" t="s">
+    <row r="50" spans="34:34">
+      <c r="AH50" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="75" spans="22:22">
-      <c r="V75" t="s">
+    <row r="51" spans="34:34">
+      <c r="AH51" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="76" spans="22:22">
-      <c r="V76" t="s">
+    <row r="52" spans="34:34">
+      <c r="AH52" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="77" spans="22:22">
-      <c r="V77" t="s">
+    <row r="53" spans="34:34">
+      <c r="AH53" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="78" spans="22:22">
-      <c r="V78" t="s">
+    <row r="54" spans="34:34">
+      <c r="AH54" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="79" spans="22:22">
-      <c r="V79" t="s">
+    <row r="55" spans="34:34">
+      <c r="AH55" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="80" spans="22:22">
-      <c r="V80" t="s">
+    <row r="56" spans="34:34">
+      <c r="AH56" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="81" spans="22:22">
-      <c r="V81" t="s">
+    <row r="57" spans="34:34">
+      <c r="AH57" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="82" spans="22:22">
-      <c r="V82" t="s">
+    <row r="58" spans="34:34">
+      <c r="AH58" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="83" spans="22:22">
-      <c r="V83" t="s">
+    <row r="59" spans="34:34">
+      <c r="AH59" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="84" spans="22:22">
-      <c r="V84" t="s">
+    <row r="60" spans="34:34">
+      <c r="AH60" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="85" spans="22:22">
-      <c r="V85" t="s">
+    <row r="61" spans="34:34">
+      <c r="AH61" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="86" spans="22:22">
-      <c r="V86" t="s">
+    <row r="62" spans="34:34">
+      <c r="AH62" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="87" spans="22:22">
-      <c r="V87" t="s">
+    <row r="63" spans="34:34">
+      <c r="AH63" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="88" spans="22:22">
-      <c r="V88" t="s">
+    <row r="64" spans="34:34">
+      <c r="AH64" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="89" spans="22:22">
-      <c r="V89" t="s">
+    <row r="65" spans="34:34">
+      <c r="AH65" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="90" spans="22:22">
-      <c r="V90" t="s">
+    <row r="66" spans="34:34">
+      <c r="AH66" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="91" spans="22:22">
-      <c r="V91" t="s">
+    <row r="67" spans="34:34">
+      <c r="AH67" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="92" spans="22:22">
-      <c r="V92" t="s">
+    <row r="68" spans="34:34">
+      <c r="AH68" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="93" spans="22:22">
-      <c r="V93" t="s">
+    <row r="69" spans="34:34">
+      <c r="AH69" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="94" spans="22:22">
-      <c r="V94" t="s">
+    <row r="70" spans="34:34">
+      <c r="AH70" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="95" spans="22:22">
-      <c r="V95" t="s">
+    <row r="71" spans="34:34">
+      <c r="AH71" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="96" spans="22:22">
-      <c r="V96" t="s">
+    <row r="72" spans="34:34">
+      <c r="AH72" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="97" spans="22:22">
-      <c r="V97" t="s">
+    <row r="73" spans="34:34">
+      <c r="AH73" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="98" spans="22:22">
-      <c r="V98" t="s">
+    <row r="74" spans="34:34">
+      <c r="AH74" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="99" spans="22:22">
-      <c r="V99" t="s">
+    <row r="75" spans="34:34">
+      <c r="AH75" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="100" spans="22:22">
-      <c r="V100" t="s">
+    <row r="76" spans="34:34">
+      <c r="AH76" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="22:22">
-      <c r="V101" t="s">
+    <row r="77" spans="34:34">
+      <c r="AH77" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="102" spans="22:22">
-      <c r="V102" t="s">
+    <row r="78" spans="34:34">
+      <c r="AH78" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="103" spans="22:22">
-      <c r="V103" t="s">
+    <row r="79" spans="34:34">
+      <c r="AH79" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="104" spans="22:22">
-      <c r="V104" t="s">
+    <row r="80" spans="34:34">
+      <c r="AH80" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="105" spans="22:22">
-      <c r="V105" t="s">
+    <row r="81" spans="34:34">
+      <c r="AH81" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="106" spans="22:22">
-      <c r="V106" t="s">
+    <row r="82" spans="34:34">
+      <c r="AH82" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="107" spans="22:22">
-      <c r="V107" t="s">
+    <row r="83" spans="34:34">
+      <c r="AH83" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="108" spans="22:22">
-      <c r="V108" t="s">
+    <row r="84" spans="34:34">
+      <c r="AH84" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="109" spans="22:22">
-      <c r="V109" t="s">
+    <row r="85" spans="34:34">
+      <c r="AH85" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="110" spans="22:22">
-      <c r="V110" t="s">
+    <row r="86" spans="34:34">
+      <c r="AH86" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="111" spans="22:22">
-      <c r="V111" t="s">
+    <row r="87" spans="34:34">
+      <c r="AH87" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="112" spans="22:22">
-      <c r="V112" t="s">
+    <row r="88" spans="34:34">
+      <c r="AH88" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="113" spans="22:22">
-      <c r="V113" t="s">
+    <row r="89" spans="34:34">
+      <c r="AH89" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="114" spans="22:22">
-      <c r="V114" t="s">
+    <row r="90" spans="34:34">
+      <c r="AH90" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="115" spans="22:22">
-      <c r="V115" t="s">
+    <row r="91" spans="34:34">
+      <c r="AH91" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="116" spans="22:22">
-      <c r="V116" t="s">
+    <row r="92" spans="34:34">
+      <c r="AH92" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="117" spans="22:22">
-      <c r="V117" t="s">
+    <row r="93" spans="34:34">
+      <c r="AH93" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="118" spans="22:22">
-      <c r="V118" t="s">
+    <row r="94" spans="34:34">
+      <c r="AH94" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="119" spans="22:22">
-      <c r="V119" t="s">
+    <row r="95" spans="34:34">
+      <c r="AH95" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="120" spans="22:22">
-      <c r="V120" t="s">
+    <row r="96" spans="34:34">
+      <c r="AH96" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="121" spans="22:22">
-      <c r="V121" t="s">
+    <row r="97" spans="34:34">
+      <c r="AH97" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="122" spans="22:22">
-      <c r="V122" t="s">
+    <row r="98" spans="34:34">
+      <c r="AH98" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="123" spans="22:22">
-      <c r="V123" t="s">
+    <row r="99" spans="34:34">
+      <c r="AH99" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="124" spans="22:22">
-      <c r="V124" t="s">
+    <row r="100" spans="34:34">
+      <c r="AH100" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="125" spans="22:22">
-      <c r="V125" t="s">
+    <row r="101" spans="34:34">
+      <c r="AH101" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="126" spans="22:22">
-      <c r="V126" t="s">
+    <row r="102" spans="34:34">
+      <c r="AH102" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="127" spans="22:22">
-      <c r="V127" t="s">
+    <row r="103" spans="34:34">
+      <c r="AH103" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="128" spans="22:22">
-      <c r="V128" t="s">
+    <row r="104" spans="34:34">
+      <c r="AH104" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="129" spans="22:22">
-      <c r="V129" t="s">
+    <row r="105" spans="34:34">
+      <c r="AH105" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="130" spans="22:22">
-      <c r="V130" t="s">
+    <row r="106" spans="34:34">
+      <c r="AH106" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="131" spans="22:22">
-      <c r="V131" t="s">
+    <row r="107" spans="34:34">
+      <c r="AH107" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="132" spans="22:22">
-      <c r="V132" t="s">
+    <row r="108" spans="34:34">
+      <c r="AH108" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="133" spans="22:22">
-      <c r="V133" t="s">
+    <row r="109" spans="34:34">
+      <c r="AH109" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="134" spans="22:22">
-      <c r="V134" t="s">
+    <row r="110" spans="34:34">
+      <c r="AH110" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="135" spans="22:22">
-      <c r="V135" t="s">
+    <row r="111" spans="34:34">
+      <c r="AH111" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="136" spans="22:22">
-      <c r="V136" t="s">
+    <row r="112" spans="34:34">
+      <c r="AH112" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="137" spans="22:22">
-      <c r="V137" t="s">
+    <row r="113" spans="34:34">
+      <c r="AH113" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="138" spans="22:22">
-      <c r="V138" t="s">
+    <row r="114" spans="34:34">
+      <c r="AH114" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="139" spans="22:22">
-      <c r="V139" t="s">
+    <row r="115" spans="34:34">
+      <c r="AH115" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="140" spans="22:22">
-      <c r="V140" t="s">
+    <row r="116" spans="34:34">
+      <c r="AH116" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="141" spans="22:22">
-      <c r="V141" t="s">
+    <row r="117" spans="34:34">
+      <c r="AH117" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="142" spans="22:22">
-      <c r="V142" t="s">
+    <row r="118" spans="34:34">
+      <c r="AH118" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="143" spans="22:22">
-      <c r="V143" t="s">
+    <row r="119" spans="34:34">
+      <c r="AH119" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="144" spans="22:22">
-      <c r="V144" t="s">
+    <row r="120" spans="34:34">
+      <c r="AH120" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="145" spans="22:22">
-      <c r="V145" t="s">
+    <row r="121" spans="34:34">
+      <c r="AH121" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="146" spans="22:22">
-      <c r="V146" t="s">
+    <row r="122" spans="34:34">
+      <c r="AH122" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="147" spans="22:22">
-      <c r="V147" t="s">
+    <row r="123" spans="34:34">
+      <c r="AH123" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="148" spans="22:22">
-      <c r="V148" t="s">
+    <row r="124" spans="34:34">
+      <c r="AH124" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="149" spans="22:22">
-      <c r="V149" t="s">
+    <row r="125" spans="34:34">
+      <c r="AH125" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="150" spans="22:22">
-      <c r="V150" t="s">
+    <row r="126" spans="34:34">
+      <c r="AH126" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="151" spans="22:22">
-      <c r="V151" t="s">
+    <row r="127" spans="34:34">
+      <c r="AH127" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="152" spans="22:22">
-      <c r="V152" t="s">
+    <row r="128" spans="34:34">
+      <c r="AH128" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="153" spans="22:22">
-      <c r="V153" t="s">
+    <row r="129" spans="34:34">
+      <c r="AH129" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="154" spans="22:22">
-      <c r="V154" t="s">
+    <row r="130" spans="34:34">
+      <c r="AH130" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="155" spans="22:22">
-      <c r="V155" t="s">
+    <row r="131" spans="34:34">
+      <c r="AH131" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="156" spans="22:22">
-      <c r="V156" t="s">
+    <row r="132" spans="34:34">
+      <c r="AH132" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="157" spans="22:22">
-      <c r="V157" t="s">
+    <row r="133" spans="34:34">
+      <c r="AH133" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="158" spans="22:22">
-      <c r="V158" t="s">
+    <row r="134" spans="34:34">
+      <c r="AH134" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="159" spans="22:22">
-      <c r="V159" t="s">
+    <row r="135" spans="34:34">
+      <c r="AH135" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="160" spans="22:22">
-      <c r="V160" t="s">
+    <row r="136" spans="34:34">
+      <c r="AH136" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="161" spans="22:22">
-      <c r="V161" t="s">
+    <row r="137" spans="34:34">
+      <c r="AH137" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="162" spans="22:22">
-      <c r="V162" t="s">
+    <row r="138" spans="34:34">
+      <c r="AH138" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="163" spans="22:22">
-      <c r="V163" t="s">
+    <row r="139" spans="34:34">
+      <c r="AH139" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="164" spans="22:22">
-      <c r="V164" t="s">
+    <row r="140" spans="34:34">
+      <c r="AH140" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="165" spans="22:22">
-      <c r="V165" t="s">
+    <row r="141" spans="34:34">
+      <c r="AH141" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="166" spans="22:22">
-      <c r="V166" t="s">
+    <row r="142" spans="34:34">
+      <c r="AH142" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="167" spans="22:22">
-      <c r="V167" t="s">
+    <row r="143" spans="34:34">
+      <c r="AH143" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="168" spans="22:22">
-      <c r="V168" t="s">
+    <row r="144" spans="34:34">
+      <c r="AH144" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="169" spans="22:22">
-      <c r="V169" t="s">
+    <row r="145" spans="34:34">
+      <c r="AH145" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="170" spans="22:22">
-      <c r="V170" t="s">
+    <row r="146" spans="34:34">
+      <c r="AH146" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="171" spans="22:22">
-      <c r="V171" t="s">
+    <row r="147" spans="34:34">
+      <c r="AH147" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="172" spans="22:22">
-      <c r="V172" t="s">
+    <row r="148" spans="34:34">
+      <c r="AH148" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="173" spans="22:22">
-      <c r="V173" t="s">
+    <row r="149" spans="34:34">
+      <c r="AH149" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="174" spans="22:22">
-      <c r="V174" t="s">
+    <row r="150" spans="34:34">
+      <c r="AH150" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="175" spans="22:22">
-      <c r="V175" t="s">
+    <row r="151" spans="34:34">
+      <c r="AH151" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="176" spans="22:22">
-      <c r="V176" t="s">
+    <row r="152" spans="34:34">
+      <c r="AH152" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="177" spans="22:22">
-      <c r="V177" t="s">
+    <row r="153" spans="34:34">
+      <c r="AH153" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="178" spans="22:22">
-      <c r="V178" t="s">
+    <row r="154" spans="34:34">
+      <c r="AH154" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="179" spans="22:22">
-      <c r="V179" t="s">
+    <row r="155" spans="34:34">
+      <c r="AH155" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="180" spans="22:22">
-      <c r="V180" t="s">
+    <row r="156" spans="34:34">
+      <c r="AH156" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="181" spans="22:22">
-      <c r="V181" t="s">
+    <row r="157" spans="34:34">
+      <c r="AH157" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="182" spans="22:22">
-      <c r="V182" t="s">
+    <row r="158" spans="34:34">
+      <c r="AH158" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="183" spans="22:22">
-      <c r="V183" t="s">
+    <row r="159" spans="34:34">
+      <c r="AH159" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="184" spans="22:22">
-      <c r="V184" t="s">
+    <row r="160" spans="34:34">
+      <c r="AH160" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="185" spans="22:22">
-      <c r="V185" t="s">
+    <row r="161" spans="34:34">
+      <c r="AH161" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="186" spans="22:22">
-      <c r="V186" t="s">
+    <row r="162" spans="34:34">
+      <c r="AH162" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="187" spans="22:22">
-      <c r="V187" t="s">
+    <row r="163" spans="34:34">
+      <c r="AH163" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="188" spans="22:22">
-      <c r="V188" t="s">
+    <row r="164" spans="34:34">
+      <c r="AH164" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="189" spans="22:22">
-      <c r="V189" t="s">
+    <row r="165" spans="34:34">
+      <c r="AH165" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="190" spans="22:22">
-      <c r="V190" t="s">
+    <row r="166" spans="34:34">
+      <c r="AH166" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="191" spans="22:22">
-      <c r="V191" t="s">
+    <row r="167" spans="34:34">
+      <c r="AH167" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="192" spans="22:22">
-      <c r="V192" t="s">
+    <row r="168" spans="34:34">
+      <c r="AH168" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="193" spans="22:22">
-      <c r="V193" t="s">
+    <row r="169" spans="34:34">
+      <c r="AH169" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="194" spans="22:22">
-      <c r="V194" t="s">
+    <row r="170" spans="34:34">
+      <c r="AH170" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="195" spans="22:22">
-      <c r="V195" t="s">
+    <row r="171" spans="34:34">
+      <c r="AH171" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="196" spans="22:22">
-      <c r="V196" t="s">
+    <row r="172" spans="34:34">
+      <c r="AH172" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="197" spans="22:22">
-      <c r="V197" t="s">
+    <row r="173" spans="34:34">
+      <c r="AH173" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="198" spans="22:22">
-      <c r="V198" t="s">
+    <row r="174" spans="34:34">
+      <c r="AH174" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="199" spans="22:22">
-      <c r="V199" t="s">
+    <row r="175" spans="34:34">
+      <c r="AH175" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="200" spans="22:22">
-      <c r="V200" t="s">
+    <row r="176" spans="34:34">
+      <c r="AH176" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="201" spans="22:22">
-      <c r="V201" t="s">
+    <row r="177" spans="34:34">
+      <c r="AH177" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="202" spans="22:22">
-      <c r="V202" t="s">
+    <row r="178" spans="34:34">
+      <c r="AH178" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="203" spans="22:22">
-      <c r="V203" t="s">
+    <row r="179" spans="34:34">
+      <c r="AH179" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="204" spans="22:22">
-      <c r="V204" t="s">
+    <row r="180" spans="34:34">
+      <c r="AH180" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="205" spans="22:22">
-      <c r="V205" t="s">
+    <row r="181" spans="34:34">
+      <c r="AH181" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="206" spans="22:22">
-      <c r="V206" t="s">
+    <row r="182" spans="34:34">
+      <c r="AH182" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="207" spans="22:22">
-      <c r="V207" t="s">
+    <row r="183" spans="34:34">
+      <c r="AH183" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="208" spans="22:22">
-      <c r="V208" t="s">
+    <row r="184" spans="34:34">
+      <c r="AH184" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="209" spans="22:22">
-      <c r="V209" t="s">
+    <row r="185" spans="34:34">
+      <c r="AH185" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="210" spans="22:22">
-      <c r="V210" t="s">
+    <row r="186" spans="34:34">
+      <c r="AH186" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="211" spans="22:22">
-      <c r="V211" t="s">
+    <row r="187" spans="34:34">
+      <c r="AH187" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="212" spans="22:22">
-      <c r="V212" t="s">
+    <row r="188" spans="34:34">
+      <c r="AH188" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="213" spans="22:22">
-      <c r="V213" t="s">
+    <row r="189" spans="34:34">
+      <c r="AH189" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="214" spans="22:22">
-      <c r="V214" t="s">
+    <row r="190" spans="34:34">
+      <c r="AH190" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="215" spans="22:22">
-      <c r="V215" t="s">
+    <row r="191" spans="34:34">
+      <c r="AH191" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="216" spans="22:22">
-      <c r="V216" t="s">
+    <row r="192" spans="34:34">
+      <c r="AH192" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="217" spans="22:22">
-      <c r="V217" t="s">
+    <row r="193" spans="34:34">
+      <c r="AH193" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="218" spans="22:22">
-      <c r="V218" t="s">
+    <row r="194" spans="34:34">
+      <c r="AH194" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="219" spans="22:22">
-      <c r="V219" t="s">
+    <row r="195" spans="34:34">
+      <c r="AH195" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="220" spans="22:22">
-      <c r="V220" t="s">
+    <row r="196" spans="34:34">
+      <c r="AH196" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="221" spans="22:22">
-      <c r="V221" t="s">
+    <row r="197" spans="34:34">
+      <c r="AH197" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="222" spans="22:22">
-      <c r="V222" t="s">
+    <row r="198" spans="34:34">
+      <c r="AH198" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="223" spans="22:22">
-      <c r="V223" t="s">
+    <row r="199" spans="34:34">
+      <c r="AH199" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="224" spans="22:22">
-      <c r="V224" t="s">
+    <row r="200" spans="34:34">
+      <c r="AH200" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="225" spans="22:22">
-      <c r="V225" t="s">
+    <row r="201" spans="34:34">
+      <c r="AH201" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="226" spans="22:22">
-      <c r="V226" t="s">
+    <row r="202" spans="34:34">
+      <c r="AH202" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="227" spans="22:22">
-      <c r="V227" t="s">
+    <row r="203" spans="34:34">
+      <c r="AH203" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="228" spans="22:22">
-      <c r="V228" t="s">
+    <row r="204" spans="34:34">
+      <c r="AH204" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="229" spans="22:22">
-      <c r="V229" t="s">
+    <row r="205" spans="34:34">
+      <c r="AH205" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="230" spans="22:22">
-      <c r="V230" t="s">
+    <row r="206" spans="34:34">
+      <c r="AH206" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="231" spans="22:22">
-      <c r="V231" t="s">
+    <row r="207" spans="34:34">
+      <c r="AH207" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="232" spans="22:22">
-      <c r="V232" t="s">
+    <row r="208" spans="34:34">
+      <c r="AH208" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="233" spans="22:22">
-      <c r="V233" t="s">
+    <row r="209" spans="34:34">
+      <c r="AH209" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="234" spans="22:22">
-      <c r="V234" t="s">
+    <row r="210" spans="34:34">
+      <c r="AH210" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="235" spans="22:22">
-      <c r="V235" t="s">
+    <row r="211" spans="34:34">
+      <c r="AH211" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="236" spans="22:22">
-      <c r="V236" t="s">
+    <row r="212" spans="34:34">
+      <c r="AH212" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="237" spans="22:22">
-      <c r="V237" t="s">
+    <row r="213" spans="34:34">
+      <c r="AH213" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="238" spans="22:22">
-      <c r="V238" t="s">
+    <row r="214" spans="34:34">
+      <c r="AH214" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="239" spans="22:22">
-      <c r="V239" t="s">
+    <row r="215" spans="34:34">
+      <c r="AH215" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="240" spans="22:22">
-      <c r="V240" t="s">
+    <row r="216" spans="34:34">
+      <c r="AH216" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="241" spans="22:22">
-      <c r="V241" t="s">
+    <row r="217" spans="34:34">
+      <c r="AH217" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="242" spans="22:22">
-      <c r="V242" t="s">
+    <row r="218" spans="34:34">
+      <c r="AH218" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="243" spans="22:22">
-      <c r="V243" t="s">
+    <row r="219" spans="34:34">
+      <c r="AH219" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="244" spans="22:22">
-      <c r="V244" t="s">
+    <row r="220" spans="34:34">
+      <c r="AH220" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="245" spans="22:22">
-      <c r="V245" t="s">
+    <row r="221" spans="34:34">
+      <c r="AH221" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="246" spans="22:22">
-      <c r="V246" t="s">
+    <row r="222" spans="34:34">
+      <c r="AH222" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="247" spans="22:22">
-      <c r="V247" t="s">
+    <row r="223" spans="34:34">
+      <c r="AH223" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="248" spans="22:22">
-      <c r="V248" t="s">
+    <row r="224" spans="34:34">
+      <c r="AH224" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="249" spans="22:22">
-      <c r="V249" t="s">
+    <row r="225" spans="34:34">
+      <c r="AH225" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="250" spans="22:22">
-      <c r="V250" t="s">
+    <row r="226" spans="34:34">
+      <c r="AH226" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="251" spans="22:22">
-      <c r="V251" t="s">
+    <row r="227" spans="34:34">
+      <c r="AH227" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="252" spans="22:22">
-      <c r="V252" t="s">
+    <row r="228" spans="34:34">
+      <c r="AH228" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="253" spans="22:22">
-      <c r="V253" t="s">
+    <row r="229" spans="34:34">
+      <c r="AH229" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="254" spans="22:22">
-      <c r="V254" t="s">
+    <row r="230" spans="34:34">
+      <c r="AH230" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="255" spans="22:22">
-      <c r="V255" t="s">
+    <row r="231" spans="34:34">
+      <c r="AH231" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="256" spans="22:22">
-      <c r="V256" t="s">
+    <row r="232" spans="34:34">
+      <c r="AH232" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="257" spans="22:22">
-      <c r="V257" t="s">
+    <row r="233" spans="34:34">
+      <c r="AH233" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="258" spans="22:22">
-      <c r="V258" t="s">
+    <row r="234" spans="34:34">
+      <c r="AH234" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="259" spans="22:22">
-      <c r="V259" t="s">
+    <row r="235" spans="34:34">
+      <c r="AH235" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="260" spans="22:22">
-      <c r="V260" t="s">
+    <row r="236" spans="34:34">
+      <c r="AH236" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="261" spans="22:22">
-      <c r="V261" t="s">
+    <row r="237" spans="34:34">
+      <c r="AH237" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="262" spans="22:22">
-      <c r="V262" t="s">
+    <row r="238" spans="34:34">
+      <c r="AH238" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="263" spans="22:22">
-      <c r="V263" t="s">
+    <row r="239" spans="34:34">
+      <c r="AH239" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="264" spans="22:22">
-      <c r="V264" t="s">
+    <row r="240" spans="34:34">
+      <c r="AH240" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="265" spans="22:22">
-      <c r="V265" t="s">
+    <row r="241" spans="34:34">
+      <c r="AH241" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="266" spans="22:22">
-      <c r="V266" t="s">
+    <row r="242" spans="34:34">
+      <c r="AH242" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="267" spans="22:22">
-      <c r="V267" t="s">
+    <row r="243" spans="34:34">
+      <c r="AH243" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="268" spans="22:22">
-      <c r="V268" t="s">
+    <row r="244" spans="34:34">
+      <c r="AH244" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="269" spans="22:22">
-      <c r="V269" t="s">
+    <row r="245" spans="34:34">
+      <c r="AH245" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="270" spans="22:22">
-      <c r="V270" t="s">
+    <row r="246" spans="34:34">
+      <c r="AH246" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="271" spans="22:22">
-      <c r="V271" t="s">
+    <row r="247" spans="34:34">
+      <c r="AH247" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="272" spans="22:22">
-      <c r="V272" t="s">
+    <row r="248" spans="34:34">
+      <c r="AH248" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="273" spans="22:22">
-      <c r="V273" t="s">
+    <row r="249" spans="34:34">
+      <c r="AH249" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="274" spans="22:22">
-      <c r="V274" t="s">
+    <row r="250" spans="34:34">
+      <c r="AH250" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="275" spans="22:22">
-      <c r="V275" t="s">
+    <row r="251" spans="34:34">
+      <c r="AH251" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="276" spans="22:22">
-      <c r="V276" t="s">
+    <row r="252" spans="34:34">
+      <c r="AH252" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="277" spans="22:22">
-      <c r="V277" t="s">
+    <row r="253" spans="34:34">
+      <c r="AH253" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="278" spans="22:22">
-      <c r="V278" t="s">
+    <row r="254" spans="34:34">
+      <c r="AH254" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="279" spans="22:22">
-      <c r="V279" t="s">
+    <row r="255" spans="34:34">
+      <c r="AH255" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="280" spans="22:22">
-      <c r="V280" t="s">
+    <row r="256" spans="34:34">
+      <c r="AH256" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="281" spans="22:22">
-      <c r="V281" t="s">
+    <row r="257" spans="34:34">
+      <c r="AH257" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="282" spans="22:22">
-      <c r="V282" t="s">
+    <row r="258" spans="34:34">
+      <c r="AH258" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="283" spans="22:22">
-      <c r="V283" t="s">
+    <row r="259" spans="34:34">
+      <c r="AH259" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="284" spans="22:22">
-      <c r="V284" t="s">
+    <row r="260" spans="34:34">
+      <c r="AH260" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="285" spans="22:22">
-      <c r="V285" t="s">
+    <row r="261" spans="34:34">
+      <c r="AH261" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="286" spans="22:22">
-      <c r="V286" t="s">
+    <row r="262" spans="34:34">
+      <c r="AH262" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="287" spans="22:22">
-      <c r="V287" t="s">
+    <row r="263" spans="34:34">
+      <c r="AH263" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="288" spans="22:22">
-      <c r="V288" t="s">
+    <row r="264" spans="34:34">
+      <c r="AH264" t="s">
         <v>588</v>
+      </c>
+    </row>
+    <row r="265" spans="34:34">
+      <c r="AH265" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="266" spans="34:34">
+      <c r="AH266" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="267" spans="34:34">
+      <c r="AH267" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="268" spans="34:34">
+      <c r="AH268" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="269" spans="34:34">
+      <c r="AH269" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="270" spans="34:34">
+      <c r="AH270" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="271" spans="34:34">
+      <c r="AH271" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="272" spans="34:34">
+      <c r="AH272" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="273" spans="34:34">
+      <c r="AH273" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="274" spans="34:34">
+      <c r="AH274" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="275" spans="34:34">
+      <c r="AH275" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="276" spans="34:34">
+      <c r="AH276" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="277" spans="34:34">
+      <c r="AH277" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="278" spans="34:34">
+      <c r="AH278" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="279" spans="34:34">
+      <c r="AH279" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="280" spans="34:34">
+      <c r="AH280" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="281" spans="34:34">
+      <c r="AH281" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="282" spans="34:34">
+      <c r="AH282" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="283" spans="34:34">
+      <c r="AH283" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="284" spans="34:34">
+      <c r="AH284" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="285" spans="34:34">
+      <c r="AH285" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="286" spans="34:34">
+      <c r="AH286" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="287" spans="34:34">
+      <c r="AH287" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="288" spans="34:34">
+      <c r="AH288" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="289" spans="34:34">
+      <c r="AH289" t="s">
+        <v>613</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000030/metadata_template_ERC000030.xlsx
+++ b/templates/ERC000030/metadata_template_ERC000030.xlsx
@@ -20,7 +20,7 @@
     <definedName name="environmentalpackage">'cv_sample'!$T$1:$T$1</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AH$1:$AH$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="623">
   <si>
     <t>alias</t>
   </si>
@@ -635,6 +635,9 @@
   </si>
   <si>
     <t>Illumina NovaSeq X</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq X Plus</t>
   </si>
   <si>
     <t>Illumina iSeq 100</t>
@@ -2436,7 +2439,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2480,7 +2483,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2507,7 +2510,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N83"/>
+  <dimension ref="G1:N84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3219,6 +3222,11 @@
     </row>
     <row r="83" spans="14:14">
       <c r="N83" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="14:14">
+      <c r="N84" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3243,27 +3251,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3286,122 +3294,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3428,222 +3436,222 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
   </sheetData>
@@ -3669,1450 +3677,1450 @@
   <sheetData>
     <row r="1" spans="20:34">
       <c r="T1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AH1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="20:34">
       <c r="AH2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="20:34">
       <c r="AH3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="20:34">
       <c r="AH4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="20:34">
       <c r="AH5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="20:34">
       <c r="AH6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="20:34">
       <c r="AH7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="20:34">
       <c r="AH8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="20:34">
       <c r="AH9" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="20:34">
       <c r="AH10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="20:34">
       <c r="AH11" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="20:34">
       <c r="AH12" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" spans="20:34">
       <c r="AH13" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="20:34">
       <c r="AH14" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="20:34">
       <c r="AH15" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="16" spans="20:34">
       <c r="AH16" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="34:34">
       <c r="AH17" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18" spans="34:34">
       <c r="AH18" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" spans="34:34">
       <c r="AH19" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20" spans="34:34">
       <c r="AH20" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" spans="34:34">
       <c r="AH21" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="22" spans="34:34">
       <c r="AH22" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="23" spans="34:34">
       <c r="AH23" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="24" spans="34:34">
       <c r="AH24" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="25" spans="34:34">
       <c r="AH25" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26" spans="34:34">
       <c r="AH26" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="27" spans="34:34">
       <c r="AH27" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="28" spans="34:34">
       <c r="AH28" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="29" spans="34:34">
       <c r="AH29" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="30" spans="34:34">
       <c r="AH30" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="31" spans="34:34">
       <c r="AH31" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="32" spans="34:34">
       <c r="AH32" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="33" spans="34:34">
       <c r="AH33" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="34" spans="34:34">
       <c r="AH34" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="35" spans="34:34">
       <c r="AH35" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="36" spans="34:34">
       <c r="AH36" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="37" spans="34:34">
       <c r="AH37" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="38" spans="34:34">
       <c r="AH38" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="39" spans="34:34">
       <c r="AH39" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="40" spans="34:34">
       <c r="AH40" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="41" spans="34:34">
       <c r="AH41" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="42" spans="34:34">
       <c r="AH42" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="43" spans="34:34">
       <c r="AH43" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="44" spans="34:34">
       <c r="AH44" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="45" spans="34:34">
       <c r="AH45" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="46" spans="34:34">
       <c r="AH46" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="47" spans="34:34">
       <c r="AH47" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="48" spans="34:34">
       <c r="AH48" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="49" spans="34:34">
       <c r="AH49" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="50" spans="34:34">
       <c r="AH50" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="51" spans="34:34">
       <c r="AH51" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="52" spans="34:34">
       <c r="AH52" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="53" spans="34:34">
       <c r="AH53" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="54" spans="34:34">
       <c r="AH54" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="55" spans="34:34">
       <c r="AH55" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="56" spans="34:34">
       <c r="AH56" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="57" spans="34:34">
       <c r="AH57" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="58" spans="34:34">
       <c r="AH58" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="59" spans="34:34">
       <c r="AH59" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="60" spans="34:34">
       <c r="AH60" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="61" spans="34:34">
       <c r="AH61" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="62" spans="34:34">
       <c r="AH62" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="63" spans="34:34">
       <c r="AH63" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="64" spans="34:34">
       <c r="AH64" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="65" spans="34:34">
       <c r="AH65" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="66" spans="34:34">
       <c r="AH66" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="67" spans="34:34">
       <c r="AH67" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="68" spans="34:34">
       <c r="AH68" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="69" spans="34:34">
       <c r="AH69" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="70" spans="34:34">
       <c r="AH70" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="71" spans="34:34">
       <c r="AH71" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="72" spans="34:34">
       <c r="AH72" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="73" spans="34:34">
       <c r="AH73" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="74" spans="34:34">
       <c r="AH74" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="75" spans="34:34">
       <c r="AH75" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="76" spans="34:34">
       <c r="AH76" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="77" spans="34:34">
       <c r="AH77" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="78" spans="34:34">
       <c r="AH78" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="79" spans="34:34">
       <c r="AH79" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="80" spans="34:34">
       <c r="AH80" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="81" spans="34:34">
       <c r="AH81" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="82" spans="34:34">
       <c r="AH82" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="83" spans="34:34">
       <c r="AH83" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="84" spans="34:34">
       <c r="AH84" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="85" spans="34:34">
       <c r="AH85" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="86" spans="34:34">
       <c r="AH86" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="87" spans="34:34">
       <c r="AH87" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="88" spans="34:34">
       <c r="AH88" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="89" spans="34:34">
       <c r="AH89" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="90" spans="34:34">
       <c r="AH90" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="91" spans="34:34">
       <c r="AH91" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="92" spans="34:34">
       <c r="AH92" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="93" spans="34:34">
       <c r="AH93" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="94" spans="34:34">
       <c r="AH94" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="95" spans="34:34">
       <c r="AH95" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="96" spans="34:34">
       <c r="AH96" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="97" spans="34:34">
       <c r="AH97" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="98" spans="34:34">
       <c r="AH98" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="99" spans="34:34">
       <c r="AH99" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="100" spans="34:34">
       <c r="AH100" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="101" spans="34:34">
       <c r="AH101" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="102" spans="34:34">
       <c r="AH102" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="103" spans="34:34">
       <c r="AH103" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="104" spans="34:34">
       <c r="AH104" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="105" spans="34:34">
       <c r="AH105" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="106" spans="34:34">
       <c r="AH106" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="107" spans="34:34">
       <c r="AH107" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="108" spans="34:34">
       <c r="AH108" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="109" spans="34:34">
       <c r="AH109" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="110" spans="34:34">
       <c r="AH110" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="111" spans="34:34">
       <c r="AH111" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="112" spans="34:34">
       <c r="AH112" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="113" spans="34:34">
       <c r="AH113" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="114" spans="34:34">
       <c r="AH114" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="115" spans="34:34">
       <c r="AH115" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="116" spans="34:34">
       <c r="AH116" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="117" spans="34:34">
       <c r="AH117" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="118" spans="34:34">
       <c r="AH118" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="119" spans="34:34">
       <c r="AH119" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="120" spans="34:34">
       <c r="AH120" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="121" spans="34:34">
       <c r="AH121" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="122" spans="34:34">
       <c r="AH122" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="123" spans="34:34">
       <c r="AH123" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="124" spans="34:34">
       <c r="AH124" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="125" spans="34:34">
       <c r="AH125" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="126" spans="34:34">
       <c r="AH126" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="127" spans="34:34">
       <c r="AH127" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="128" spans="34:34">
       <c r="AH128" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="129" spans="34:34">
       <c r="AH129" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="130" spans="34:34">
       <c r="AH130" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="131" spans="34:34">
       <c r="AH131" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="132" spans="34:34">
       <c r="AH132" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="133" spans="34:34">
       <c r="AH133" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="134" spans="34:34">
       <c r="AH134" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="135" spans="34:34">
       <c r="AH135" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="136" spans="34:34">
       <c r="AH136" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="137" spans="34:34">
       <c r="AH137" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="138" spans="34:34">
       <c r="AH138" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="139" spans="34:34">
       <c r="AH139" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="140" spans="34:34">
       <c r="AH140" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="141" spans="34:34">
       <c r="AH141" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="142" spans="34:34">
       <c r="AH142" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="143" spans="34:34">
       <c r="AH143" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="144" spans="34:34">
       <c r="AH144" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="145" spans="34:34">
       <c r="AH145" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="146" spans="34:34">
       <c r="AH146" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="147" spans="34:34">
       <c r="AH147" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="148" spans="34:34">
       <c r="AH148" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="149" spans="34:34">
       <c r="AH149" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="150" spans="34:34">
       <c r="AH150" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="151" spans="34:34">
       <c r="AH151" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="152" spans="34:34">
       <c r="AH152" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="153" spans="34:34">
       <c r="AH153" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="154" spans="34:34">
       <c r="AH154" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="155" spans="34:34">
       <c r="AH155" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="156" spans="34:34">
       <c r="AH156" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="157" spans="34:34">
       <c r="AH157" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="158" spans="34:34">
       <c r="AH158" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="159" spans="34:34">
       <c r="AH159" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="160" spans="34:34">
       <c r="AH160" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="161" spans="34:34">
       <c r="AH161" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="162" spans="34:34">
       <c r="AH162" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="163" spans="34:34">
       <c r="AH163" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="164" spans="34:34">
       <c r="AH164" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="165" spans="34:34">
       <c r="AH165" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="166" spans="34:34">
       <c r="AH166" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="167" spans="34:34">
       <c r="AH167" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="168" spans="34:34">
       <c r="AH168" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="169" spans="34:34">
       <c r="AH169" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="170" spans="34:34">
       <c r="AH170" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="171" spans="34:34">
       <c r="AH171" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="172" spans="34:34">
       <c r="AH172" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="173" spans="34:34">
       <c r="AH173" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="174" spans="34:34">
       <c r="AH174" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="175" spans="34:34">
       <c r="AH175" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="176" spans="34:34">
       <c r="AH176" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="177" spans="34:34">
       <c r="AH177" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="178" spans="34:34">
       <c r="AH178" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="179" spans="34:34">
       <c r="AH179" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="180" spans="34:34">
       <c r="AH180" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="181" spans="34:34">
       <c r="AH181" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="182" spans="34:34">
       <c r="AH182" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="183" spans="34:34">
       <c r="AH183" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="184" spans="34:34">
       <c r="AH184" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="185" spans="34:34">
       <c r="AH185" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="186" spans="34:34">
       <c r="AH186" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="187" spans="34:34">
       <c r="AH187" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="188" spans="34:34">
       <c r="AH188" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="189" spans="34:34">
       <c r="AH189" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="190" spans="34:34">
       <c r="AH190" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="191" spans="34:34">
       <c r="AH191" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="192" spans="34:34">
       <c r="AH192" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="193" spans="34:34">
       <c r="AH193" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="194" spans="34:34">
       <c r="AH194" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="195" spans="34:34">
       <c r="AH195" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="196" spans="34:34">
       <c r="AH196" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="197" spans="34:34">
       <c r="AH197" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="198" spans="34:34">
       <c r="AH198" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="199" spans="34:34">
       <c r="AH199" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="200" spans="34:34">
       <c r="AH200" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="201" spans="34:34">
       <c r="AH201" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="202" spans="34:34">
       <c r="AH202" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="203" spans="34:34">
       <c r="AH203" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="204" spans="34:34">
       <c r="AH204" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="205" spans="34:34">
       <c r="AH205" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="206" spans="34:34">
       <c r="AH206" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="207" spans="34:34">
       <c r="AH207" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="208" spans="34:34">
       <c r="AH208" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="209" spans="34:34">
       <c r="AH209" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="210" spans="34:34">
       <c r="AH210" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="211" spans="34:34">
       <c r="AH211" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="212" spans="34:34">
       <c r="AH212" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="213" spans="34:34">
       <c r="AH213" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="214" spans="34:34">
       <c r="AH214" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="215" spans="34:34">
       <c r="AH215" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="216" spans="34:34">
       <c r="AH216" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="217" spans="34:34">
       <c r="AH217" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="218" spans="34:34">
       <c r="AH218" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="219" spans="34:34">
       <c r="AH219" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="220" spans="34:34">
       <c r="AH220" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="221" spans="34:34">
       <c r="AH221" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="222" spans="34:34">
       <c r="AH222" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="223" spans="34:34">
       <c r="AH223" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="224" spans="34:34">
       <c r="AH224" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="225" spans="34:34">
       <c r="AH225" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="226" spans="34:34">
       <c r="AH226" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="227" spans="34:34">
       <c r="AH227" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="228" spans="34:34">
       <c r="AH228" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="229" spans="34:34">
       <c r="AH229" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="230" spans="34:34">
       <c r="AH230" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="231" spans="34:34">
       <c r="AH231" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="232" spans="34:34">
       <c r="AH232" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="233" spans="34:34">
       <c r="AH233" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="234" spans="34:34">
       <c r="AH234" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="235" spans="34:34">
       <c r="AH235" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="236" spans="34:34">
       <c r="AH236" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="237" spans="34:34">
       <c r="AH237" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="238" spans="34:34">
       <c r="AH238" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="239" spans="34:34">
       <c r="AH239" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="240" spans="34:34">
       <c r="AH240" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="241" spans="34:34">
       <c r="AH241" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="242" spans="34:34">
       <c r="AH242" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="243" spans="34:34">
       <c r="AH243" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="244" spans="34:34">
       <c r="AH244" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="245" spans="34:34">
       <c r="AH245" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="246" spans="34:34">
       <c r="AH246" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="247" spans="34:34">
       <c r="AH247" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="248" spans="34:34">
       <c r="AH248" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="249" spans="34:34">
       <c r="AH249" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="250" spans="34:34">
       <c r="AH250" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="251" spans="34:34">
       <c r="AH251" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="252" spans="34:34">
       <c r="AH252" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="253" spans="34:34">
       <c r="AH253" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="254" spans="34:34">
       <c r="AH254" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="255" spans="34:34">
       <c r="AH255" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="256" spans="34:34">
       <c r="AH256" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="257" spans="34:34">
       <c r="AH257" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="258" spans="34:34">
       <c r="AH258" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="259" spans="34:34">
       <c r="AH259" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="260" spans="34:34">
       <c r="AH260" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="261" spans="34:34">
       <c r="AH261" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="262" spans="34:34">
       <c r="AH262" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="263" spans="34:34">
       <c r="AH263" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="264" spans="34:34">
       <c r="AH264" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="265" spans="34:34">
       <c r="AH265" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="266" spans="34:34">
       <c r="AH266" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="267" spans="34:34">
       <c r="AH267" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="268" spans="34:34">
       <c r="AH268" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="269" spans="34:34">
       <c r="AH269" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="270" spans="34:34">
       <c r="AH270" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="271" spans="34:34">
       <c r="AH271" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="272" spans="34:34">
       <c r="AH272" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="273" spans="34:34">
       <c r="AH273" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="274" spans="34:34">
       <c r="AH274" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="275" spans="34:34">
       <c r="AH275" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="276" spans="34:34">
       <c r="AH276" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="277" spans="34:34">
       <c r="AH277" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="278" spans="34:34">
       <c r="AH278" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="279" spans="34:34">
       <c r="AH279" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="280" spans="34:34">
       <c r="AH280" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="281" spans="34:34">
       <c r="AH281" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="282" spans="34:34">
       <c r="AH282" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="283" spans="34:34">
       <c r="AH283" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="284" spans="34:34">
       <c r="AH284" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="285" spans="34:34">
       <c r="AH285" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="286" spans="34:34">
       <c r="AH286" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="287" spans="34:34">
       <c r="AH287" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="288" spans="34:34">
       <c r="AH288" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="289" spans="34:34">
       <c r="AH289" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000030/metadata_template_ERC000030.xlsx
+++ b/templates/ERC000030/metadata_template_ERC000030.xlsx
@@ -20,7 +20,7 @@
     <definedName name="environmentalpackage">'cv_sample'!$T$1:$T$1</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AH$1:$AH$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="624">
   <si>
     <t>alias</t>
   </si>
@@ -554,6 +554,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T10x4RS</t>
   </si>
   <si>
     <t>DNBSEQ-T7</t>
@@ -2439,7 +2442,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2483,7 +2486,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2510,7 +2513,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N84"/>
+  <dimension ref="G1:N85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3227,6 +3230,11 @@
     </row>
     <row r="84" spans="14:14">
       <c r="N84" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="14:14">
+      <c r="N85" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3251,27 +3259,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3294,122 +3302,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3436,222 +3444,222 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
   </sheetData>
@@ -3677,1450 +3685,1450 @@
   <sheetData>
     <row r="1" spans="20:34">
       <c r="T1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AH1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="20:34">
       <c r="AH2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="20:34">
       <c r="AH3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="20:34">
       <c r="AH4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="20:34">
       <c r="AH5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="20:34">
       <c r="AH6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="20:34">
       <c r="AH7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="20:34">
       <c r="AH8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="20:34">
       <c r="AH9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="20:34">
       <c r="AH10" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="20:34">
       <c r="AH11" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="20:34">
       <c r="AH12" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="20:34">
       <c r="AH13" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="20:34">
       <c r="AH14" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="20:34">
       <c r="AH15" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="16" spans="20:34">
       <c r="AH16" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="34:34">
       <c r="AH17" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="18" spans="34:34">
       <c r="AH18" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" spans="34:34">
       <c r="AH19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="20" spans="34:34">
       <c r="AH20" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21" spans="34:34">
       <c r="AH21" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="22" spans="34:34">
       <c r="AH22" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="23" spans="34:34">
       <c r="AH23" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="24" spans="34:34">
       <c r="AH24" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="25" spans="34:34">
       <c r="AH25" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" spans="34:34">
       <c r="AH26" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="27" spans="34:34">
       <c r="AH27" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="28" spans="34:34">
       <c r="AH28" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="29" spans="34:34">
       <c r="AH29" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="30" spans="34:34">
       <c r="AH30" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="31" spans="34:34">
       <c r="AH31" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="32" spans="34:34">
       <c r="AH32" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="33" spans="34:34">
       <c r="AH33" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="34" spans="34:34">
       <c r="AH34" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="35" spans="34:34">
       <c r="AH35" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="36" spans="34:34">
       <c r="AH36" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="37" spans="34:34">
       <c r="AH37" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="38" spans="34:34">
       <c r="AH38" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="39" spans="34:34">
       <c r="AH39" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="40" spans="34:34">
       <c r="AH40" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="41" spans="34:34">
       <c r="AH41" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="42" spans="34:34">
       <c r="AH42" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="43" spans="34:34">
       <c r="AH43" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="44" spans="34:34">
       <c r="AH44" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="45" spans="34:34">
       <c r="AH45" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="46" spans="34:34">
       <c r="AH46" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="47" spans="34:34">
       <c r="AH47" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="48" spans="34:34">
       <c r="AH48" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="49" spans="34:34">
       <c r="AH49" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="50" spans="34:34">
       <c r="AH50" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="51" spans="34:34">
       <c r="AH51" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="52" spans="34:34">
       <c r="AH52" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="53" spans="34:34">
       <c r="AH53" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="54" spans="34:34">
       <c r="AH54" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="55" spans="34:34">
       <c r="AH55" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="56" spans="34:34">
       <c r="AH56" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="57" spans="34:34">
       <c r="AH57" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="58" spans="34:34">
       <c r="AH58" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="59" spans="34:34">
       <c r="AH59" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="60" spans="34:34">
       <c r="AH60" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="61" spans="34:34">
       <c r="AH61" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="62" spans="34:34">
       <c r="AH62" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="63" spans="34:34">
       <c r="AH63" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="64" spans="34:34">
       <c r="AH64" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="65" spans="34:34">
       <c r="AH65" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="66" spans="34:34">
       <c r="AH66" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="67" spans="34:34">
       <c r="AH67" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="68" spans="34:34">
       <c r="AH68" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="69" spans="34:34">
       <c r="AH69" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="70" spans="34:34">
       <c r="AH70" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="71" spans="34:34">
       <c r="AH71" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="72" spans="34:34">
       <c r="AH72" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="73" spans="34:34">
       <c r="AH73" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="74" spans="34:34">
       <c r="AH74" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="75" spans="34:34">
       <c r="AH75" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="76" spans="34:34">
       <c r="AH76" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="77" spans="34:34">
       <c r="AH77" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="78" spans="34:34">
       <c r="AH78" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="79" spans="34:34">
       <c r="AH79" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="80" spans="34:34">
       <c r="AH80" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="81" spans="34:34">
       <c r="AH81" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="82" spans="34:34">
       <c r="AH82" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="83" spans="34:34">
       <c r="AH83" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="84" spans="34:34">
       <c r="AH84" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="85" spans="34:34">
       <c r="AH85" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="86" spans="34:34">
       <c r="AH86" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="87" spans="34:34">
       <c r="AH87" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="88" spans="34:34">
       <c r="AH88" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="89" spans="34:34">
       <c r="AH89" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="90" spans="34:34">
       <c r="AH90" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="91" spans="34:34">
       <c r="AH91" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="92" spans="34:34">
       <c r="AH92" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="93" spans="34:34">
       <c r="AH93" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="94" spans="34:34">
       <c r="AH94" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="95" spans="34:34">
       <c r="AH95" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="96" spans="34:34">
       <c r="AH96" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="97" spans="34:34">
       <c r="AH97" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="98" spans="34:34">
       <c r="AH98" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="99" spans="34:34">
       <c r="AH99" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="100" spans="34:34">
       <c r="AH100" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="101" spans="34:34">
       <c r="AH101" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="102" spans="34:34">
       <c r="AH102" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="103" spans="34:34">
       <c r="AH103" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="104" spans="34:34">
       <c r="AH104" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="105" spans="34:34">
       <c r="AH105" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="106" spans="34:34">
       <c r="AH106" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="107" spans="34:34">
       <c r="AH107" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="108" spans="34:34">
       <c r="AH108" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="109" spans="34:34">
       <c r="AH109" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="110" spans="34:34">
       <c r="AH110" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="111" spans="34:34">
       <c r="AH111" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="112" spans="34:34">
       <c r="AH112" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="113" spans="34:34">
       <c r="AH113" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="114" spans="34:34">
       <c r="AH114" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="115" spans="34:34">
       <c r="AH115" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="116" spans="34:34">
       <c r="AH116" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="117" spans="34:34">
       <c r="AH117" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="118" spans="34:34">
       <c r="AH118" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="119" spans="34:34">
       <c r="AH119" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="120" spans="34:34">
       <c r="AH120" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="121" spans="34:34">
       <c r="AH121" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="122" spans="34:34">
       <c r="AH122" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="123" spans="34:34">
       <c r="AH123" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="124" spans="34:34">
       <c r="AH124" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="125" spans="34:34">
       <c r="AH125" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="126" spans="34:34">
       <c r="AH126" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="127" spans="34:34">
       <c r="AH127" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="128" spans="34:34">
       <c r="AH128" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="129" spans="34:34">
       <c r="AH129" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="130" spans="34:34">
       <c r="AH130" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="131" spans="34:34">
       <c r="AH131" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="132" spans="34:34">
       <c r="AH132" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="133" spans="34:34">
       <c r="AH133" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="134" spans="34:34">
       <c r="AH134" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="135" spans="34:34">
       <c r="AH135" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="136" spans="34:34">
       <c r="AH136" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="137" spans="34:34">
       <c r="AH137" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="138" spans="34:34">
       <c r="AH138" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="139" spans="34:34">
       <c r="AH139" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="140" spans="34:34">
       <c r="AH140" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="141" spans="34:34">
       <c r="AH141" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="142" spans="34:34">
       <c r="AH142" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="143" spans="34:34">
       <c r="AH143" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="144" spans="34:34">
       <c r="AH144" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="145" spans="34:34">
       <c r="AH145" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="146" spans="34:34">
       <c r="AH146" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="147" spans="34:34">
       <c r="AH147" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="148" spans="34:34">
       <c r="AH148" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="149" spans="34:34">
       <c r="AH149" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="150" spans="34:34">
       <c r="AH150" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="151" spans="34:34">
       <c r="AH151" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="152" spans="34:34">
       <c r="AH152" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="153" spans="34:34">
       <c r="AH153" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="154" spans="34:34">
       <c r="AH154" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="155" spans="34:34">
       <c r="AH155" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="156" spans="34:34">
       <c r="AH156" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="157" spans="34:34">
       <c r="AH157" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="158" spans="34:34">
       <c r="AH158" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="159" spans="34:34">
       <c r="AH159" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="160" spans="34:34">
       <c r="AH160" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="161" spans="34:34">
       <c r="AH161" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="162" spans="34:34">
       <c r="AH162" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="163" spans="34:34">
       <c r="AH163" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="164" spans="34:34">
       <c r="AH164" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="165" spans="34:34">
       <c r="AH165" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="166" spans="34:34">
       <c r="AH166" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="167" spans="34:34">
       <c r="AH167" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="168" spans="34:34">
       <c r="AH168" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="169" spans="34:34">
       <c r="AH169" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="170" spans="34:34">
       <c r="AH170" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="171" spans="34:34">
       <c r="AH171" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="172" spans="34:34">
       <c r="AH172" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="173" spans="34:34">
       <c r="AH173" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="174" spans="34:34">
       <c r="AH174" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="175" spans="34:34">
       <c r="AH175" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="176" spans="34:34">
       <c r="AH176" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="177" spans="34:34">
       <c r="AH177" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="178" spans="34:34">
       <c r="AH178" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="179" spans="34:34">
       <c r="AH179" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="180" spans="34:34">
       <c r="AH180" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="181" spans="34:34">
       <c r="AH181" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="182" spans="34:34">
       <c r="AH182" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="183" spans="34:34">
       <c r="AH183" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="184" spans="34:34">
       <c r="AH184" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="185" spans="34:34">
       <c r="AH185" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="186" spans="34:34">
       <c r="AH186" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="187" spans="34:34">
       <c r="AH187" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="188" spans="34:34">
       <c r="AH188" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="189" spans="34:34">
       <c r="AH189" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="190" spans="34:34">
       <c r="AH190" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="191" spans="34:34">
       <c r="AH191" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="192" spans="34:34">
       <c r="AH192" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="193" spans="34:34">
       <c r="AH193" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="194" spans="34:34">
       <c r="AH194" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="195" spans="34:34">
       <c r="AH195" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="196" spans="34:34">
       <c r="AH196" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="197" spans="34:34">
       <c r="AH197" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="198" spans="34:34">
       <c r="AH198" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="199" spans="34:34">
       <c r="AH199" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="200" spans="34:34">
       <c r="AH200" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="201" spans="34:34">
       <c r="AH201" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="202" spans="34:34">
       <c r="AH202" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="203" spans="34:34">
       <c r="AH203" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="204" spans="34:34">
       <c r="AH204" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="205" spans="34:34">
       <c r="AH205" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="206" spans="34:34">
       <c r="AH206" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="207" spans="34:34">
       <c r="AH207" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="208" spans="34:34">
       <c r="AH208" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="209" spans="34:34">
       <c r="AH209" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="210" spans="34:34">
       <c r="AH210" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="211" spans="34:34">
       <c r="AH211" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="212" spans="34:34">
       <c r="AH212" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="213" spans="34:34">
       <c r="AH213" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="214" spans="34:34">
       <c r="AH214" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="215" spans="34:34">
       <c r="AH215" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="216" spans="34:34">
       <c r="AH216" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="217" spans="34:34">
       <c r="AH217" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="218" spans="34:34">
       <c r="AH218" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="219" spans="34:34">
       <c r="AH219" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="220" spans="34:34">
       <c r="AH220" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="221" spans="34:34">
       <c r="AH221" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="222" spans="34:34">
       <c r="AH222" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="223" spans="34:34">
       <c r="AH223" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="224" spans="34:34">
       <c r="AH224" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="225" spans="34:34">
       <c r="AH225" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="226" spans="34:34">
       <c r="AH226" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="227" spans="34:34">
       <c r="AH227" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="228" spans="34:34">
       <c r="AH228" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="229" spans="34:34">
       <c r="AH229" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="230" spans="34:34">
       <c r="AH230" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="231" spans="34:34">
       <c r="AH231" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="232" spans="34:34">
       <c r="AH232" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="233" spans="34:34">
       <c r="AH233" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="234" spans="34:34">
       <c r="AH234" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="235" spans="34:34">
       <c r="AH235" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="236" spans="34:34">
       <c r="AH236" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="237" spans="34:34">
       <c r="AH237" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="238" spans="34:34">
       <c r="AH238" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="239" spans="34:34">
       <c r="AH239" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="240" spans="34:34">
       <c r="AH240" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="241" spans="34:34">
       <c r="AH241" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="242" spans="34:34">
       <c r="AH242" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="243" spans="34:34">
       <c r="AH243" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="244" spans="34:34">
       <c r="AH244" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="245" spans="34:34">
       <c r="AH245" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="246" spans="34:34">
       <c r="AH246" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="247" spans="34:34">
       <c r="AH247" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="248" spans="34:34">
       <c r="AH248" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="249" spans="34:34">
       <c r="AH249" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="250" spans="34:34">
       <c r="AH250" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="251" spans="34:34">
       <c r="AH251" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="252" spans="34:34">
       <c r="AH252" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="253" spans="34:34">
       <c r="AH253" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="254" spans="34:34">
       <c r="AH254" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="255" spans="34:34">
       <c r="AH255" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="256" spans="34:34">
       <c r="AH256" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="257" spans="34:34">
       <c r="AH257" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="258" spans="34:34">
       <c r="AH258" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="259" spans="34:34">
       <c r="AH259" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="260" spans="34:34">
       <c r="AH260" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="261" spans="34:34">
       <c r="AH261" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="262" spans="34:34">
       <c r="AH262" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="263" spans="34:34">
       <c r="AH263" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="264" spans="34:34">
       <c r="AH264" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="265" spans="34:34">
       <c r="AH265" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="266" spans="34:34">
       <c r="AH266" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="267" spans="34:34">
       <c r="AH267" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="268" spans="34:34">
       <c r="AH268" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="269" spans="34:34">
       <c r="AH269" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="270" spans="34:34">
       <c r="AH270" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="271" spans="34:34">
       <c r="AH271" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="272" spans="34:34">
       <c r="AH272" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="273" spans="34:34">
       <c r="AH273" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="274" spans="34:34">
       <c r="AH274" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="275" spans="34:34">
       <c r="AH275" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="276" spans="34:34">
       <c r="AH276" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="277" spans="34:34">
       <c r="AH277" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="278" spans="34:34">
       <c r="AH278" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="279" spans="34:34">
       <c r="AH279" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="280" spans="34:34">
       <c r="AH280" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="281" spans="34:34">
       <c r="AH281" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="282" spans="34:34">
       <c r="AH282" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="283" spans="34:34">
       <c r="AH283" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="284" spans="34:34">
       <c r="AH284" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="285" spans="34:34">
       <c r="AH285" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="286" spans="34:34">
       <c r="AH286" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="287" spans="34:34">
       <c r="AH287" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="288" spans="34:34">
       <c r="AH288" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="289" spans="34:34">
       <c r="AH289" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000030/metadata_template_ERC000030.xlsx
+++ b/templates/ERC000030/metadata_template_ERC000030.xlsx
@@ -20,7 +20,7 @@
     <definedName name="environmentalpackage">'cv_sample'!$T$1:$T$1</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AH$1:$AH$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="625">
   <si>
     <t>alias</t>
   </si>
@@ -719,6 +719,9 @@
   </si>
   <si>
     <t>UG 100</t>
+  </si>
+  <si>
+    <t>Vega</t>
   </si>
   <si>
     <t>instrument_model</t>
@@ -2442,7 +2445,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2486,7 +2489,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2513,7 +2516,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N85"/>
+  <dimension ref="G1:N86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3235,6 +3238,11 @@
     </row>
     <row r="85" spans="14:14">
       <c r="N85" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="14:14">
+      <c r="N86" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3259,27 +3267,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3302,122 +3310,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3444,222 +3452,222 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
   </sheetData>
@@ -3685,1450 +3693,1450 @@
   <sheetData>
     <row r="1" spans="20:34">
       <c r="T1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AH1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="20:34">
       <c r="AH2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="20:34">
       <c r="AH3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="20:34">
       <c r="AH4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="20:34">
       <c r="AH5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="20:34">
       <c r="AH6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="20:34">
       <c r="AH7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="20:34">
       <c r="AH8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="20:34">
       <c r="AH9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="20:34">
       <c r="AH10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="20:34">
       <c r="AH11" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="20:34">
       <c r="AH12" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="20:34">
       <c r="AH13" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="20:34">
       <c r="AH14" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="20:34">
       <c r="AH15" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="16" spans="20:34">
       <c r="AH16" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="34:34">
       <c r="AH17" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" spans="34:34">
       <c r="AH18" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="19" spans="34:34">
       <c r="AH19" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" spans="34:34">
       <c r="AH20" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" spans="34:34">
       <c r="AH21" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="22" spans="34:34">
       <c r="AH22" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="23" spans="34:34">
       <c r="AH23" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="24" spans="34:34">
       <c r="AH24" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="25" spans="34:34">
       <c r="AH25" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="26" spans="34:34">
       <c r="AH26" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="27" spans="34:34">
       <c r="AH27" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="28" spans="34:34">
       <c r="AH28" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="29" spans="34:34">
       <c r="AH29" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="30" spans="34:34">
       <c r="AH30" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="31" spans="34:34">
       <c r="AH31" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="32" spans="34:34">
       <c r="AH32" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="33" spans="34:34">
       <c r="AH33" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="34" spans="34:34">
       <c r="AH34" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="35" spans="34:34">
       <c r="AH35" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="36" spans="34:34">
       <c r="AH36" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="37" spans="34:34">
       <c r="AH37" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="38" spans="34:34">
       <c r="AH38" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="39" spans="34:34">
       <c r="AH39" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="40" spans="34:34">
       <c r="AH40" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="41" spans="34:34">
       <c r="AH41" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="42" spans="34:34">
       <c r="AH42" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="43" spans="34:34">
       <c r="AH43" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="44" spans="34:34">
       <c r="AH44" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="45" spans="34:34">
       <c r="AH45" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="46" spans="34:34">
       <c r="AH46" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="47" spans="34:34">
       <c r="AH47" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="48" spans="34:34">
       <c r="AH48" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="49" spans="34:34">
       <c r="AH49" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="50" spans="34:34">
       <c r="AH50" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="51" spans="34:34">
       <c r="AH51" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="52" spans="34:34">
       <c r="AH52" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="53" spans="34:34">
       <c r="AH53" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="54" spans="34:34">
       <c r="AH54" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="55" spans="34:34">
       <c r="AH55" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="56" spans="34:34">
       <c r="AH56" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="57" spans="34:34">
       <c r="AH57" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="58" spans="34:34">
       <c r="AH58" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="59" spans="34:34">
       <c r="AH59" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="60" spans="34:34">
       <c r="AH60" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="61" spans="34:34">
       <c r="AH61" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="62" spans="34:34">
       <c r="AH62" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="63" spans="34:34">
       <c r="AH63" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="64" spans="34:34">
       <c r="AH64" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="65" spans="34:34">
       <c r="AH65" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="66" spans="34:34">
       <c r="AH66" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="67" spans="34:34">
       <c r="AH67" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="68" spans="34:34">
       <c r="AH68" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="69" spans="34:34">
       <c r="AH69" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="70" spans="34:34">
       <c r="AH70" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="71" spans="34:34">
       <c r="AH71" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="72" spans="34:34">
       <c r="AH72" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="73" spans="34:34">
       <c r="AH73" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="74" spans="34:34">
       <c r="AH74" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="75" spans="34:34">
       <c r="AH75" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="76" spans="34:34">
       <c r="AH76" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="77" spans="34:34">
       <c r="AH77" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="78" spans="34:34">
       <c r="AH78" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="79" spans="34:34">
       <c r="AH79" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="80" spans="34:34">
       <c r="AH80" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="81" spans="34:34">
       <c r="AH81" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="82" spans="34:34">
       <c r="AH82" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="83" spans="34:34">
       <c r="AH83" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="84" spans="34:34">
       <c r="AH84" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="85" spans="34:34">
       <c r="AH85" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="86" spans="34:34">
       <c r="AH86" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="87" spans="34:34">
       <c r="AH87" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="88" spans="34:34">
       <c r="AH88" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="89" spans="34:34">
       <c r="AH89" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="90" spans="34:34">
       <c r="AH90" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="91" spans="34:34">
       <c r="AH91" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="92" spans="34:34">
       <c r="AH92" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="93" spans="34:34">
       <c r="AH93" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="94" spans="34:34">
       <c r="AH94" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="95" spans="34:34">
       <c r="AH95" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="96" spans="34:34">
       <c r="AH96" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="97" spans="34:34">
       <c r="AH97" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="98" spans="34:34">
       <c r="AH98" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="99" spans="34:34">
       <c r="AH99" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="100" spans="34:34">
       <c r="AH100" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="101" spans="34:34">
       <c r="AH101" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="102" spans="34:34">
       <c r="AH102" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="103" spans="34:34">
       <c r="AH103" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="104" spans="34:34">
       <c r="AH104" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="105" spans="34:34">
       <c r="AH105" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="106" spans="34:34">
       <c r="AH106" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="107" spans="34:34">
       <c r="AH107" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="108" spans="34:34">
       <c r="AH108" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="109" spans="34:34">
       <c r="AH109" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="110" spans="34:34">
       <c r="AH110" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="111" spans="34:34">
       <c r="AH111" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="112" spans="34:34">
       <c r="AH112" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="113" spans="34:34">
       <c r="AH113" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="114" spans="34:34">
       <c r="AH114" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="115" spans="34:34">
       <c r="AH115" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="116" spans="34:34">
       <c r="AH116" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="117" spans="34:34">
       <c r="AH117" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="118" spans="34:34">
       <c r="AH118" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="119" spans="34:34">
       <c r="AH119" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="120" spans="34:34">
       <c r="AH120" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="121" spans="34:34">
       <c r="AH121" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="122" spans="34:34">
       <c r="AH122" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="123" spans="34:34">
       <c r="AH123" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="124" spans="34:34">
       <c r="AH124" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="125" spans="34:34">
       <c r="AH125" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="126" spans="34:34">
       <c r="AH126" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="127" spans="34:34">
       <c r="AH127" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="128" spans="34:34">
       <c r="AH128" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="129" spans="34:34">
       <c r="AH129" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="130" spans="34:34">
       <c r="AH130" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="131" spans="34:34">
       <c r="AH131" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="132" spans="34:34">
       <c r="AH132" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="133" spans="34:34">
       <c r="AH133" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="134" spans="34:34">
       <c r="AH134" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="135" spans="34:34">
       <c r="AH135" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="136" spans="34:34">
       <c r="AH136" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="137" spans="34:34">
       <c r="AH137" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="138" spans="34:34">
       <c r="AH138" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="139" spans="34:34">
       <c r="AH139" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="140" spans="34:34">
       <c r="AH140" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="141" spans="34:34">
       <c r="AH141" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="142" spans="34:34">
       <c r="AH142" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="143" spans="34:34">
       <c r="AH143" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="144" spans="34:34">
       <c r="AH144" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="145" spans="34:34">
       <c r="AH145" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="146" spans="34:34">
       <c r="AH146" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="147" spans="34:34">
       <c r="AH147" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="148" spans="34:34">
       <c r="AH148" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="149" spans="34:34">
       <c r="AH149" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="150" spans="34:34">
       <c r="AH150" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="151" spans="34:34">
       <c r="AH151" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="152" spans="34:34">
       <c r="AH152" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="153" spans="34:34">
       <c r="AH153" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="154" spans="34:34">
       <c r="AH154" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="155" spans="34:34">
       <c r="AH155" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="156" spans="34:34">
       <c r="AH156" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="157" spans="34:34">
       <c r="AH157" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="158" spans="34:34">
       <c r="AH158" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="159" spans="34:34">
       <c r="AH159" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="160" spans="34:34">
       <c r="AH160" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="161" spans="34:34">
       <c r="AH161" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="162" spans="34:34">
       <c r="AH162" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="163" spans="34:34">
       <c r="AH163" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="164" spans="34:34">
       <c r="AH164" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="165" spans="34:34">
       <c r="AH165" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="166" spans="34:34">
       <c r="AH166" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="167" spans="34:34">
       <c r="AH167" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="168" spans="34:34">
       <c r="AH168" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="169" spans="34:34">
       <c r="AH169" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="170" spans="34:34">
       <c r="AH170" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="171" spans="34:34">
       <c r="AH171" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="172" spans="34:34">
       <c r="AH172" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="173" spans="34:34">
       <c r="AH173" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="174" spans="34:34">
       <c r="AH174" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="175" spans="34:34">
       <c r="AH175" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="176" spans="34:34">
       <c r="AH176" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="177" spans="34:34">
       <c r="AH177" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="178" spans="34:34">
       <c r="AH178" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="179" spans="34:34">
       <c r="AH179" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="180" spans="34:34">
       <c r="AH180" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="181" spans="34:34">
       <c r="AH181" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="182" spans="34:34">
       <c r="AH182" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="183" spans="34:34">
       <c r="AH183" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="184" spans="34:34">
       <c r="AH184" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="185" spans="34:34">
       <c r="AH185" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="186" spans="34:34">
       <c r="AH186" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="187" spans="34:34">
       <c r="AH187" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="188" spans="34:34">
       <c r="AH188" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="189" spans="34:34">
       <c r="AH189" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="190" spans="34:34">
       <c r="AH190" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="191" spans="34:34">
       <c r="AH191" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="192" spans="34:34">
       <c r="AH192" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="193" spans="34:34">
       <c r="AH193" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="194" spans="34:34">
       <c r="AH194" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="195" spans="34:34">
       <c r="AH195" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="196" spans="34:34">
       <c r="AH196" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="197" spans="34:34">
       <c r="AH197" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="198" spans="34:34">
       <c r="AH198" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="199" spans="34:34">
       <c r="AH199" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="200" spans="34:34">
       <c r="AH200" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="201" spans="34:34">
       <c r="AH201" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="202" spans="34:34">
       <c r="AH202" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="203" spans="34:34">
       <c r="AH203" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="204" spans="34:34">
       <c r="AH204" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="205" spans="34:34">
       <c r="AH205" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="206" spans="34:34">
       <c r="AH206" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="207" spans="34:34">
       <c r="AH207" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="208" spans="34:34">
       <c r="AH208" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="209" spans="34:34">
       <c r="AH209" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="210" spans="34:34">
       <c r="AH210" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="211" spans="34:34">
       <c r="AH211" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="212" spans="34:34">
       <c r="AH212" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="213" spans="34:34">
       <c r="AH213" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="214" spans="34:34">
       <c r="AH214" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="215" spans="34:34">
       <c r="AH215" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="216" spans="34:34">
       <c r="AH216" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="217" spans="34:34">
       <c r="AH217" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="218" spans="34:34">
       <c r="AH218" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="219" spans="34:34">
       <c r="AH219" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="220" spans="34:34">
       <c r="AH220" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="221" spans="34:34">
       <c r="AH221" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="222" spans="34:34">
       <c r="AH222" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="223" spans="34:34">
       <c r="AH223" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="224" spans="34:34">
       <c r="AH224" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="225" spans="34:34">
       <c r="AH225" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="226" spans="34:34">
       <c r="AH226" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="227" spans="34:34">
       <c r="AH227" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="228" spans="34:34">
       <c r="AH228" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="229" spans="34:34">
       <c r="AH229" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="230" spans="34:34">
       <c r="AH230" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="231" spans="34:34">
       <c r="AH231" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="232" spans="34:34">
       <c r="AH232" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="233" spans="34:34">
       <c r="AH233" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="234" spans="34:34">
       <c r="AH234" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="235" spans="34:34">
       <c r="AH235" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="236" spans="34:34">
       <c r="AH236" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="237" spans="34:34">
       <c r="AH237" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="238" spans="34:34">
       <c r="AH238" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="239" spans="34:34">
       <c r="AH239" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="240" spans="34:34">
       <c r="AH240" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="241" spans="34:34">
       <c r="AH241" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="242" spans="34:34">
       <c r="AH242" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="243" spans="34:34">
       <c r="AH243" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="244" spans="34:34">
       <c r="AH244" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="245" spans="34:34">
       <c r="AH245" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="246" spans="34:34">
       <c r="AH246" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="247" spans="34:34">
       <c r="AH247" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="248" spans="34:34">
       <c r="AH248" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="249" spans="34:34">
       <c r="AH249" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="250" spans="34:34">
       <c r="AH250" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="251" spans="34:34">
       <c r="AH251" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="252" spans="34:34">
       <c r="AH252" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="253" spans="34:34">
       <c r="AH253" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="254" spans="34:34">
       <c r="AH254" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="255" spans="34:34">
       <c r="AH255" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="256" spans="34:34">
       <c r="AH256" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="257" spans="34:34">
       <c r="AH257" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="258" spans="34:34">
       <c r="AH258" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="259" spans="34:34">
       <c r="AH259" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="260" spans="34:34">
       <c r="AH260" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="261" spans="34:34">
       <c r="AH261" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="262" spans="34:34">
       <c r="AH262" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="263" spans="34:34">
       <c r="AH263" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="264" spans="34:34">
       <c r="AH264" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="265" spans="34:34">
       <c r="AH265" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="266" spans="34:34">
       <c r="AH266" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="267" spans="34:34">
       <c r="AH267" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="268" spans="34:34">
       <c r="AH268" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="269" spans="34:34">
       <c r="AH269" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="270" spans="34:34">
       <c r="AH270" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="271" spans="34:34">
       <c r="AH271" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="272" spans="34:34">
       <c r="AH272" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="273" spans="34:34">
       <c r="AH273" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="274" spans="34:34">
       <c r="AH274" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="275" spans="34:34">
       <c r="AH275" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="276" spans="34:34">
       <c r="AH276" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="277" spans="34:34">
       <c r="AH277" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="278" spans="34:34">
       <c r="AH278" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="279" spans="34:34">
       <c r="AH279" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="280" spans="34:34">
       <c r="AH280" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="281" spans="34:34">
       <c r="AH281" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="282" spans="34:34">
       <c r="AH282" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="283" spans="34:34">
       <c r="AH283" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="284" spans="34:34">
       <c r="AH284" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="285" spans="34:34">
       <c r="AH285" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="286" spans="34:34">
       <c r="AH286" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="287" spans="34:34">
       <c r="AH287" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="288" spans="34:34">
       <c r="AH288" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="289" spans="34:34">
       <c r="AH289" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000030/metadata_template_ERC000030.xlsx
+++ b/templates/ERC000030/metadata_template_ERC000030.xlsx
@@ -20,7 +20,7 @@
     <definedName name="environmentalpackage">'cv_sample'!$T$1:$T$1</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AH$1:$AH$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="626">
   <si>
     <t>alias</t>
   </si>
@@ -554,6 +554,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-G800</t>
   </si>
   <si>
     <t>DNBSEQ-T10x4RS</t>
@@ -2445,7 +2448,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2489,7 +2492,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2516,7 +2519,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N86"/>
+  <dimension ref="G1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3243,6 +3246,11 @@
     </row>
     <row r="86" spans="14:14">
       <c r="N86" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="87" spans="14:14">
+      <c r="N87" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3267,27 +3275,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -3310,122 +3318,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3452,222 +3460,222 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -3693,1450 +3701,1450 @@
   <sheetData>
     <row r="1" spans="20:34">
       <c r="T1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AH1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="20:34">
       <c r="AH2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="20:34">
       <c r="AH3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="20:34">
       <c r="AH4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="20:34">
       <c r="AH5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="20:34">
       <c r="AH6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="20:34">
       <c r="AH7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="20:34">
       <c r="AH8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="20:34">
       <c r="AH9" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="20:34">
       <c r="AH10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="20:34">
       <c r="AH11" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="20:34">
       <c r="AH12" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="20:34">
       <c r="AH13" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="20:34">
       <c r="AH14" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="20:34">
       <c r="AH15" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="20:34">
       <c r="AH16" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="34:34">
       <c r="AH17" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="34:34">
       <c r="AH18" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="19" spans="34:34">
       <c r="AH19" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="20" spans="34:34">
       <c r="AH20" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="21" spans="34:34">
       <c r="AH21" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="22" spans="34:34">
       <c r="AH22" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="23" spans="34:34">
       <c r="AH23" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="24" spans="34:34">
       <c r="AH24" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="25" spans="34:34">
       <c r="AH25" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="26" spans="34:34">
       <c r="AH26" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="27" spans="34:34">
       <c r="AH27" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="28" spans="34:34">
       <c r="AH28" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="29" spans="34:34">
       <c r="AH29" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="30" spans="34:34">
       <c r="AH30" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="31" spans="34:34">
       <c r="AH31" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="32" spans="34:34">
       <c r="AH32" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="33" spans="34:34">
       <c r="AH33" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="34" spans="34:34">
       <c r="AH34" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="35" spans="34:34">
       <c r="AH35" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="36" spans="34:34">
       <c r="AH36" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="37" spans="34:34">
       <c r="AH37" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="38" spans="34:34">
       <c r="AH38" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="39" spans="34:34">
       <c r="AH39" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="40" spans="34:34">
       <c r="AH40" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="41" spans="34:34">
       <c r="AH41" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="42" spans="34:34">
       <c r="AH42" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="43" spans="34:34">
       <c r="AH43" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="44" spans="34:34">
       <c r="AH44" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="45" spans="34:34">
       <c r="AH45" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="46" spans="34:34">
       <c r="AH46" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="47" spans="34:34">
       <c r="AH47" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="48" spans="34:34">
       <c r="AH48" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="49" spans="34:34">
       <c r="AH49" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="50" spans="34:34">
       <c r="AH50" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="51" spans="34:34">
       <c r="AH51" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="52" spans="34:34">
       <c r="AH52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="53" spans="34:34">
       <c r="AH53" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="54" spans="34:34">
       <c r="AH54" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="55" spans="34:34">
       <c r="AH55" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="56" spans="34:34">
       <c r="AH56" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="57" spans="34:34">
       <c r="AH57" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="58" spans="34:34">
       <c r="AH58" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="59" spans="34:34">
       <c r="AH59" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="60" spans="34:34">
       <c r="AH60" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="61" spans="34:34">
       <c r="AH61" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="62" spans="34:34">
       <c r="AH62" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="63" spans="34:34">
       <c r="AH63" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="64" spans="34:34">
       <c r="AH64" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="65" spans="34:34">
       <c r="AH65" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="66" spans="34:34">
       <c r="AH66" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="67" spans="34:34">
       <c r="AH67" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="68" spans="34:34">
       <c r="AH68" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="69" spans="34:34">
       <c r="AH69" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="70" spans="34:34">
       <c r="AH70" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="71" spans="34:34">
       <c r="AH71" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="72" spans="34:34">
       <c r="AH72" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="73" spans="34:34">
       <c r="AH73" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="74" spans="34:34">
       <c r="AH74" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="75" spans="34:34">
       <c r="AH75" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="76" spans="34:34">
       <c r="AH76" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="77" spans="34:34">
       <c r="AH77" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="78" spans="34:34">
       <c r="AH78" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="79" spans="34:34">
       <c r="AH79" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="80" spans="34:34">
       <c r="AH80" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="81" spans="34:34">
       <c r="AH81" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="82" spans="34:34">
       <c r="AH82" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="83" spans="34:34">
       <c r="AH83" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="84" spans="34:34">
       <c r="AH84" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="85" spans="34:34">
       <c r="AH85" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="86" spans="34:34">
       <c r="AH86" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="87" spans="34:34">
       <c r="AH87" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="88" spans="34:34">
       <c r="AH88" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="89" spans="34:34">
       <c r="AH89" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="90" spans="34:34">
       <c r="AH90" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="91" spans="34:34">
       <c r="AH91" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="92" spans="34:34">
       <c r="AH92" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="93" spans="34:34">
       <c r="AH93" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="94" spans="34:34">
       <c r="AH94" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="95" spans="34:34">
       <c r="AH95" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="96" spans="34:34">
       <c r="AH96" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="97" spans="34:34">
       <c r="AH97" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="98" spans="34:34">
       <c r="AH98" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="99" spans="34:34">
       <c r="AH99" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="100" spans="34:34">
       <c r="AH100" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="101" spans="34:34">
       <c r="AH101" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="102" spans="34:34">
       <c r="AH102" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="103" spans="34:34">
       <c r="AH103" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="104" spans="34:34">
       <c r="AH104" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="105" spans="34:34">
       <c r="AH105" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="106" spans="34:34">
       <c r="AH106" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="107" spans="34:34">
       <c r="AH107" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="108" spans="34:34">
       <c r="AH108" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="109" spans="34:34">
       <c r="AH109" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="110" spans="34:34">
       <c r="AH110" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="111" spans="34:34">
       <c r="AH111" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="112" spans="34:34">
       <c r="AH112" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="113" spans="34:34">
       <c r="AH113" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="114" spans="34:34">
       <c r="AH114" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="115" spans="34:34">
       <c r="AH115" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="116" spans="34:34">
       <c r="AH116" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="117" spans="34:34">
       <c r="AH117" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="118" spans="34:34">
       <c r="AH118" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="119" spans="34:34">
       <c r="AH119" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="120" spans="34:34">
       <c r="AH120" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="121" spans="34:34">
       <c r="AH121" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="122" spans="34:34">
       <c r="AH122" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="123" spans="34:34">
       <c r="AH123" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="124" spans="34:34">
       <c r="AH124" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="125" spans="34:34">
       <c r="AH125" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="126" spans="34:34">
       <c r="AH126" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="127" spans="34:34">
       <c r="AH127" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="128" spans="34:34">
       <c r="AH128" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="129" spans="34:34">
       <c r="AH129" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="130" spans="34:34">
       <c r="AH130" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="131" spans="34:34">
       <c r="AH131" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="132" spans="34:34">
       <c r="AH132" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="133" spans="34:34">
       <c r="AH133" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="134" spans="34:34">
       <c r="AH134" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="135" spans="34:34">
       <c r="AH135" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="136" spans="34:34">
       <c r="AH136" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="137" spans="34:34">
       <c r="AH137" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="138" spans="34:34">
       <c r="AH138" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="139" spans="34:34">
       <c r="AH139" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="140" spans="34:34">
       <c r="AH140" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="141" spans="34:34">
       <c r="AH141" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="142" spans="34:34">
       <c r="AH142" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="143" spans="34:34">
       <c r="AH143" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="144" spans="34:34">
       <c r="AH144" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="145" spans="34:34">
       <c r="AH145" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="146" spans="34:34">
       <c r="AH146" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="147" spans="34:34">
       <c r="AH147" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="148" spans="34:34">
       <c r="AH148" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="149" spans="34:34">
       <c r="AH149" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="150" spans="34:34">
       <c r="AH150" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="151" spans="34:34">
       <c r="AH151" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="152" spans="34:34">
       <c r="AH152" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="153" spans="34:34">
       <c r="AH153" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="154" spans="34:34">
       <c r="AH154" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="155" spans="34:34">
       <c r="AH155" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="156" spans="34:34">
       <c r="AH156" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="157" spans="34:34">
       <c r="AH157" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="158" spans="34:34">
       <c r="AH158" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="159" spans="34:34">
       <c r="AH159" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="160" spans="34:34">
       <c r="AH160" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="161" spans="34:34">
       <c r="AH161" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="162" spans="34:34">
       <c r="AH162" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="163" spans="34:34">
       <c r="AH163" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="164" spans="34:34">
       <c r="AH164" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="165" spans="34:34">
       <c r="AH165" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="166" spans="34:34">
       <c r="AH166" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="167" spans="34:34">
       <c r="AH167" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="168" spans="34:34">
       <c r="AH168" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="169" spans="34:34">
       <c r="AH169" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="170" spans="34:34">
       <c r="AH170" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="171" spans="34:34">
       <c r="AH171" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="172" spans="34:34">
       <c r="AH172" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="173" spans="34:34">
       <c r="AH173" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="174" spans="34:34">
       <c r="AH174" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="175" spans="34:34">
       <c r="AH175" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="176" spans="34:34">
       <c r="AH176" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="177" spans="34:34">
       <c r="AH177" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="178" spans="34:34">
       <c r="AH178" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="179" spans="34:34">
       <c r="AH179" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="180" spans="34:34">
       <c r="AH180" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="181" spans="34:34">
       <c r="AH181" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="182" spans="34:34">
       <c r="AH182" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="183" spans="34:34">
       <c r="AH183" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="184" spans="34:34">
       <c r="AH184" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="185" spans="34:34">
       <c r="AH185" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="186" spans="34:34">
       <c r="AH186" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="187" spans="34:34">
       <c r="AH187" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="188" spans="34:34">
       <c r="AH188" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="189" spans="34:34">
       <c r="AH189" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="190" spans="34:34">
       <c r="AH190" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="191" spans="34:34">
       <c r="AH191" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="192" spans="34:34">
       <c r="AH192" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="193" spans="34:34">
       <c r="AH193" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="194" spans="34:34">
       <c r="AH194" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="195" spans="34:34">
       <c r="AH195" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="196" spans="34:34">
       <c r="AH196" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="197" spans="34:34">
       <c r="AH197" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="198" spans="34:34">
       <c r="AH198" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="199" spans="34:34">
       <c r="AH199" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="200" spans="34:34">
       <c r="AH200" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="201" spans="34:34">
       <c r="AH201" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="202" spans="34:34">
       <c r="AH202" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="203" spans="34:34">
       <c r="AH203" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="204" spans="34:34">
       <c r="AH204" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="205" spans="34:34">
       <c r="AH205" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="206" spans="34:34">
       <c r="AH206" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="207" spans="34:34">
       <c r="AH207" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="208" spans="34:34">
       <c r="AH208" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="209" spans="34:34">
       <c r="AH209" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="210" spans="34:34">
       <c r="AH210" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="211" spans="34:34">
       <c r="AH211" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="212" spans="34:34">
       <c r="AH212" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="213" spans="34:34">
       <c r="AH213" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="214" spans="34:34">
       <c r="AH214" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="215" spans="34:34">
       <c r="AH215" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="216" spans="34:34">
       <c r="AH216" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="217" spans="34:34">
       <c r="AH217" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="218" spans="34:34">
       <c r="AH218" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="219" spans="34:34">
       <c r="AH219" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="220" spans="34:34">
       <c r="AH220" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="221" spans="34:34">
       <c r="AH221" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="222" spans="34:34">
       <c r="AH222" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="223" spans="34:34">
       <c r="AH223" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="224" spans="34:34">
       <c r="AH224" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="225" spans="34:34">
       <c r="AH225" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="226" spans="34:34">
       <c r="AH226" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="227" spans="34:34">
       <c r="AH227" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="228" spans="34:34">
       <c r="AH228" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="229" spans="34:34">
       <c r="AH229" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="230" spans="34:34">
       <c r="AH230" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="231" spans="34:34">
       <c r="AH231" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="232" spans="34:34">
       <c r="AH232" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="233" spans="34:34">
       <c r="AH233" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="234" spans="34:34">
       <c r="AH234" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="235" spans="34:34">
       <c r="AH235" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="236" spans="34:34">
       <c r="AH236" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="237" spans="34:34">
       <c r="AH237" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="238" spans="34:34">
       <c r="AH238" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="239" spans="34:34">
       <c r="AH239" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="240" spans="34:34">
       <c r="AH240" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="241" spans="34:34">
       <c r="AH241" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="242" spans="34:34">
       <c r="AH242" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="243" spans="34:34">
       <c r="AH243" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="244" spans="34:34">
       <c r="AH244" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="245" spans="34:34">
       <c r="AH245" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="246" spans="34:34">
       <c r="AH246" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="247" spans="34:34">
       <c r="AH247" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="248" spans="34:34">
       <c r="AH248" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="249" spans="34:34">
       <c r="AH249" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="250" spans="34:34">
       <c r="AH250" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="251" spans="34:34">
       <c r="AH251" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="252" spans="34:34">
       <c r="AH252" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="253" spans="34:34">
       <c r="AH253" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="254" spans="34:34">
       <c r="AH254" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="255" spans="34:34">
       <c r="AH255" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="256" spans="34:34">
       <c r="AH256" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="257" spans="34:34">
       <c r="AH257" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="258" spans="34:34">
       <c r="AH258" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="259" spans="34:34">
       <c r="AH259" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="260" spans="34:34">
       <c r="AH260" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="261" spans="34:34">
       <c r="AH261" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="262" spans="34:34">
       <c r="AH262" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="263" spans="34:34">
       <c r="AH263" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="264" spans="34:34">
       <c r="AH264" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="265" spans="34:34">
       <c r="AH265" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="266" spans="34:34">
       <c r="AH266" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="267" spans="34:34">
       <c r="AH267" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="268" spans="34:34">
       <c r="AH268" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="269" spans="34:34">
       <c r="AH269" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="270" spans="34:34">
       <c r="AH270" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="271" spans="34:34">
       <c r="AH271" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="272" spans="34:34">
       <c r="AH272" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="273" spans="34:34">
       <c r="AH273" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="274" spans="34:34">
       <c r="AH274" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="275" spans="34:34">
       <c r="AH275" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="276" spans="34:34">
       <c r="AH276" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="277" spans="34:34">
       <c r="AH277" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="278" spans="34:34">
       <c r="AH278" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="279" spans="34:34">
       <c r="AH279" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="280" spans="34:34">
       <c r="AH280" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="281" spans="34:34">
       <c r="AH281" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="282" spans="34:34">
       <c r="AH282" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="283" spans="34:34">
       <c r="AH283" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="284" spans="34:34">
       <c r="AH284" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="285" spans="34:34">
       <c r="AH285" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="286" spans="34:34">
       <c r="AH286" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="287" spans="34:34">
       <c r="AH287" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="288" spans="34:34">
       <c r="AH288" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="289" spans="34:34">
       <c r="AH289" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000030/metadata_template_ERC000030.xlsx
+++ b/templates/ERC000030/metadata_template_ERC000030.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="environmentalpackage">'cv_sample'!$T$1:$T$1</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AH$1:$AH$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AH$1:$AH$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="631">
   <si>
     <t>alias</t>
   </si>
@@ -844,91 +844,91 @@
     <t>(Optional) Free-form text describing the sample, its origin, and its method of isolation.</t>
   </si>
   <si>
-    <t>Event Label</t>
+    <t>event_label</t>
   </si>
   <si>
     <t>(Recommended) An event corresponds to the deployment of a sampling device. it is bound in space and time. the event label is a unique identifier composed of the project prefix "tara", sampling date/time "yyyymmddthh:mm:ssz", station number "000" and a short label to indicate the sampling device used, e.g. "event_cast", "event_net", "event_pump". example: tara_20110416t1508z_100_event_cast.</t>
   </si>
   <si>
-    <t>Event Date/Time Start</t>
+    <t>event_datetime_start</t>
   </si>
   <si>
     <t>(Optional) Date and time in utc when the sampling event started, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: yyyy-mm-ddthh:mm:ssz. example: 2011-04-16t15:05:30z.</t>
   </si>
   <si>
-    <t>Event Date/Time End</t>
+    <t>event_datetime_end</t>
   </si>
   <si>
     <t>(Optional) Date and time in utc when the sampling event ended, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: yyyy-mm-ddthh:mm:ssz. example: 2011-04-16t15:38:00z.</t>
   </si>
   <si>
-    <t>Latitude Start</t>
+    <t>latitude_start</t>
   </si>
   <si>
     <t>(Mandatory) Latitude of the location where the sampling event started, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ##.####, decimal degrees; north= +, south= -; use wgs 84 for gps data. example: -24.6666. (Units: DD)</t>
   </si>
   <si>
-    <t>Longitude Start</t>
+    <t>longitude_start</t>
   </si>
   <si>
     <t>(Mandatory) Longitude of the location where the sampling event started, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ###.####, decimal degrees; east= +, west= -; use wgs 84 for gps data. example: -096.1012. (Units: DD)</t>
   </si>
   <si>
-    <t>Latitude End</t>
+    <t>latitude_end</t>
   </si>
   <si>
     <t>(Recommended) Latitude of the location where the sampling event ended, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ##.####, decimal degrees; north= +, south= -; use wgs 84 for gps data. example: -24.6643. (Units: DD)</t>
   </si>
   <si>
-    <t>Longitude End</t>
+    <t>longitude_end</t>
   </si>
   <si>
     <t>(Recommended) Longitude of the location where the sampling event ended, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ###.####, decimal degrees; east= +, west= -; use wgs 84 for gps data. example: -096.1171. (Units: DD)</t>
   </si>
   <si>
-    <t>Protocol Label</t>
+    <t>protocol_label</t>
   </si>
   <si>
     <t>(Mandatory) Identifies the protocol used to produce the sample, e.g. filtration and preservation. example: bact_nuc_w0.22-1.6.</t>
   </si>
   <si>
-    <t>Sample Status</t>
+    <t>sample_status</t>
   </si>
   <si>
     <t>(Recommended) Refers to the completness of sample metadata validation. example: preliminary but can be used to provide data discovery services.</t>
   </si>
   <si>
-    <t>Last Update Date</t>
+    <t>last_update_date</t>
   </si>
   <si>
     <t>(Recommended) Date of the last update of this sample in the samples registry. example: 2014-03-01z.</t>
   </si>
   <si>
-    <t>sample collection device</t>
+    <t>sample_collection_device</t>
   </si>
   <si>
     <t>(Optional) The device used to collect an environmental sample. it is recommended to use terms listed under environmental sampling device (http://purl.obolibrary.org/obo/envo) and/or terms listed under specimen collection device (http://purl.obolibrary.org/obo/genepio_0002094).</t>
   </si>
   <si>
-    <t>sample storage device</t>
+    <t>sample_storage_device</t>
   </si>
   <si>
     <t>(Recommended) The container used to store the sample. this field accepts terms listed under container (http://purl.obolibrary.org/obo/ncit_c43186). if the proper descriptor is not listed please use text to describe the storage device.</t>
   </si>
   <si>
-    <t>size-fraction lower threshold</t>
-  </si>
-  <si>
-    <t>(Recommended) Refers to the mesh/pore size used to retain the sample. materials smaller than the size threshold are excluded from the sample (Units: µm)</t>
-  </si>
-  <si>
-    <t>size-fraction upper threshold</t>
-  </si>
-  <si>
-    <t>(Recommended) Refers to the mesh/pore size used to pre-filter/pre-sort the sample. materials larger than the size threshold are excluded from the sample (Units: µm)</t>
-  </si>
-  <si>
-    <t>project name</t>
+    <t>sizefraction_lower_threshold</t>
+  </si>
+  <si>
+    <t>(Recommended) Refers to the mesh/pore size used to retain the sample. materials smaller than the size threshold are excluded from the sample (Units: nm)</t>
+  </si>
+  <si>
+    <t>sizefraction_upper_threshold</t>
+  </si>
+  <si>
+    <t>(Recommended) Refers to the mesh/pore size used to pre-filter/pre-sort the sample. materials larger than the size threshold are excluded from the sample (Units: nm)</t>
+  </si>
+  <si>
+    <t>project_name</t>
   </si>
   <si>
     <t>(Mandatory) Name of the project within which the sequencing was organized</t>
@@ -937,85 +937,85 @@
     <t>water</t>
   </si>
   <si>
-    <t>environmental package</t>
+    <t>environmental_package</t>
   </si>
   <si>
     <t>(Mandatory) Migs/mims/mimarks extension for reporting of measurements and observations obtained from one or more of the environments where the sample was obtained. all environmental packages listed here are further defined in separate subtables. by giving the name of the environmental package, a selection of fields can be made from the subtables and can be reported</t>
   </si>
   <si>
-    <t>collection date</t>
+    <t>collection_date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
   </si>
   <si>
-    <t>broad-scale environmental context</t>
+    <t>broadscale_environmental_context</t>
   </si>
   <si>
     <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>local environmental context</t>
+    <t>local_environmental_context</t>
   </si>
   <si>
     <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>environmental medium</t>
+    <t>environmental_medium</t>
   </si>
   <si>
     <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
   </si>
   <si>
-    <t>Sampling Campaign</t>
+    <t>sampling_campaign</t>
   </si>
   <si>
     <t>(Mandatory) Refers to a finite or indefinite activity aiming at collecting data/samples, e.g. a cruise, a time series, a mesocosm experiment. example: tara_20110401z.</t>
   </si>
   <si>
-    <t>Sampling Station</t>
+    <t>sampling_station</t>
   </si>
   <si>
     <t>(Mandatory) Refers to the site/station where data/sample collection is performed. example: tara_100.</t>
   </si>
   <si>
-    <t>Sampling Platform</t>
+    <t>sampling_platform</t>
   </si>
   <si>
     <t>(Mandatory) Refers to the unique stage from which the sampling device has been deployed. includes platform category from sdn:l06, http://seadatanet.maris2.nl/v_bodc_vocab_v2/search.asp?lib=l06, and platform name. example: research vessel tara.</t>
   </si>
   <si>
-    <t>Marine Region</t>
+    <t>marine_region</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by the marine region name chosen from the marine regions vocabulary at http://www.marineregions.org/. example: aegean sea.</t>
   </si>
   <si>
-    <t>Salinity Sensor</t>
+    <t>salinity_sensor</t>
   </si>
   <si>
     <t>(Mandatory) Salinity of water at the time of taking the sample. format: ##.####, sdn:p02:75:psal, sdn:p06:46:ugkg for psu. example: 39.2268. (Units: psu)</t>
   </si>
   <si>
-    <t>Oxygen Sensor</t>
+    <t>oxygen_sensor</t>
   </si>
   <si>
     <t>(Recommended) Oxygen concentration parameters in the water column measured in volts and converted to micromoles per kilogrammes. format: ###.####, sdn:p02:75:doxy, sdn:p06:46:kgum for µmol/kg. example: 217.7895. (Units: µmol/kg)</t>
   </si>
   <si>
-    <t>Nitrate Sensor</t>
+    <t>nitrate_sensor</t>
   </si>
   <si>
     <t>(Recommended) Nitrate concentration parameters in the water column measured in volts and converted to micromoles per litres. format: ##.####, sdn:p02:75:ntra, sdn:p06:46:upox for µmol/l. example: 0.2259. (Units: µmol/L)</t>
   </si>
   <si>
-    <t>water temperature</t>
+    <t>water_temperature</t>
   </si>
   <si>
     <t>(Mandatory) Temperature of water at the time of taking the sample. format: ##.####, sdn:p02:75:temp, sdn:p06:46:upaa for °c. example: 17.7122. (Units: ºC)</t>
   </si>
   <si>
-    <t>Chlorophyll Sensor</t>
+    <t>chlorophyll_sensor</t>
   </si>
   <si>
     <t>(Recommended) Fluorescence of the water measured in volts and converted to milligrammes of chlorophyll per cubic metre. format: ##.####, sdn:p02:75:cpwc, sdn:p06:46:ummc for mg chl/m3. example: 0.066. (Units: mg Chl/m3)</t>
@@ -1234,9 +1234,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1255,6 +1252,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1456,6 +1456,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1465,9 +1468,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1507,7 +1507,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1576,6 +1576,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1651,6 +1654,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1672,6 +1678,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1717,6 +1726,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1729,6 +1741,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1738,9 +1753,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1765,6 +1777,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1825,12 +1840,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -1888,19 +1903,19 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic location (country and/or sea)</t>
+    <t>geographic_location_country_andor_sea</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>Citation</t>
+    <t>citation</t>
   </si>
   <si>
     <t>(Recommended) Citation of the sample registry (html version) at the pangaea. example: doi.pangaea.de/10.1594/pangaea.76752.</t>
   </si>
   <si>
-    <t>Further Details</t>
+    <t>further_details</t>
   </si>
   <si>
     <t>(Recommended) Reference details related to a sample in form of an uri.</t>
@@ -1909,7 +1924,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
   </si>
 </sst>
 </file>
@@ -3553,16 +3568,16 @@
         <v>327</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="150" customHeight="1">
@@ -3666,16 +3681,16 @@
         <v>328</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
     </row>
   </sheetData>
@@ -3693,7 +3708,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="T1:AH289"/>
+  <dimension ref="T1:AH294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5147,6 +5162,31 @@
         <v>617</v>
       </c>
     </row>
+    <row r="290" spans="34:34">
+      <c r="AH290" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="291" spans="34:34">
+      <c r="AH291" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="292" spans="34:34">
+      <c r="AH292" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="293" spans="34:34">
+      <c r="AH293" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="294" spans="34:34">
+      <c r="AH294" t="s">
+        <v>622</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/ERC000030/metadata_template_ERC000030.xlsx
+++ b/templates/ERC000030/metadata_template_ERC000030.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="environmentalpackage">'cv_sample'!$T$1:$T$1</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AH$1:$AH$294</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AH$1:$AH$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="626">
   <si>
     <t>alias</t>
   </si>
@@ -844,91 +844,91 @@
     <t>(Optional) Free-form text describing the sample, its origin, and its method of isolation.</t>
   </si>
   <si>
-    <t>event_label</t>
+    <t>Event Label</t>
   </si>
   <si>
     <t>(Recommended) An event corresponds to the deployment of a sampling device. it is bound in space and time. the event label is a unique identifier composed of the project prefix "tara", sampling date/time "yyyymmddthh:mm:ssz", station number "000" and a short label to indicate the sampling device used, e.g. "event_cast", "event_net", "event_pump". example: tara_20110416t1508z_100_event_cast.</t>
   </si>
   <si>
-    <t>event_datetime_start</t>
+    <t>Event Date/Time Start</t>
   </si>
   <si>
     <t>(Optional) Date and time in utc when the sampling event started, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: yyyy-mm-ddthh:mm:ssz. example: 2011-04-16t15:05:30z.</t>
   </si>
   <si>
-    <t>event_datetime_end</t>
+    <t>Event Date/Time End</t>
   </si>
   <si>
     <t>(Optional) Date and time in utc when the sampling event ended, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: yyyy-mm-ddthh:mm:ssz. example: 2011-04-16t15:38:00z.</t>
   </si>
   <si>
-    <t>latitude_start</t>
+    <t>Latitude Start</t>
   </si>
   <si>
     <t>(Mandatory) Latitude of the location where the sampling event started, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ##.####, decimal degrees; north= +, south= -; use wgs 84 for gps data. example: -24.6666. (Units: DD)</t>
   </si>
   <si>
-    <t>longitude_start</t>
+    <t>Longitude Start</t>
   </si>
   <si>
     <t>(Mandatory) Longitude of the location where the sampling event started, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ###.####, decimal degrees; east= +, west= -; use wgs 84 for gps data. example: -096.1012. (Units: DD)</t>
   </si>
   <si>
-    <t>latitude_end</t>
+    <t>Latitude End</t>
   </si>
   <si>
     <t>(Recommended) Latitude of the location where the sampling event ended, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ##.####, decimal degrees; north= +, south= -; use wgs 84 for gps data. example: -24.6643. (Units: DD)</t>
   </si>
   <si>
-    <t>longitude_end</t>
+    <t>Longitude End</t>
   </si>
   <si>
     <t>(Recommended) Longitude of the location where the sampling event ended, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ###.####, decimal degrees; east= +, west= -; use wgs 84 for gps data. example: -096.1171. (Units: DD)</t>
   </si>
   <si>
-    <t>protocol_label</t>
+    <t>Protocol Label</t>
   </si>
   <si>
     <t>(Mandatory) Identifies the protocol used to produce the sample, e.g. filtration and preservation. example: bact_nuc_w0.22-1.6.</t>
   </si>
   <si>
-    <t>sample_status</t>
+    <t>Sample Status</t>
   </si>
   <si>
     <t>(Recommended) Refers to the completness of sample metadata validation. example: preliminary but can be used to provide data discovery services.</t>
   </si>
   <si>
-    <t>last_update_date</t>
+    <t>Last Update Date</t>
   </si>
   <si>
     <t>(Recommended) Date of the last update of this sample in the samples registry. example: 2014-03-01z.</t>
   </si>
   <si>
-    <t>sample_collection_device</t>
+    <t>sample collection device</t>
   </si>
   <si>
     <t>(Optional) The device used to collect an environmental sample. it is recommended to use terms listed under environmental sampling device (http://purl.obolibrary.org/obo/envo) and/or terms listed under specimen collection device (http://purl.obolibrary.org/obo/genepio_0002094).</t>
   </si>
   <si>
-    <t>sample_storage_device</t>
+    <t>sample storage device</t>
   </si>
   <si>
     <t>(Recommended) The container used to store the sample. this field accepts terms listed under container (http://purl.obolibrary.org/obo/ncit_c43186). if the proper descriptor is not listed please use text to describe the storage device.</t>
   </si>
   <si>
-    <t>sizefraction_lower_threshold</t>
-  </si>
-  <si>
-    <t>(Recommended) Refers to the mesh/pore size used to retain the sample. materials smaller than the size threshold are excluded from the sample (Units: nm)</t>
-  </si>
-  <si>
-    <t>sizefraction_upper_threshold</t>
-  </si>
-  <si>
-    <t>(Recommended) Refers to the mesh/pore size used to pre-filter/pre-sort the sample. materials larger than the size threshold are excluded from the sample (Units: nm)</t>
-  </si>
-  <si>
-    <t>project_name</t>
+    <t>size-fraction lower threshold</t>
+  </si>
+  <si>
+    <t>(Recommended) Refers to the mesh/pore size used to retain the sample. materials smaller than the size threshold are excluded from the sample (Units: µm)</t>
+  </si>
+  <si>
+    <t>size-fraction upper threshold</t>
+  </si>
+  <si>
+    <t>(Recommended) Refers to the mesh/pore size used to pre-filter/pre-sort the sample. materials larger than the size threshold are excluded from the sample (Units: µm)</t>
+  </si>
+  <si>
+    <t>project name</t>
   </si>
   <si>
     <t>(Mandatory) Name of the project within which the sequencing was organized</t>
@@ -937,85 +937,85 @@
     <t>water</t>
   </si>
   <si>
-    <t>environmental_package</t>
+    <t>environmental package</t>
   </si>
   <si>
     <t>(Mandatory) Migs/mims/mimarks extension for reporting of measurements and observations obtained from one or more of the environments where the sample was obtained. all environmental packages listed here are further defined in separate subtables. by giving the name of the environmental package, a selection of fields can be made from the subtables and can be reported</t>
   </si>
   <si>
-    <t>collection_date</t>
+    <t>collection date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
   </si>
   <si>
-    <t>broadscale_environmental_context</t>
+    <t>broad-scale environmental context</t>
   </si>
   <si>
     <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>local_environmental_context</t>
+    <t>local environmental context</t>
   </si>
   <si>
     <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>environmental_medium</t>
+    <t>environmental medium</t>
   </si>
   <si>
     <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
   </si>
   <si>
-    <t>sampling_campaign</t>
+    <t>Sampling Campaign</t>
   </si>
   <si>
     <t>(Mandatory) Refers to a finite or indefinite activity aiming at collecting data/samples, e.g. a cruise, a time series, a mesocosm experiment. example: tara_20110401z.</t>
   </si>
   <si>
-    <t>sampling_station</t>
+    <t>Sampling Station</t>
   </si>
   <si>
     <t>(Mandatory) Refers to the site/station where data/sample collection is performed. example: tara_100.</t>
   </si>
   <si>
-    <t>sampling_platform</t>
+    <t>Sampling Platform</t>
   </si>
   <si>
     <t>(Mandatory) Refers to the unique stage from which the sampling device has been deployed. includes platform category from sdn:l06, http://seadatanet.maris2.nl/v_bodc_vocab_v2/search.asp?lib=l06, and platform name. example: research vessel tara.</t>
   </si>
   <si>
-    <t>marine_region</t>
+    <t>Marine Region</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by the marine region name chosen from the marine regions vocabulary at http://www.marineregions.org/. example: aegean sea.</t>
   </si>
   <si>
-    <t>salinity_sensor</t>
+    <t>Salinity Sensor</t>
   </si>
   <si>
     <t>(Mandatory) Salinity of water at the time of taking the sample. format: ##.####, sdn:p02:75:psal, sdn:p06:46:ugkg for psu. example: 39.2268. (Units: psu)</t>
   </si>
   <si>
-    <t>oxygen_sensor</t>
+    <t>Oxygen Sensor</t>
   </si>
   <si>
     <t>(Recommended) Oxygen concentration parameters in the water column measured in volts and converted to micromoles per kilogrammes. format: ###.####, sdn:p02:75:doxy, sdn:p06:46:kgum for µmol/kg. example: 217.7895. (Units: µmol/kg)</t>
   </si>
   <si>
-    <t>nitrate_sensor</t>
+    <t>Nitrate Sensor</t>
   </si>
   <si>
     <t>(Recommended) Nitrate concentration parameters in the water column measured in volts and converted to micromoles per litres. format: ##.####, sdn:p02:75:ntra, sdn:p06:46:upox for µmol/l. example: 0.2259. (Units: µmol/L)</t>
   </si>
   <si>
-    <t>water_temperature</t>
+    <t>water temperature</t>
   </si>
   <si>
     <t>(Mandatory) Temperature of water at the time of taking the sample. format: ##.####, sdn:p02:75:temp, sdn:p06:46:upaa for °c. example: 17.7122. (Units: ºC)</t>
   </si>
   <si>
-    <t>chlorophyll_sensor</t>
+    <t>Chlorophyll Sensor</t>
   </si>
   <si>
     <t>(Recommended) Fluorescence of the water measured in volts and converted to milligrammes of chlorophyll per cubic metre. format: ##.####, sdn:p02:75:cpwc, sdn:p06:46:ummc for mg chl/m3. example: 0.066. (Units: mg Chl/m3)</t>
@@ -1234,6 +1234,9 @@
     <t>Dominican Republic</t>
   </si>
   <si>
+    <t>East Timor</t>
+  </si>
+  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1252,9 +1255,6 @@
     <t>Estonia</t>
   </si>
   <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1456,9 +1456,6 @@
     <t>Liechtenstein</t>
   </si>
   <si>
-    <t>Line Islands</t>
-  </si>
-  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1468,6 +1465,9 @@
     <t>Macau</t>
   </si>
   <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1507,7 +1507,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia, Federated States of</t>
+    <t>Micronesia</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1576,9 +1576,6 @@
     <t>North Korea</t>
   </si>
   <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1654,9 +1651,6 @@
     <t>Rwanda</t>
   </si>
   <si>
-    <t>Saint Barthelemy</t>
-  </si>
-  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1678,9 +1672,6 @@
     <t>San Marino</t>
   </si>
   <si>
-    <t>Saint Martin</t>
-  </si>
-  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1726,9 +1717,6 @@
     <t>South Korea</t>
   </si>
   <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1741,9 +1729,6 @@
     <t>Sri Lanka</t>
   </si>
   <si>
-    <t>State of Palestine</t>
-  </si>
-  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1753,6 +1738,9 @@
     <t>Svalbard</t>
   </si>
   <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1777,9 +1765,6 @@
     <t>Thailand</t>
   </si>
   <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1840,12 +1825,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
     <t>Wake Island</t>
   </si>
   <si>
-    <t>Virgin Islands</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -1903,19 +1888,19 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic_location_country_andor_sea</t>
+    <t>geographic location (country and/or sea)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>citation</t>
+    <t>Citation</t>
   </si>
   <si>
     <t>(Recommended) Citation of the sample registry (html version) at the pangaea. example: doi.pangaea.de/10.1594/pangaea.76752.</t>
   </si>
   <si>
-    <t>further_details</t>
+    <t>Further Details</t>
   </si>
   <si>
     <t>(Recommended) Reference details related to a sample in form of an uri.</t>
@@ -1924,7 +1909,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
   </si>
 </sst>
 </file>
@@ -3568,16 +3553,16 @@
         <v>327</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="150" customHeight="1">
@@ -3681,16 +3666,16 @@
         <v>328</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -3708,7 +3693,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="T1:AH294"/>
+  <dimension ref="T1:AH289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5162,31 +5147,6 @@
         <v>617</v>
       </c>
     </row>
-    <row r="290" spans="34:34">
-      <c r="AH290" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="291" spans="34:34">
-      <c r="AH291" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="292" spans="34:34">
-      <c r="AH292" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="293" spans="34:34">
-      <c r="AH293" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="294" spans="34:34">
-      <c r="AH294" t="s">
-        <v>622</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/ERC000030/metadata_template_ERC000030.xlsx
+++ b/templates/ERC000030/metadata_template_ERC000030.xlsx
@@ -17,9 +17,9 @@
     <sheet name="cv_sample" sheetId="8" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="environmentalpackage">'cv_sample'!$T$1:$T$1</definedName>
+    <definedName name="environmentalpackage">'cv_sample'!$V$1:$V$1</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AH$1:$AH$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AJ$1:$AJ$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="630">
   <si>
     <t>alias</t>
   </si>
@@ -836,6 +836,18 @@
   </si>
   <si>
     <t>(Mandatory) Ncbi taxonomy identifier.  this is appropriate for individual organisms and some environmental samples.</t>
+  </si>
+  <si>
+    <t>scientific_name</t>
+  </si>
+  <si>
+    <t>(Optional) Scientific name of sample that distinguishes its taxonomy.  please use a name or synonym that is tracked in the insdc taxonomy database. also, this field can be used to confirm the taxon_id setting.</t>
+  </si>
+  <si>
+    <t>common_name</t>
+  </si>
+  <si>
+    <t>(Optional) Genbank common name of the organism.  examples: human, mouse.</t>
   </si>
   <si>
     <t>sample_description</t>
@@ -3443,7 +3455,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AM2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3452,7 +3464,7 @@
     <col min="1" max="301" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3511,10 +3523,10 @@
         <v>298</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>305</v>
@@ -3553,10 +3565,10 @@
         <v>327</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>618</v>
+        <v>329</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>620</v>
+        <v>331</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>622</v>
@@ -3564,8 +3576,14 @@
       <c r="AK1" s="1" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="2" spans="1:37" ht="150" customHeight="1">
+      <c r="AL1" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>264</v>
       </c>
@@ -3624,10 +3642,10 @@
         <v>299</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>306</v>
@@ -3666,10 +3684,10 @@
         <v>328</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>619</v>
+        <v>330</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>621</v>
+        <v>332</v>
       </c>
       <c r="AJ2" s="2" t="s">
         <v>623</v>
@@ -3677,13 +3695,19 @@
       <c r="AK2" s="2" t="s">
         <v>625</v>
       </c>
+      <c r="AL2" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>629</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:V101">
       <formula1>environmentalpackage</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ3:AJ101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
   </dataValidations>
@@ -3693,1458 +3717,1458 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="T1:AH289"/>
+  <dimension ref="V1:AJ289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="20:34">
-      <c r="T1" t="s">
-        <v>300</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="2" spans="20:34">
-      <c r="AH2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="3" spans="20:34">
-      <c r="AH3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="4" spans="20:34">
-      <c r="AH4" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="5" spans="20:34">
-      <c r="AH5" t="s">
+    <row r="1" spans="22:36">
+      <c r="V1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="20:34">
-      <c r="AH6" t="s">
+    <row r="2" spans="22:36">
+      <c r="AJ2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="7" spans="20:34">
-      <c r="AH7" t="s">
+    <row r="3" spans="22:36">
+      <c r="AJ3" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="8" spans="20:34">
-      <c r="AH8" t="s">
+    <row r="4" spans="22:36">
+      <c r="AJ4" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="9" spans="20:34">
-      <c r="AH9" t="s">
+    <row r="5" spans="22:36">
+      <c r="AJ5" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="10" spans="20:34">
-      <c r="AH10" t="s">
+    <row r="6" spans="22:36">
+      <c r="AJ6" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="11" spans="20:34">
-      <c r="AH11" t="s">
+    <row r="7" spans="22:36">
+      <c r="AJ7" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="12" spans="20:34">
-      <c r="AH12" t="s">
+    <row r="8" spans="22:36">
+      <c r="AJ8" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="13" spans="20:34">
-      <c r="AH13" t="s">
+    <row r="9" spans="22:36">
+      <c r="AJ9" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="14" spans="20:34">
-      <c r="AH14" t="s">
+    <row r="10" spans="22:36">
+      <c r="AJ10" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="15" spans="20:34">
-      <c r="AH15" t="s">
+    <row r="11" spans="22:36">
+      <c r="AJ11" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="16" spans="20:34">
-      <c r="AH16" t="s">
+    <row r="12" spans="22:36">
+      <c r="AJ12" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="17" spans="34:34">
-      <c r="AH17" t="s">
+    <row r="13" spans="22:36">
+      <c r="AJ13" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="18" spans="34:34">
-      <c r="AH18" t="s">
+    <row r="14" spans="22:36">
+      <c r="AJ14" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="19" spans="34:34">
-      <c r="AH19" t="s">
+    <row r="15" spans="22:36">
+      <c r="AJ15" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="20" spans="34:34">
-      <c r="AH20" t="s">
+    <row r="16" spans="22:36">
+      <c r="AJ16" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="21" spans="34:34">
-      <c r="AH21" t="s">
+    <row r="17" spans="36:36">
+      <c r="AJ17" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="22" spans="34:34">
-      <c r="AH22" t="s">
+    <row r="18" spans="36:36">
+      <c r="AJ18" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="23" spans="34:34">
-      <c r="AH23" t="s">
+    <row r="19" spans="36:36">
+      <c r="AJ19" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="24" spans="34:34">
-      <c r="AH24" t="s">
+    <row r="20" spans="36:36">
+      <c r="AJ20" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="25" spans="34:34">
-      <c r="AH25" t="s">
+    <row r="21" spans="36:36">
+      <c r="AJ21" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="26" spans="34:34">
-      <c r="AH26" t="s">
+    <row r="22" spans="36:36">
+      <c r="AJ22" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="27" spans="34:34">
-      <c r="AH27" t="s">
+    <row r="23" spans="36:36">
+      <c r="AJ23" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="28" spans="34:34">
-      <c r="AH28" t="s">
+    <row r="24" spans="36:36">
+      <c r="AJ24" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="29" spans="34:34">
-      <c r="AH29" t="s">
+    <row r="25" spans="36:36">
+      <c r="AJ25" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="30" spans="34:34">
-      <c r="AH30" t="s">
+    <row r="26" spans="36:36">
+      <c r="AJ26" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="31" spans="34:34">
-      <c r="AH31" t="s">
+    <row r="27" spans="36:36">
+      <c r="AJ27" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="32" spans="34:34">
-      <c r="AH32" t="s">
+    <row r="28" spans="36:36">
+      <c r="AJ28" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="33" spans="34:34">
-      <c r="AH33" t="s">
+    <row r="29" spans="36:36">
+      <c r="AJ29" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="34" spans="34:34">
-      <c r="AH34" t="s">
+    <row r="30" spans="36:36">
+      <c r="AJ30" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="35" spans="34:34">
-      <c r="AH35" t="s">
+    <row r="31" spans="36:36">
+      <c r="AJ31" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="36" spans="34:34">
-      <c r="AH36" t="s">
+    <row r="32" spans="36:36">
+      <c r="AJ32" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="37" spans="34:34">
-      <c r="AH37" t="s">
+    <row r="33" spans="36:36">
+      <c r="AJ33" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="38" spans="34:34">
-      <c r="AH38" t="s">
+    <row r="34" spans="36:36">
+      <c r="AJ34" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="39" spans="34:34">
-      <c r="AH39" t="s">
+    <row r="35" spans="36:36">
+      <c r="AJ35" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="40" spans="34:34">
-      <c r="AH40" t="s">
+    <row r="36" spans="36:36">
+      <c r="AJ36" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="41" spans="34:34">
-      <c r="AH41" t="s">
+    <row r="37" spans="36:36">
+      <c r="AJ37" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="42" spans="34:34">
-      <c r="AH42" t="s">
+    <row r="38" spans="36:36">
+      <c r="AJ38" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="43" spans="34:34">
-      <c r="AH43" t="s">
+    <row r="39" spans="36:36">
+      <c r="AJ39" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="44" spans="34:34">
-      <c r="AH44" t="s">
+    <row r="40" spans="36:36">
+      <c r="AJ40" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="45" spans="34:34">
-      <c r="AH45" t="s">
+    <row r="41" spans="36:36">
+      <c r="AJ41" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="46" spans="34:34">
-      <c r="AH46" t="s">
+    <row r="42" spans="36:36">
+      <c r="AJ42" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="47" spans="34:34">
-      <c r="AH47" t="s">
+    <row r="43" spans="36:36">
+      <c r="AJ43" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="48" spans="34:34">
-      <c r="AH48" t="s">
+    <row r="44" spans="36:36">
+      <c r="AJ44" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="49" spans="34:34">
-      <c r="AH49" t="s">
+    <row r="45" spans="36:36">
+      <c r="AJ45" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="50" spans="34:34">
-      <c r="AH50" t="s">
+    <row r="46" spans="36:36">
+      <c r="AJ46" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="51" spans="34:34">
-      <c r="AH51" t="s">
+    <row r="47" spans="36:36">
+      <c r="AJ47" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="52" spans="34:34">
-      <c r="AH52" t="s">
+    <row r="48" spans="36:36">
+      <c r="AJ48" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="53" spans="34:34">
-      <c r="AH53" t="s">
+    <row r="49" spans="36:36">
+      <c r="AJ49" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="54" spans="34:34">
-      <c r="AH54" t="s">
+    <row r="50" spans="36:36">
+      <c r="AJ50" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="55" spans="34:34">
-      <c r="AH55" t="s">
+    <row r="51" spans="36:36">
+      <c r="AJ51" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="56" spans="34:34">
-      <c r="AH56" t="s">
+    <row r="52" spans="36:36">
+      <c r="AJ52" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="57" spans="34:34">
-      <c r="AH57" t="s">
+    <row r="53" spans="36:36">
+      <c r="AJ53" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="58" spans="34:34">
-      <c r="AH58" t="s">
+    <row r="54" spans="36:36">
+      <c r="AJ54" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="59" spans="34:34">
-      <c r="AH59" t="s">
+    <row r="55" spans="36:36">
+      <c r="AJ55" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="60" spans="34:34">
-      <c r="AH60" t="s">
+    <row r="56" spans="36:36">
+      <c r="AJ56" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="61" spans="34:34">
-      <c r="AH61" t="s">
+    <row r="57" spans="36:36">
+      <c r="AJ57" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="62" spans="34:34">
-      <c r="AH62" t="s">
+    <row r="58" spans="36:36">
+      <c r="AJ58" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="63" spans="34:34">
-      <c r="AH63" t="s">
+    <row r="59" spans="36:36">
+      <c r="AJ59" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="64" spans="34:34">
-      <c r="AH64" t="s">
+    <row r="60" spans="36:36">
+      <c r="AJ60" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="65" spans="34:34">
-      <c r="AH65" t="s">
+    <row r="61" spans="36:36">
+      <c r="AJ61" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="66" spans="34:34">
-      <c r="AH66" t="s">
+    <row r="62" spans="36:36">
+      <c r="AJ62" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="67" spans="34:34">
-      <c r="AH67" t="s">
+    <row r="63" spans="36:36">
+      <c r="AJ63" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="68" spans="34:34">
-      <c r="AH68" t="s">
+    <row r="64" spans="36:36">
+      <c r="AJ64" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="69" spans="34:34">
-      <c r="AH69" t="s">
+    <row r="65" spans="36:36">
+      <c r="AJ65" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="70" spans="34:34">
-      <c r="AH70" t="s">
+    <row r="66" spans="36:36">
+      <c r="AJ66" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="71" spans="34:34">
-      <c r="AH71" t="s">
+    <row r="67" spans="36:36">
+      <c r="AJ67" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="72" spans="34:34">
-      <c r="AH72" t="s">
+    <row r="68" spans="36:36">
+      <c r="AJ68" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="73" spans="34:34">
-      <c r="AH73" t="s">
+    <row r="69" spans="36:36">
+      <c r="AJ69" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="74" spans="34:34">
-      <c r="AH74" t="s">
+    <row r="70" spans="36:36">
+      <c r="AJ70" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="75" spans="34:34">
-      <c r="AH75" t="s">
+    <row r="71" spans="36:36">
+      <c r="AJ71" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="76" spans="34:34">
-      <c r="AH76" t="s">
+    <row r="72" spans="36:36">
+      <c r="AJ72" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="77" spans="34:34">
-      <c r="AH77" t="s">
+    <row r="73" spans="36:36">
+      <c r="AJ73" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="78" spans="34:34">
-      <c r="AH78" t="s">
+    <row r="74" spans="36:36">
+      <c r="AJ74" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="79" spans="34:34">
-      <c r="AH79" t="s">
+    <row r="75" spans="36:36">
+      <c r="AJ75" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="80" spans="34:34">
-      <c r="AH80" t="s">
+    <row r="76" spans="36:36">
+      <c r="AJ76" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="81" spans="34:34">
-      <c r="AH81" t="s">
+    <row r="77" spans="36:36">
+      <c r="AJ77" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="82" spans="34:34">
-      <c r="AH82" t="s">
+    <row r="78" spans="36:36">
+      <c r="AJ78" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="83" spans="34:34">
-      <c r="AH83" t="s">
+    <row r="79" spans="36:36">
+      <c r="AJ79" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="84" spans="34:34">
-      <c r="AH84" t="s">
+    <row r="80" spans="36:36">
+      <c r="AJ80" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="85" spans="34:34">
-      <c r="AH85" t="s">
+    <row r="81" spans="36:36">
+      <c r="AJ81" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="86" spans="34:34">
-      <c r="AH86" t="s">
+    <row r="82" spans="36:36">
+      <c r="AJ82" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="87" spans="34:34">
-      <c r="AH87" t="s">
+    <row r="83" spans="36:36">
+      <c r="AJ83" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="88" spans="34:34">
-      <c r="AH88" t="s">
+    <row r="84" spans="36:36">
+      <c r="AJ84" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="89" spans="34:34">
-      <c r="AH89" t="s">
+    <row r="85" spans="36:36">
+      <c r="AJ85" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="90" spans="34:34">
-      <c r="AH90" t="s">
+    <row r="86" spans="36:36">
+      <c r="AJ86" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="91" spans="34:34">
-      <c r="AH91" t="s">
+    <row r="87" spans="36:36">
+      <c r="AJ87" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="92" spans="34:34">
-      <c r="AH92" t="s">
+    <row r="88" spans="36:36">
+      <c r="AJ88" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="93" spans="34:34">
-      <c r="AH93" t="s">
+    <row r="89" spans="36:36">
+      <c r="AJ89" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="94" spans="34:34">
-      <c r="AH94" t="s">
+    <row r="90" spans="36:36">
+      <c r="AJ90" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="95" spans="34:34">
-      <c r="AH95" t="s">
+    <row r="91" spans="36:36">
+      <c r="AJ91" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="96" spans="34:34">
-      <c r="AH96" t="s">
+    <row r="92" spans="36:36">
+      <c r="AJ92" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="97" spans="34:34">
-      <c r="AH97" t="s">
+    <row r="93" spans="36:36">
+      <c r="AJ93" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="98" spans="34:34">
-      <c r="AH98" t="s">
+    <row r="94" spans="36:36">
+      <c r="AJ94" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="99" spans="34:34">
-      <c r="AH99" t="s">
+    <row r="95" spans="36:36">
+      <c r="AJ95" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="100" spans="34:34">
-      <c r="AH100" t="s">
+    <row r="96" spans="36:36">
+      <c r="AJ96" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="101" spans="34:34">
-      <c r="AH101" t="s">
+    <row r="97" spans="36:36">
+      <c r="AJ97" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="102" spans="34:34">
-      <c r="AH102" t="s">
+    <row r="98" spans="36:36">
+      <c r="AJ98" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="103" spans="34:34">
-      <c r="AH103" t="s">
+    <row r="99" spans="36:36">
+      <c r="AJ99" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="104" spans="34:34">
-      <c r="AH104" t="s">
+    <row r="100" spans="36:36">
+      <c r="AJ100" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="105" spans="34:34">
-      <c r="AH105" t="s">
+    <row r="101" spans="36:36">
+      <c r="AJ101" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="106" spans="34:34">
-      <c r="AH106" t="s">
+    <row r="102" spans="36:36">
+      <c r="AJ102" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="107" spans="34:34">
-      <c r="AH107" t="s">
+    <row r="103" spans="36:36">
+      <c r="AJ103" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="108" spans="34:34">
-      <c r="AH108" t="s">
+    <row r="104" spans="36:36">
+      <c r="AJ104" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="109" spans="34:34">
-      <c r="AH109" t="s">
+    <row r="105" spans="36:36">
+      <c r="AJ105" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="110" spans="34:34">
-      <c r="AH110" t="s">
+    <row r="106" spans="36:36">
+      <c r="AJ106" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="111" spans="34:34">
-      <c r="AH111" t="s">
+    <row r="107" spans="36:36">
+      <c r="AJ107" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="112" spans="34:34">
-      <c r="AH112" t="s">
+    <row r="108" spans="36:36">
+      <c r="AJ108" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="113" spans="34:34">
-      <c r="AH113" t="s">
+    <row r="109" spans="36:36">
+      <c r="AJ109" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="114" spans="34:34">
-      <c r="AH114" t="s">
+    <row r="110" spans="36:36">
+      <c r="AJ110" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="115" spans="34:34">
-      <c r="AH115" t="s">
+    <row r="111" spans="36:36">
+      <c r="AJ111" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="116" spans="34:34">
-      <c r="AH116" t="s">
+    <row r="112" spans="36:36">
+      <c r="AJ112" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="117" spans="34:34">
-      <c r="AH117" t="s">
+    <row r="113" spans="36:36">
+      <c r="AJ113" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="118" spans="34:34">
-      <c r="AH118" t="s">
+    <row r="114" spans="36:36">
+      <c r="AJ114" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="119" spans="34:34">
-      <c r="AH119" t="s">
+    <row r="115" spans="36:36">
+      <c r="AJ115" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="120" spans="34:34">
-      <c r="AH120" t="s">
+    <row r="116" spans="36:36">
+      <c r="AJ116" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="121" spans="34:34">
-      <c r="AH121" t="s">
+    <row r="117" spans="36:36">
+      <c r="AJ117" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="122" spans="34:34">
-      <c r="AH122" t="s">
+    <row r="118" spans="36:36">
+      <c r="AJ118" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="123" spans="34:34">
-      <c r="AH123" t="s">
+    <row r="119" spans="36:36">
+      <c r="AJ119" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="124" spans="34:34">
-      <c r="AH124" t="s">
+    <row r="120" spans="36:36">
+      <c r="AJ120" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="125" spans="34:34">
-      <c r="AH125" t="s">
+    <row r="121" spans="36:36">
+      <c r="AJ121" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="126" spans="34:34">
-      <c r="AH126" t="s">
+    <row r="122" spans="36:36">
+      <c r="AJ122" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="127" spans="34:34">
-      <c r="AH127" t="s">
+    <row r="123" spans="36:36">
+      <c r="AJ123" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="128" spans="34:34">
-      <c r="AH128" t="s">
+    <row r="124" spans="36:36">
+      <c r="AJ124" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="129" spans="34:34">
-      <c r="AH129" t="s">
+    <row r="125" spans="36:36">
+      <c r="AJ125" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="130" spans="34:34">
-      <c r="AH130" t="s">
+    <row r="126" spans="36:36">
+      <c r="AJ126" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="131" spans="34:34">
-      <c r="AH131" t="s">
+    <row r="127" spans="36:36">
+      <c r="AJ127" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="132" spans="34:34">
-      <c r="AH132" t="s">
+    <row r="128" spans="36:36">
+      <c r="AJ128" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="133" spans="34:34">
-      <c r="AH133" t="s">
+    <row r="129" spans="36:36">
+      <c r="AJ129" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="134" spans="34:34">
-      <c r="AH134" t="s">
+    <row r="130" spans="36:36">
+      <c r="AJ130" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="135" spans="34:34">
-      <c r="AH135" t="s">
+    <row r="131" spans="36:36">
+      <c r="AJ131" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="136" spans="34:34">
-      <c r="AH136" t="s">
+    <row r="132" spans="36:36">
+      <c r="AJ132" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="137" spans="34:34">
-      <c r="AH137" t="s">
+    <row r="133" spans="36:36">
+      <c r="AJ133" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="138" spans="34:34">
-      <c r="AH138" t="s">
+    <row r="134" spans="36:36">
+      <c r="AJ134" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="139" spans="34:34">
-      <c r="AH139" t="s">
+    <row r="135" spans="36:36">
+      <c r="AJ135" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="140" spans="34:34">
-      <c r="AH140" t="s">
+    <row r="136" spans="36:36">
+      <c r="AJ136" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="141" spans="34:34">
-      <c r="AH141" t="s">
+    <row r="137" spans="36:36">
+      <c r="AJ137" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="142" spans="34:34">
-      <c r="AH142" t="s">
+    <row r="138" spans="36:36">
+      <c r="AJ138" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="143" spans="34:34">
-      <c r="AH143" t="s">
+    <row r="139" spans="36:36">
+      <c r="AJ139" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="144" spans="34:34">
-      <c r="AH144" t="s">
+    <row r="140" spans="36:36">
+      <c r="AJ140" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="145" spans="34:34">
-      <c r="AH145" t="s">
+    <row r="141" spans="36:36">
+      <c r="AJ141" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="146" spans="34:34">
-      <c r="AH146" t="s">
+    <row r="142" spans="36:36">
+      <c r="AJ142" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="147" spans="34:34">
-      <c r="AH147" t="s">
+    <row r="143" spans="36:36">
+      <c r="AJ143" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="148" spans="34:34">
-      <c r="AH148" t="s">
+    <row r="144" spans="36:36">
+      <c r="AJ144" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="149" spans="34:34">
-      <c r="AH149" t="s">
+    <row r="145" spans="36:36">
+      <c r="AJ145" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="150" spans="34:34">
-      <c r="AH150" t="s">
+    <row r="146" spans="36:36">
+      <c r="AJ146" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="151" spans="34:34">
-      <c r="AH151" t="s">
+    <row r="147" spans="36:36">
+      <c r="AJ147" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="152" spans="34:34">
-      <c r="AH152" t="s">
+    <row r="148" spans="36:36">
+      <c r="AJ148" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="153" spans="34:34">
-      <c r="AH153" t="s">
+    <row r="149" spans="36:36">
+      <c r="AJ149" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="154" spans="34:34">
-      <c r="AH154" t="s">
+    <row r="150" spans="36:36">
+      <c r="AJ150" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="155" spans="34:34">
-      <c r="AH155" t="s">
+    <row r="151" spans="36:36">
+      <c r="AJ151" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="156" spans="34:34">
-      <c r="AH156" t="s">
+    <row r="152" spans="36:36">
+      <c r="AJ152" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="157" spans="34:34">
-      <c r="AH157" t="s">
+    <row r="153" spans="36:36">
+      <c r="AJ153" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="158" spans="34:34">
-      <c r="AH158" t="s">
+    <row r="154" spans="36:36">
+      <c r="AJ154" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="159" spans="34:34">
-      <c r="AH159" t="s">
+    <row r="155" spans="36:36">
+      <c r="AJ155" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="160" spans="34:34">
-      <c r="AH160" t="s">
+    <row r="156" spans="36:36">
+      <c r="AJ156" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="161" spans="34:34">
-      <c r="AH161" t="s">
+    <row r="157" spans="36:36">
+      <c r="AJ157" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="162" spans="34:34">
-      <c r="AH162" t="s">
+    <row r="158" spans="36:36">
+      <c r="AJ158" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="163" spans="34:34">
-      <c r="AH163" t="s">
+    <row r="159" spans="36:36">
+      <c r="AJ159" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="164" spans="34:34">
-      <c r="AH164" t="s">
+    <row r="160" spans="36:36">
+      <c r="AJ160" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="165" spans="34:34">
-      <c r="AH165" t="s">
+    <row r="161" spans="36:36">
+      <c r="AJ161" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="166" spans="34:34">
-      <c r="AH166" t="s">
+    <row r="162" spans="36:36">
+      <c r="AJ162" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="167" spans="34:34">
-      <c r="AH167" t="s">
+    <row r="163" spans="36:36">
+      <c r="AJ163" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="168" spans="34:34">
-      <c r="AH168" t="s">
+    <row r="164" spans="36:36">
+      <c r="AJ164" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="169" spans="34:34">
-      <c r="AH169" t="s">
+    <row r="165" spans="36:36">
+      <c r="AJ165" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="170" spans="34:34">
-      <c r="AH170" t="s">
+    <row r="166" spans="36:36">
+      <c r="AJ166" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="171" spans="34:34">
-      <c r="AH171" t="s">
+    <row r="167" spans="36:36">
+      <c r="AJ167" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="172" spans="34:34">
-      <c r="AH172" t="s">
+    <row r="168" spans="36:36">
+      <c r="AJ168" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="173" spans="34:34">
-      <c r="AH173" t="s">
+    <row r="169" spans="36:36">
+      <c r="AJ169" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="174" spans="34:34">
-      <c r="AH174" t="s">
+    <row r="170" spans="36:36">
+      <c r="AJ170" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="175" spans="34:34">
-      <c r="AH175" t="s">
+    <row r="171" spans="36:36">
+      <c r="AJ171" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="176" spans="34:34">
-      <c r="AH176" t="s">
+    <row r="172" spans="36:36">
+      <c r="AJ172" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="177" spans="34:34">
-      <c r="AH177" t="s">
+    <row r="173" spans="36:36">
+      <c r="AJ173" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="178" spans="34:34">
-      <c r="AH178" t="s">
+    <row r="174" spans="36:36">
+      <c r="AJ174" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="179" spans="34:34">
-      <c r="AH179" t="s">
+    <row r="175" spans="36:36">
+      <c r="AJ175" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="180" spans="34:34">
-      <c r="AH180" t="s">
+    <row r="176" spans="36:36">
+      <c r="AJ176" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="181" spans="34:34">
-      <c r="AH181" t="s">
+    <row r="177" spans="36:36">
+      <c r="AJ177" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="182" spans="34:34">
-      <c r="AH182" t="s">
+    <row r="178" spans="36:36">
+      <c r="AJ178" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="183" spans="34:34">
-      <c r="AH183" t="s">
+    <row r="179" spans="36:36">
+      <c r="AJ179" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="184" spans="34:34">
-      <c r="AH184" t="s">
+    <row r="180" spans="36:36">
+      <c r="AJ180" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="185" spans="34:34">
-      <c r="AH185" t="s">
+    <row r="181" spans="36:36">
+      <c r="AJ181" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="186" spans="34:34">
-      <c r="AH186" t="s">
+    <row r="182" spans="36:36">
+      <c r="AJ182" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="187" spans="34:34">
-      <c r="AH187" t="s">
+    <row r="183" spans="36:36">
+      <c r="AJ183" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="188" spans="34:34">
-      <c r="AH188" t="s">
+    <row r="184" spans="36:36">
+      <c r="AJ184" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="189" spans="34:34">
-      <c r="AH189" t="s">
+    <row r="185" spans="36:36">
+      <c r="AJ185" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="190" spans="34:34">
-      <c r="AH190" t="s">
+    <row r="186" spans="36:36">
+      <c r="AJ186" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="191" spans="34:34">
-      <c r="AH191" t="s">
+    <row r="187" spans="36:36">
+      <c r="AJ187" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="192" spans="34:34">
-      <c r="AH192" t="s">
+    <row r="188" spans="36:36">
+      <c r="AJ188" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="193" spans="34:34">
-      <c r="AH193" t="s">
+    <row r="189" spans="36:36">
+      <c r="AJ189" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="194" spans="34:34">
-      <c r="AH194" t="s">
+    <row r="190" spans="36:36">
+      <c r="AJ190" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="195" spans="34:34">
-      <c r="AH195" t="s">
+    <row r="191" spans="36:36">
+      <c r="AJ191" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="196" spans="34:34">
-      <c r="AH196" t="s">
+    <row r="192" spans="36:36">
+      <c r="AJ192" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="197" spans="34:34">
-      <c r="AH197" t="s">
+    <row r="193" spans="36:36">
+      <c r="AJ193" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="198" spans="34:34">
-      <c r="AH198" t="s">
+    <row r="194" spans="36:36">
+      <c r="AJ194" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="199" spans="34:34">
-      <c r="AH199" t="s">
+    <row r="195" spans="36:36">
+      <c r="AJ195" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="200" spans="34:34">
-      <c r="AH200" t="s">
+    <row r="196" spans="36:36">
+      <c r="AJ196" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="201" spans="34:34">
-      <c r="AH201" t="s">
+    <row r="197" spans="36:36">
+      <c r="AJ197" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="202" spans="34:34">
-      <c r="AH202" t="s">
+    <row r="198" spans="36:36">
+      <c r="AJ198" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="203" spans="34:34">
-      <c r="AH203" t="s">
+    <row r="199" spans="36:36">
+      <c r="AJ199" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="204" spans="34:34">
-      <c r="AH204" t="s">
+    <row r="200" spans="36:36">
+      <c r="AJ200" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="205" spans="34:34">
-      <c r="AH205" t="s">
+    <row r="201" spans="36:36">
+      <c r="AJ201" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="206" spans="34:34">
-      <c r="AH206" t="s">
+    <row r="202" spans="36:36">
+      <c r="AJ202" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="207" spans="34:34">
-      <c r="AH207" t="s">
+    <row r="203" spans="36:36">
+      <c r="AJ203" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="208" spans="34:34">
-      <c r="AH208" t="s">
+    <row r="204" spans="36:36">
+      <c r="AJ204" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="209" spans="34:34">
-      <c r="AH209" t="s">
+    <row r="205" spans="36:36">
+      <c r="AJ205" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="210" spans="34:34">
-      <c r="AH210" t="s">
+    <row r="206" spans="36:36">
+      <c r="AJ206" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="211" spans="34:34">
-      <c r="AH211" t="s">
+    <row r="207" spans="36:36">
+      <c r="AJ207" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="212" spans="34:34">
-      <c r="AH212" t="s">
+    <row r="208" spans="36:36">
+      <c r="AJ208" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="213" spans="34:34">
-      <c r="AH213" t="s">
+    <row r="209" spans="36:36">
+      <c r="AJ209" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="214" spans="34:34">
-      <c r="AH214" t="s">
+    <row r="210" spans="36:36">
+      <c r="AJ210" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="215" spans="34:34">
-      <c r="AH215" t="s">
+    <row r="211" spans="36:36">
+      <c r="AJ211" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="216" spans="34:34">
-      <c r="AH216" t="s">
+    <row r="212" spans="36:36">
+      <c r="AJ212" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="217" spans="34:34">
-      <c r="AH217" t="s">
+    <row r="213" spans="36:36">
+      <c r="AJ213" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="218" spans="34:34">
-      <c r="AH218" t="s">
+    <row r="214" spans="36:36">
+      <c r="AJ214" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="219" spans="34:34">
-      <c r="AH219" t="s">
+    <row r="215" spans="36:36">
+      <c r="AJ215" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="220" spans="34:34">
-      <c r="AH220" t="s">
+    <row r="216" spans="36:36">
+      <c r="AJ216" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="221" spans="34:34">
-      <c r="AH221" t="s">
+    <row r="217" spans="36:36">
+      <c r="AJ217" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="222" spans="34:34">
-      <c r="AH222" t="s">
+    <row r="218" spans="36:36">
+      <c r="AJ218" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="223" spans="34:34">
-      <c r="AH223" t="s">
+    <row r="219" spans="36:36">
+      <c r="AJ219" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="224" spans="34:34">
-      <c r="AH224" t="s">
+    <row r="220" spans="36:36">
+      <c r="AJ220" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="225" spans="34:34">
-      <c r="AH225" t="s">
+    <row r="221" spans="36:36">
+      <c r="AJ221" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="226" spans="34:34">
-      <c r="AH226" t="s">
+    <row r="222" spans="36:36">
+      <c r="AJ222" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="227" spans="34:34">
-      <c r="AH227" t="s">
+    <row r="223" spans="36:36">
+      <c r="AJ223" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="228" spans="34:34">
-      <c r="AH228" t="s">
+    <row r="224" spans="36:36">
+      <c r="AJ224" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="229" spans="34:34">
-      <c r="AH229" t="s">
+    <row r="225" spans="36:36">
+      <c r="AJ225" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="230" spans="34:34">
-      <c r="AH230" t="s">
+    <row r="226" spans="36:36">
+      <c r="AJ226" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="231" spans="34:34">
-      <c r="AH231" t="s">
+    <row r="227" spans="36:36">
+      <c r="AJ227" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="232" spans="34:34">
-      <c r="AH232" t="s">
+    <row r="228" spans="36:36">
+      <c r="AJ228" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="233" spans="34:34">
-      <c r="AH233" t="s">
+    <row r="229" spans="36:36">
+      <c r="AJ229" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="234" spans="34:34">
-      <c r="AH234" t="s">
+    <row r="230" spans="36:36">
+      <c r="AJ230" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="235" spans="34:34">
-      <c r="AH235" t="s">
+    <row r="231" spans="36:36">
+      <c r="AJ231" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="236" spans="34:34">
-      <c r="AH236" t="s">
+    <row r="232" spans="36:36">
+      <c r="AJ232" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="237" spans="34:34">
-      <c r="AH237" t="s">
+    <row r="233" spans="36:36">
+      <c r="AJ233" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="238" spans="34:34">
-      <c r="AH238" t="s">
+    <row r="234" spans="36:36">
+      <c r="AJ234" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="239" spans="34:34">
-      <c r="AH239" t="s">
+    <row r="235" spans="36:36">
+      <c r="AJ235" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="240" spans="34:34">
-      <c r="AH240" t="s">
+    <row r="236" spans="36:36">
+      <c r="AJ236" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="241" spans="34:34">
-      <c r="AH241" t="s">
+    <row r="237" spans="36:36">
+      <c r="AJ237" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="242" spans="34:34">
-      <c r="AH242" t="s">
+    <row r="238" spans="36:36">
+      <c r="AJ238" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="243" spans="34:34">
-      <c r="AH243" t="s">
+    <row r="239" spans="36:36">
+      <c r="AJ239" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="244" spans="34:34">
-      <c r="AH244" t="s">
+    <row r="240" spans="36:36">
+      <c r="AJ240" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="245" spans="34:34">
-      <c r="AH245" t="s">
+    <row r="241" spans="36:36">
+      <c r="AJ241" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="246" spans="34:34">
-      <c r="AH246" t="s">
+    <row r="242" spans="36:36">
+      <c r="AJ242" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="247" spans="34:34">
-      <c r="AH247" t="s">
+    <row r="243" spans="36:36">
+      <c r="AJ243" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="248" spans="34:34">
-      <c r="AH248" t="s">
+    <row r="244" spans="36:36">
+      <c r="AJ244" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="249" spans="34:34">
-      <c r="AH249" t="s">
+    <row r="245" spans="36:36">
+      <c r="AJ245" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="250" spans="34:34">
-      <c r="AH250" t="s">
+    <row r="246" spans="36:36">
+      <c r="AJ246" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="251" spans="34:34">
-      <c r="AH251" t="s">
+    <row r="247" spans="36:36">
+      <c r="AJ247" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="252" spans="34:34">
-      <c r="AH252" t="s">
+    <row r="248" spans="36:36">
+      <c r="AJ248" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="253" spans="34:34">
-      <c r="AH253" t="s">
+    <row r="249" spans="36:36">
+      <c r="AJ249" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="254" spans="34:34">
-      <c r="AH254" t="s">
+    <row r="250" spans="36:36">
+      <c r="AJ250" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="255" spans="34:34">
-      <c r="AH255" t="s">
+    <row r="251" spans="36:36">
+      <c r="AJ251" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="256" spans="34:34">
-      <c r="AH256" t="s">
+    <row r="252" spans="36:36">
+      <c r="AJ252" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="257" spans="34:34">
-      <c r="AH257" t="s">
+    <row r="253" spans="36:36">
+      <c r="AJ253" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="258" spans="34:34">
-      <c r="AH258" t="s">
+    <row r="254" spans="36:36">
+      <c r="AJ254" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="259" spans="34:34">
-      <c r="AH259" t="s">
+    <row r="255" spans="36:36">
+      <c r="AJ255" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="260" spans="34:34">
-      <c r="AH260" t="s">
+    <row r="256" spans="36:36">
+      <c r="AJ256" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="261" spans="34:34">
-      <c r="AH261" t="s">
+    <row r="257" spans="36:36">
+      <c r="AJ257" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="262" spans="34:34">
-      <c r="AH262" t="s">
+    <row r="258" spans="36:36">
+      <c r="AJ258" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="263" spans="34:34">
-      <c r="AH263" t="s">
+    <row r="259" spans="36:36">
+      <c r="AJ259" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="264" spans="34:34">
-      <c r="AH264" t="s">
+    <row r="260" spans="36:36">
+      <c r="AJ260" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="265" spans="34:34">
-      <c r="AH265" t="s">
+    <row r="261" spans="36:36">
+      <c r="AJ261" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="266" spans="34:34">
-      <c r="AH266" t="s">
+    <row r="262" spans="36:36">
+      <c r="AJ262" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="267" spans="34:34">
-      <c r="AH267" t="s">
+    <row r="263" spans="36:36">
+      <c r="AJ263" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="268" spans="34:34">
-      <c r="AH268" t="s">
+    <row r="264" spans="36:36">
+      <c r="AJ264" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="269" spans="34:34">
-      <c r="AH269" t="s">
+    <row r="265" spans="36:36">
+      <c r="AJ265" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="270" spans="34:34">
-      <c r="AH270" t="s">
+    <row r="266" spans="36:36">
+      <c r="AJ266" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="271" spans="34:34">
-      <c r="AH271" t="s">
+    <row r="267" spans="36:36">
+      <c r="AJ267" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="272" spans="34:34">
-      <c r="AH272" t="s">
+    <row r="268" spans="36:36">
+      <c r="AJ268" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="273" spans="34:34">
-      <c r="AH273" t="s">
+    <row r="269" spans="36:36">
+      <c r="AJ269" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="274" spans="34:34">
-      <c r="AH274" t="s">
+    <row r="270" spans="36:36">
+      <c r="AJ270" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="275" spans="34:34">
-      <c r="AH275" t="s">
+    <row r="271" spans="36:36">
+      <c r="AJ271" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="276" spans="34:34">
-      <c r="AH276" t="s">
+    <row r="272" spans="36:36">
+      <c r="AJ272" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="277" spans="34:34">
-      <c r="AH277" t="s">
+    <row r="273" spans="36:36">
+      <c r="AJ273" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="278" spans="34:34">
-      <c r="AH278" t="s">
+    <row r="274" spans="36:36">
+      <c r="AJ274" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="279" spans="34:34">
-      <c r="AH279" t="s">
+    <row r="275" spans="36:36">
+      <c r="AJ275" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="280" spans="34:34">
-      <c r="AH280" t="s">
+    <row r="276" spans="36:36">
+      <c r="AJ276" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="281" spans="34:34">
-      <c r="AH281" t="s">
+    <row r="277" spans="36:36">
+      <c r="AJ277" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="282" spans="34:34">
-      <c r="AH282" t="s">
+    <row r="278" spans="36:36">
+      <c r="AJ278" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="283" spans="34:34">
-      <c r="AH283" t="s">
+    <row r="279" spans="36:36">
+      <c r="AJ279" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="284" spans="34:34">
-      <c r="AH284" t="s">
+    <row r="280" spans="36:36">
+      <c r="AJ280" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="285" spans="34:34">
-      <c r="AH285" t="s">
+    <row r="281" spans="36:36">
+      <c r="AJ281" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="286" spans="34:34">
-      <c r="AH286" t="s">
+    <row r="282" spans="36:36">
+      <c r="AJ282" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="287" spans="34:34">
-      <c r="AH287" t="s">
+    <row r="283" spans="36:36">
+      <c r="AJ283" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="288" spans="34:34">
-      <c r="AH288" t="s">
+    <row r="284" spans="36:36">
+      <c r="AJ284" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="289" spans="34:34">
-      <c r="AH289" t="s">
+    <row r="285" spans="36:36">
+      <c r="AJ285" t="s">
         <v>617</v>
+      </c>
+    </row>
+    <row r="286" spans="36:36">
+      <c r="AJ286" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="287" spans="36:36">
+      <c r="AJ287" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="288" spans="36:36">
+      <c r="AJ288" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="289" spans="36:36">
+      <c r="AJ289" t="s">
+        <v>621</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000030/metadata_template_ERC000030.xlsx
+++ b/templates/ERC000030/metadata_template_ERC000030.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="environmentalpackage">'cv_sample'!$V$1:$V$1</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AJ$1:$AJ$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AJ$1:$AJ$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="635">
   <si>
     <t>alias</t>
   </si>
@@ -931,13 +931,13 @@
     <t>size-fraction lower threshold</t>
   </si>
   <si>
-    <t>(Recommended) Refers to the mesh/pore size used to retain the sample. materials smaller than the size threshold are excluded from the sample (Units: µm)</t>
+    <t>(Recommended) Refers to the mesh/pore size used to retain the sample. materials smaller than the size threshold are excluded from the sample (Units: mm, µm, nm)</t>
   </si>
   <si>
     <t>size-fraction upper threshold</t>
   </si>
   <si>
-    <t>(Recommended) Refers to the mesh/pore size used to pre-filter/pre-sort the sample. materials larger than the size threshold are excluded from the sample (Units: µm)</t>
+    <t>(Recommended) Refers to the mesh/pore size used to pre-filter/pre-sort the sample. materials larger than the size threshold are excluded from the sample (Units: mm, µm, nm)</t>
   </si>
   <si>
     <t>project name</t>
@@ -1246,9 +1246,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1267,6 +1264,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1468,6 +1468,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1477,9 +1480,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1519,7 +1519,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1588,6 +1588,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1663,6 +1666,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1684,6 +1690,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1729,6 +1738,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1741,6 +1753,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1750,9 +1765,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1777,6 +1789,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1837,12 +1852,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -1921,7 +1936,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm, m)</t>
   </si>
 </sst>
 </file>
@@ -3571,16 +3586,16 @@
         <v>331</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="150" customHeight="1">
@@ -3690,16 +3705,16 @@
         <v>332</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
     </row>
   </sheetData>
@@ -3717,7 +3732,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="V1:AJ289"/>
+  <dimension ref="V1:AJ294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5171,6 +5186,31 @@
         <v>621</v>
       </c>
     </row>
+    <row r="290" spans="36:36">
+      <c r="AJ290" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="291" spans="36:36">
+      <c r="AJ291" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="292" spans="36:36">
+      <c r="AJ292" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="293" spans="36:36">
+      <c r="AJ293" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="294" spans="36:36">
+      <c r="AJ294" t="s">
+        <v>626</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/ERC000030/metadata_template_ERC000030.xlsx
+++ b/templates/ERC000030/metadata_template_ERC000030.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="environmentalpackage">'cv_sample'!$V$1:$V$1</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AJ$1:$AJ$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AJ$1:$AJ$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="635">
   <si>
     <t>alias</t>
   </si>
@@ -931,13 +931,13 @@
     <t>size-fraction lower threshold</t>
   </si>
   <si>
-    <t>(Recommended) Refers to the mesh/pore size used to retain the sample. materials smaller than the size threshold are excluded from the sample (Units: µm)</t>
+    <t>(Recommended) Refers to the mesh/pore size used to retain the sample. materials smaller than the size threshold are excluded from the sample (Units: nm)</t>
   </si>
   <si>
     <t>size-fraction upper threshold</t>
   </si>
   <si>
-    <t>(Recommended) Refers to the mesh/pore size used to pre-filter/pre-sort the sample. materials larger than the size threshold are excluded from the sample (Units: µm)</t>
+    <t>(Recommended) Refers to the mesh/pore size used to pre-filter/pre-sort the sample. materials larger than the size threshold are excluded from the sample (Units: nm)</t>
   </si>
   <si>
     <t>project name</t>
@@ -1246,9 +1246,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1267,6 +1264,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1468,6 +1468,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1477,9 +1480,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1519,7 +1519,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1588,6 +1588,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1663,6 +1666,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1684,6 +1690,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1729,6 +1738,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1741,6 +1753,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1750,9 +1765,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1777,6 +1789,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1837,12 +1852,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -1921,7 +1936,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
   </si>
 </sst>
 </file>
@@ -3571,16 +3586,16 @@
         <v>331</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="150" customHeight="1">
@@ -3690,16 +3705,16 @@
         <v>332</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
     </row>
   </sheetData>
@@ -3717,7 +3732,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="V1:AJ289"/>
+  <dimension ref="V1:AJ294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5171,6 +5186,31 @@
         <v>621</v>
       </c>
     </row>
+    <row r="290" spans="36:36">
+      <c r="AJ290" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="291" spans="36:36">
+      <c r="AJ291" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="292" spans="36:36">
+      <c r="AJ292" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="293" spans="36:36">
+      <c r="AJ293" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="294" spans="36:36">
+      <c r="AJ294" t="s">
+        <v>626</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
